--- a/src/Send-off.xlsx
+++ b/src/Send-off.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUISRICARDOGerbelli\Documents\GitHub\send-off\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E13D663-13FA-4005-A62B-0DB637D11399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D5870C-B59B-456D-B87B-4A67BD4445A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73E549BB-D9AE-42B8-B9EF-C186AC431F7B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Send-off" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Send-off'!$A$1:$K$319</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Send-off'!$A$1:$L$319</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="616">
   <si>
     <t>Quarto 1</t>
   </si>
@@ -1866,6 +1866,24 @@
   </si>
   <si>
     <t>PictureMax</t>
+  </si>
+  <si>
+    <t>Vender</t>
+  </si>
+  <si>
+    <t>Doar</t>
+  </si>
+  <si>
+    <t>Levar</t>
+  </si>
+  <si>
+    <t>Vendido</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Descartar</t>
   </si>
 </sst>
 </file>
@@ -2285,7 +2303,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA26E52-B7FB-4B01-98F3-C24F63094090}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K319"/>
+  <dimension ref="A1:L319"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -2301,9 +2319,10 @@
     <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="18.5703125" customWidth="1"/>
     <col min="11" max="11" width="38" style="6" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>599</v>
       </c>
@@ -2337,8 +2356,11 @@
       <c r="K1" s="5" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2372,8 +2394,11 @@
       <c r="K2" s="6" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2407,8 +2432,11 @@
       <c r="K3" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2442,8 +2470,11 @@
       <c r="K4" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2477,8 +2508,11 @@
       <c r="K5" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2512,8 +2546,11 @@
       <c r="K6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2547,8 +2584,11 @@
       <c r="K7" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2582,8 +2622,11 @@
       <c r="K8" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2617,8 +2660,11 @@
       <c r="K9" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>540</v>
       </c>
@@ -2652,8 +2698,11 @@
       <c r="K10" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>541</v>
       </c>
@@ -2687,8 +2736,11 @@
       <c r="K11" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>542</v>
       </c>
@@ -2722,8 +2774,11 @@
       <c r="K12" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>543</v>
       </c>
@@ -2757,8 +2812,11 @@
       <c r="K13" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>544</v>
       </c>
@@ -2792,8 +2850,11 @@
       <c r="K14" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>545</v>
       </c>
@@ -2827,8 +2888,11 @@
       <c r="K15" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>546</v>
       </c>
@@ -2862,8 +2926,11 @@
       <c r="K16" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2897,8 +2964,11 @@
       <c r="K17" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2932,8 +3002,11 @@
       <c r="K18" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2967,8 +3040,11 @@
       <c r="K19" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3002,8 +3078,11 @@
       <c r="K20" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>547</v>
       </c>
@@ -3037,8 +3116,11 @@
       <c r="K21" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>548</v>
       </c>
@@ -3072,8 +3154,11 @@
       <c r="K22" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3107,8 +3192,11 @@
       <c r="K23" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3142,8 +3230,11 @@
       <c r="K24" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -3177,8 +3268,11 @@
       <c r="K25" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -3212,8 +3306,11 @@
       <c r="K26" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -3247,8 +3344,11 @@
       <c r="K27" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -3282,8 +3382,11 @@
       <c r="K28" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -3317,8 +3420,11 @@
       <c r="K29" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>549</v>
       </c>
@@ -3352,8 +3458,11 @@
       <c r="K30" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>550</v>
       </c>
@@ -3387,8 +3496,11 @@
       <c r="K31" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -3422,8 +3534,11 @@
       <c r="K32" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -3457,8 +3572,11 @@
       <c r="K33" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -3492,8 +3610,11 @@
       <c r="K34" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -3527,8 +3648,11 @@
       <c r="K35" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -3562,8 +3686,11 @@
       <c r="K36" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -3597,8 +3724,11 @@
       <c r="K37" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -3632,8 +3762,11 @@
       <c r="K38" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3800,11 @@
       <c r="K39" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -3702,8 +3838,11 @@
       <c r="K40" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -3737,8 +3876,11 @@
       <c r="K41" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -3772,8 +3914,11 @@
       <c r="K42" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -3807,8 +3952,11 @@
       <c r="K43" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -3842,8 +3990,11 @@
       <c r="K44" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -3877,8 +4028,11 @@
       <c r="K45" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -3912,8 +4066,11 @@
       <c r="K46" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -3947,8 +4104,11 @@
       <c r="K47" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -3982,8 +4142,11 @@
       <c r="K48" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -4017,8 +4180,11 @@
       <c r="K49" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -4052,8 +4218,11 @@
       <c r="K50" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>551</v>
       </c>
@@ -4087,8 +4256,11 @@
       <c r="K51" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>552</v>
       </c>
@@ -4122,8 +4294,11 @@
       <c r="K52" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -4157,8 +4332,11 @@
       <c r="K53" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -4192,8 +4370,11 @@
       <c r="K54" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>553</v>
       </c>
@@ -4227,8 +4408,11 @@
       <c r="K55" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>554</v>
       </c>
@@ -4262,8 +4446,11 @@
       <c r="K56" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>555</v>
       </c>
@@ -4297,8 +4484,11 @@
       <c r="K57" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>556</v>
       </c>
@@ -4332,8 +4522,11 @@
       <c r="K58" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>557</v>
       </c>
@@ -4367,8 +4560,11 @@
       <c r="K59" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>558</v>
       </c>
@@ -4402,8 +4598,11 @@
       <c r="K60" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -4437,8 +4636,11 @@
       <c r="K61" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>91</v>
       </c>
@@ -4472,8 +4674,11 @@
       <c r="K62" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -4507,8 +4712,11 @@
       <c r="K63" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -4542,8 +4750,11 @@
       <c r="K64" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -4577,8 +4788,11 @@
       <c r="K65" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>99</v>
       </c>
@@ -4612,8 +4826,11 @@
       <c r="K66" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -4647,8 +4864,11 @@
       <c r="K67" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>102</v>
       </c>
@@ -4682,8 +4902,11 @@
       <c r="K68" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -4717,8 +4940,11 @@
       <c r="K69" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -4752,8 +4978,11 @@
       <c r="K70" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>109</v>
       </c>
@@ -4787,8 +5016,11 @@
       <c r="K71" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>111</v>
       </c>
@@ -4822,8 +5054,11 @@
       <c r="K72" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -4857,8 +5092,11 @@
       <c r="K73" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -4892,8 +5130,11 @@
       <c r="K74" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>118</v>
       </c>
@@ -4927,8 +5168,11 @@
       <c r="K75" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>120</v>
       </c>
@@ -4962,8 +5206,11 @@
       <c r="K76" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>122</v>
       </c>
@@ -4997,8 +5244,11 @@
       <c r="K77" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>124</v>
       </c>
@@ -5032,8 +5282,11 @@
       <c r="K78" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>127</v>
       </c>
@@ -5067,8 +5320,11 @@
       <c r="K79" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>128</v>
       </c>
@@ -5102,8 +5358,11 @@
       <c r="K80" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>559</v>
       </c>
@@ -5137,8 +5396,11 @@
       <c r="K81" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>560</v>
       </c>
@@ -5172,8 +5434,11 @@
       <c r="K82" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>561</v>
       </c>
@@ -5207,8 +5472,11 @@
       <c r="K83" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>130</v>
       </c>
@@ -5242,8 +5510,11 @@
       <c r="K84" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>132</v>
       </c>
@@ -5277,8 +5548,11 @@
       <c r="K85" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>134</v>
       </c>
@@ -5312,8 +5586,11 @@
       <c r="K86" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>137</v>
       </c>
@@ -5347,8 +5624,11 @@
       <c r="K87" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>140</v>
       </c>
@@ -5382,8 +5662,11 @@
       <c r="K88" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>142</v>
       </c>
@@ -5417,8 +5700,11 @@
       <c r="K89" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>144</v>
       </c>
@@ -5452,8 +5738,11 @@
       <c r="K90" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>146</v>
       </c>
@@ -5487,8 +5776,11 @@
       <c r="K91" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>148</v>
       </c>
@@ -5522,8 +5814,11 @@
       <c r="K92" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>150</v>
       </c>
@@ -5557,8 +5852,11 @@
       <c r="K93" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>152</v>
       </c>
@@ -5592,8 +5890,11 @@
       <c r="K94" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>154</v>
       </c>
@@ -5627,8 +5928,11 @@
       <c r="K95" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>156</v>
       </c>
@@ -5662,8 +5966,11 @@
       <c r="K96" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>158</v>
       </c>
@@ -5697,8 +6004,11 @@
       <c r="K97" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>160</v>
       </c>
@@ -5732,8 +6042,11 @@
       <c r="K98" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>161</v>
       </c>
@@ -5767,8 +6080,11 @@
       <c r="K99" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -5802,8 +6118,11 @@
       <c r="K100" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>165</v>
       </c>
@@ -5837,8 +6156,11 @@
       <c r="K101" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>166</v>
       </c>
@@ -5872,8 +6194,11 @@
       <c r="K102" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>168</v>
       </c>
@@ -5907,8 +6232,11 @@
       <c r="K103" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>562</v>
       </c>
@@ -5942,8 +6270,11 @@
       <c r="K104" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>563</v>
       </c>
@@ -5977,8 +6308,11 @@
       <c r="K105" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>169</v>
       </c>
@@ -6012,8 +6346,11 @@
       <c r="K106" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>170</v>
       </c>
@@ -6047,8 +6384,11 @@
       <c r="K107" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>171</v>
       </c>
@@ -6082,8 +6422,11 @@
       <c r="K108" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>172</v>
       </c>
@@ -6117,8 +6460,11 @@
       <c r="K109" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>173</v>
       </c>
@@ -6152,8 +6498,11 @@
       <c r="K110" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>174</v>
       </c>
@@ -6187,8 +6536,11 @@
       <c r="K111" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>175</v>
       </c>
@@ -6222,8 +6574,11 @@
       <c r="K112" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>176</v>
       </c>
@@ -6257,8 +6612,11 @@
       <c r="K113" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>564</v>
       </c>
@@ -6292,8 +6650,11 @@
       <c r="K114" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>565</v>
       </c>
@@ -6327,8 +6688,11 @@
       <c r="K115" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>566</v>
       </c>
@@ -6362,8 +6726,11 @@
       <c r="K116" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>567</v>
       </c>
@@ -6397,8 +6764,11 @@
       <c r="K117" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>568</v>
       </c>
@@ -6432,8 +6802,11 @@
       <c r="K118" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>569</v>
       </c>
@@ -6467,8 +6840,11 @@
       <c r="K119" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>570</v>
       </c>
@@ -6502,8 +6878,11 @@
       <c r="K120" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>571</v>
       </c>
@@ -6537,8 +6916,11 @@
       <c r="K121" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>178</v>
       </c>
@@ -6572,8 +6954,11 @@
       <c r="K122" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>575</v>
       </c>
@@ -6607,8 +6992,11 @@
       <c r="K123" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>576</v>
       </c>
@@ -6642,8 +7030,11 @@
       <c r="K124" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>180</v>
       </c>
@@ -6677,8 +7068,11 @@
       <c r="K125" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>572</v>
       </c>
@@ -6712,8 +7106,11 @@
       <c r="K126" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>573</v>
       </c>
@@ -6747,8 +7144,11 @@
       <c r="K127" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>574</v>
       </c>
@@ -6782,8 +7182,11 @@
       <c r="K128" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>181</v>
       </c>
@@ -6817,8 +7220,11 @@
       <c r="K129" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>184</v>
       </c>
@@ -6852,8 +7258,11 @@
       <c r="K130" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>186</v>
       </c>
@@ -6887,8 +7296,11 @@
       <c r="K131" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>189</v>
       </c>
@@ -6922,8 +7334,11 @@
       <c r="K132" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>191</v>
       </c>
@@ -6957,8 +7372,11 @@
       <c r="K133" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>193</v>
       </c>
@@ -6992,8 +7410,11 @@
       <c r="K134" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>439</v>
       </c>
@@ -7027,8 +7448,11 @@
       <c r="K135" s="6" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>440</v>
       </c>
@@ -7062,8 +7486,11 @@
       <c r="K136" s="6" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>195</v>
       </c>
@@ -7097,8 +7524,11 @@
       <c r="K137" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L137" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>198</v>
       </c>
@@ -7132,8 +7562,11 @@
       <c r="K138" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L138" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>199</v>
       </c>
@@ -7167,8 +7600,11 @@
       <c r="K139" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L139" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>201</v>
       </c>
@@ -7202,8 +7638,11 @@
       <c r="K140" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L140" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>203</v>
       </c>
@@ -7237,8 +7676,11 @@
       <c r="K141" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L141" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>205</v>
       </c>
@@ -7272,8 +7714,11 @@
       <c r="K142" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>206</v>
       </c>
@@ -7307,8 +7752,11 @@
       <c r="K143" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>208</v>
       </c>
@@ -7342,8 +7790,11 @@
       <c r="K144" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L144" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>209</v>
       </c>
@@ -7377,8 +7828,11 @@
       <c r="K145" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>211</v>
       </c>
@@ -7412,8 +7866,11 @@
       <c r="K146" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>213</v>
       </c>
@@ -7447,8 +7904,11 @@
       <c r="K147" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L147" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>441</v>
       </c>
@@ -7482,8 +7942,11 @@
       <c r="K148" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L148" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>442</v>
       </c>
@@ -7517,8 +7980,11 @@
       <c r="K149" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L149" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>443</v>
       </c>
@@ -7552,8 +8018,11 @@
       <c r="K150" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L150" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>444</v>
       </c>
@@ -7587,8 +8056,11 @@
       <c r="K151" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L151" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>215</v>
       </c>
@@ -7622,8 +8094,11 @@
       <c r="K152" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L152" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>445</v>
       </c>
@@ -7657,8 +8132,11 @@
       <c r="K153" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L153" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>446</v>
       </c>
@@ -7692,8 +8170,11 @@
       <c r="K154" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L154" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>447</v>
       </c>
@@ -7727,8 +8208,11 @@
       <c r="K155" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L155" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>448</v>
       </c>
@@ -7762,8 +8246,11 @@
       <c r="K156" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L156" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>449</v>
       </c>
@@ -7797,8 +8284,11 @@
       <c r="K157" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L157" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>450</v>
       </c>
@@ -7832,8 +8322,11 @@
       <c r="K158" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L158" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>451</v>
       </c>
@@ -7867,8 +8360,11 @@
       <c r="K159" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L159" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>452</v>
       </c>
@@ -7902,8 +8398,11 @@
       <c r="K160" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L160" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>453</v>
       </c>
@@ -7937,8 +8436,11 @@
       <c r="K161" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L161" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>454</v>
       </c>
@@ -7972,8 +8474,11 @@
       <c r="K162" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L162" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>455</v>
       </c>
@@ -8007,8 +8512,11 @@
       <c r="K163" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L163" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>456</v>
       </c>
@@ -8042,8 +8550,11 @@
       <c r="K164" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L164" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>457</v>
       </c>
@@ -8077,8 +8588,11 @@
       <c r="K165" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L165" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>458</v>
       </c>
@@ -8112,8 +8626,11 @@
       <c r="K166" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L166" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>459</v>
       </c>
@@ -8147,8 +8664,11 @@
       <c r="K167" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L167" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>460</v>
       </c>
@@ -8182,8 +8702,11 @@
       <c r="K168" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L168" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>461</v>
       </c>
@@ -8217,8 +8740,11 @@
       <c r="K169" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L169" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>462</v>
       </c>
@@ -8252,8 +8778,11 @@
       <c r="K170" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L170" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>463</v>
       </c>
@@ -8287,8 +8816,11 @@
       <c r="K171" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L171" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>464</v>
       </c>
@@ -8322,8 +8854,11 @@
       <c r="K172" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L172" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>465</v>
       </c>
@@ -8357,8 +8892,11 @@
       <c r="K173" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L173" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>466</v>
       </c>
@@ -8392,8 +8930,11 @@
       <c r="K174" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L174" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>467</v>
       </c>
@@ -8427,8 +8968,11 @@
       <c r="K175" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L175" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>468</v>
       </c>
@@ -8462,8 +9006,11 @@
       <c r="K176" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L176" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>469</v>
       </c>
@@ -8497,8 +9044,11 @@
       <c r="K177" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L177" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>217</v>
       </c>
@@ -8532,8 +9082,11 @@
       <c r="K178" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L178" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>470</v>
       </c>
@@ -8567,8 +9120,11 @@
       <c r="K179" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L179" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>471</v>
       </c>
@@ -8602,8 +9158,11 @@
       <c r="K180" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L180" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>472</v>
       </c>
@@ -8637,8 +9196,11 @@
       <c r="K181" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L181" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>473</v>
       </c>
@@ -8672,8 +9234,11 @@
       <c r="K182" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L182" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>474</v>
       </c>
@@ -8707,8 +9272,11 @@
       <c r="K183" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L183" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>219</v>
       </c>
@@ -8742,8 +9310,11 @@
       <c r="K184" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L184" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>221</v>
       </c>
@@ -8777,8 +9348,11 @@
       <c r="K185" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L185" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>478</v>
       </c>
@@ -8812,8 +9386,11 @@
       <c r="K186" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L186" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>479</v>
       </c>
@@ -8847,8 +9424,11 @@
       <c r="K187" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L187" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>223</v>
       </c>
@@ -8882,8 +9462,11 @@
       <c r="K188" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L188" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>225</v>
       </c>
@@ -8917,8 +9500,11 @@
       <c r="K189" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L189" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>226</v>
       </c>
@@ -8952,8 +9538,11 @@
       <c r="K190" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L190" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>228</v>
       </c>
@@ -8987,8 +9576,11 @@
       <c r="K191" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L191" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>229</v>
       </c>
@@ -9022,8 +9614,11 @@
       <c r="K192" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L192" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>231</v>
       </c>
@@ -9057,8 +9652,11 @@
       <c r="K193" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L193" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>232</v>
       </c>
@@ -9092,8 +9690,11 @@
       <c r="K194" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L194" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>234</v>
       </c>
@@ -9127,8 +9728,11 @@
       <c r="K195" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L195" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>236</v>
       </c>
@@ -9162,8 +9766,11 @@
       <c r="K196" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L196" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>238</v>
       </c>
@@ -9197,8 +9804,11 @@
       <c r="K197" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L197" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>240</v>
       </c>
@@ -9232,8 +9842,11 @@
       <c r="K198" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L198" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>242</v>
       </c>
@@ -9267,8 +9880,11 @@
       <c r="K199" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L199" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>475</v>
       </c>
@@ -9302,8 +9918,11 @@
       <c r="K200" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L200" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>476</v>
       </c>
@@ -9337,8 +9956,11 @@
       <c r="K201" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L201" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>477</v>
       </c>
@@ -9372,8 +9994,11 @@
       <c r="K202" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L202" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>243</v>
       </c>
@@ -9407,8 +10032,11 @@
       <c r="K203" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L203" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>245</v>
       </c>
@@ -9442,8 +10070,11 @@
       <c r="K204" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L204" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>480</v>
       </c>
@@ -9477,8 +10108,11 @@
       <c r="K205" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L205" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>481</v>
       </c>
@@ -9512,8 +10146,11 @@
       <c r="K206" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L206" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>482</v>
       </c>
@@ -9547,8 +10184,11 @@
       <c r="K207" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L207" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>483</v>
       </c>
@@ -9582,8 +10222,11 @@
       <c r="K208" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L208" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>484</v>
       </c>
@@ -9617,8 +10260,11 @@
       <c r="K209" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L209" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>485</v>
       </c>
@@ -9652,8 +10298,11 @@
       <c r="K210" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L210" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>486</v>
       </c>
@@ -9687,8 +10336,11 @@
       <c r="K211" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L211" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>487</v>
       </c>
@@ -9722,8 +10374,11 @@
       <c r="K212" s="6" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L212" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>247</v>
       </c>
@@ -9757,8 +10412,11 @@
       <c r="K213" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L213" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>248</v>
       </c>
@@ -9792,8 +10450,11 @@
       <c r="K214" s="6" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L214" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>250</v>
       </c>
@@ -9827,8 +10488,11 @@
       <c r="K215" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L215" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>251</v>
       </c>
@@ -9862,8 +10526,11 @@
       <c r="K216" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L216" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>254</v>
       </c>
@@ -9897,8 +10564,11 @@
       <c r="K217" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L217" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>256</v>
       </c>
@@ -9932,8 +10602,11 @@
       <c r="K218" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L218" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>488</v>
       </c>
@@ -9967,8 +10640,11 @@
       <c r="K219" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L219" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>489</v>
       </c>
@@ -10002,8 +10678,11 @@
       <c r="K220" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L220" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>490</v>
       </c>
@@ -10037,8 +10716,11 @@
       <c r="K221" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L221" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>491</v>
       </c>
@@ -10072,8 +10754,11 @@
       <c r="K222" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L222" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>258</v>
       </c>
@@ -10107,8 +10792,11 @@
       <c r="K223" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L223" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>260</v>
       </c>
@@ -10142,8 +10830,11 @@
       <c r="K224" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L224" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>262</v>
       </c>
@@ -10177,8 +10868,11 @@
       <c r="K225" s="6" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L225" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>265</v>
       </c>
@@ -10212,8 +10906,11 @@
       <c r="K226" s="6" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L226" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>492</v>
       </c>
@@ -10247,8 +10944,11 @@
       <c r="K227" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L227" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>493</v>
       </c>
@@ -10282,8 +10982,11 @@
       <c r="K228" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L228" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>494</v>
       </c>
@@ -10317,8 +11020,11 @@
       <c r="K229" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L229" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>495</v>
       </c>
@@ -10352,8 +11058,11 @@
       <c r="K230" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L230" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>268</v>
       </c>
@@ -10387,8 +11096,11 @@
       <c r="K231" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L231" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>270</v>
       </c>
@@ -10422,8 +11134,11 @@
       <c r="K232" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L232" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>271</v>
       </c>
@@ -10457,8 +11172,11 @@
       <c r="K233" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L233" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>273</v>
       </c>
@@ -10492,8 +11210,11 @@
       <c r="K234" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L234" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>496</v>
       </c>
@@ -10527,8 +11248,11 @@
       <c r="K235" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L235" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>497</v>
       </c>
@@ -10562,8 +11286,11 @@
       <c r="K236" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L236" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>498</v>
       </c>
@@ -10597,8 +11324,11 @@
       <c r="K237" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L237" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>499</v>
       </c>
@@ -10632,8 +11362,11 @@
       <c r="K238" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L238" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>500</v>
       </c>
@@ -10667,8 +11400,11 @@
       <c r="K239" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L239" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>501</v>
       </c>
@@ -10702,8 +11438,11 @@
       <c r="K240" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L240" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>502</v>
       </c>
@@ -10737,8 +11476,11 @@
       <c r="K241" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L241" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>503</v>
       </c>
@@ -10772,8 +11514,11 @@
       <c r="K242" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L242" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>275</v>
       </c>
@@ -10807,8 +11552,11 @@
       <c r="K243" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L243" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>504</v>
       </c>
@@ -10842,8 +11590,11 @@
       <c r="K244" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L244" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>505</v>
       </c>
@@ -10877,8 +11628,11 @@
       <c r="K245" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L245" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>506</v>
       </c>
@@ -10912,8 +11666,11 @@
       <c r="K246" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L246" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>276</v>
       </c>
@@ -10947,8 +11704,11 @@
       <c r="K247" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L247" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>507</v>
       </c>
@@ -10982,8 +11742,11 @@
       <c r="K248" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L248" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>508</v>
       </c>
@@ -11017,8 +11780,11 @@
       <c r="K249" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L249" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>509</v>
       </c>
@@ -11052,8 +11818,11 @@
       <c r="K250" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L250" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>510</v>
       </c>
@@ -11087,8 +11856,11 @@
       <c r="K251" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L251" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>511</v>
       </c>
@@ -11122,8 +11894,11 @@
       <c r="K252" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L252" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>512</v>
       </c>
@@ -11157,8 +11932,11 @@
       <c r="K253" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L253" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>278</v>
       </c>
@@ -11192,8 +11970,11 @@
       <c r="K254" s="6" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L254" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>279</v>
       </c>
@@ -11227,8 +12008,11 @@
       <c r="K255" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L255" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>281</v>
       </c>
@@ -11262,8 +12046,11 @@
       <c r="K256" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L256" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>283</v>
       </c>
@@ -11297,8 +12084,11 @@
       <c r="K257" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L257" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>285</v>
       </c>
@@ -11332,8 +12122,11 @@
       <c r="K258" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L258" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>288</v>
       </c>
@@ -11367,8 +12160,11 @@
       <c r="K259" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L259" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>513</v>
       </c>
@@ -11402,8 +12198,11 @@
       <c r="K260" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L260" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>514</v>
       </c>
@@ -11437,8 +12236,11 @@
       <c r="K261" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L261" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>290</v>
       </c>
@@ -11472,8 +12274,11 @@
       <c r="K262" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L262" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>292</v>
       </c>
@@ -11507,8 +12312,11 @@
       <c r="K263" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L263" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>294</v>
       </c>
@@ -11542,8 +12350,11 @@
       <c r="K264" s="6" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L264" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>296</v>
       </c>
@@ -11577,8 +12388,11 @@
       <c r="K265" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L265" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>515</v>
       </c>
@@ -11612,8 +12426,11 @@
       <c r="K266" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L266" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>516</v>
       </c>
@@ -11647,8 +12464,11 @@
       <c r="K267" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L267" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>298</v>
       </c>
@@ -11682,8 +12502,11 @@
       <c r="K268" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L268" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>300</v>
       </c>
@@ -11717,8 +12540,11 @@
       <c r="K269" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L269" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>302</v>
       </c>
@@ -11752,8 +12578,11 @@
       <c r="K270" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L270" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>525</v>
       </c>
@@ -11787,8 +12616,11 @@
       <c r="K271" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L271" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>526</v>
       </c>
@@ -11822,8 +12654,11 @@
       <c r="K272" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L272" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>527</v>
       </c>
@@ -11857,8 +12692,11 @@
       <c r="K273" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L273" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>517</v>
       </c>
@@ -11892,8 +12730,11 @@
       <c r="K274" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L274" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>518</v>
       </c>
@@ -11927,8 +12768,11 @@
       <c r="K275" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L275" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>303</v>
       </c>
@@ -11962,8 +12806,11 @@
       <c r="K276" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L276" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>519</v>
       </c>
@@ -11997,8 +12844,11 @@
       <c r="K277" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L277" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>520</v>
       </c>
@@ -12032,8 +12882,11 @@
       <c r="K278" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L278" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>521</v>
       </c>
@@ -12067,8 +12920,11 @@
       <c r="K279" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L279" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>522</v>
       </c>
@@ -12102,8 +12958,11 @@
       <c r="K280" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L280" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>523</v>
       </c>
@@ -12137,8 +12996,11 @@
       <c r="K281" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L281" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>524</v>
       </c>
@@ -12172,8 +13034,11 @@
       <c r="K282" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L282" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>305</v>
       </c>
@@ -12207,8 +13072,11 @@
       <c r="K283" s="6" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L283" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>307</v>
       </c>
@@ -12242,8 +13110,11 @@
       <c r="K284" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L284" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>309</v>
       </c>
@@ -12277,8 +13148,11 @@
       <c r="K285" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L285" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -12312,8 +13186,11 @@
       <c r="K286" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L286" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>313</v>
       </c>
@@ -12347,8 +13224,11 @@
       <c r="K287" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L287" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>314</v>
       </c>
@@ -12382,8 +13262,11 @@
       <c r="K288" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L288" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>316</v>
       </c>
@@ -12417,8 +13300,11 @@
       <c r="K289" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L289" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>318</v>
       </c>
@@ -12452,8 +13338,11 @@
       <c r="K290" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L290" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>320</v>
       </c>
@@ -12487,8 +13376,11 @@
       <c r="K291" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L291" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>321</v>
       </c>
@@ -12522,8 +13414,11 @@
       <c r="K292" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L292" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>323</v>
       </c>
@@ -12557,8 +13452,11 @@
       <c r="K293" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L293" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>324</v>
       </c>
@@ -12592,8 +13490,11 @@
       <c r="K294" s="6" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L294" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>326</v>
       </c>
@@ -12627,8 +13528,11 @@
       <c r="K295" s="6" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L295" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>329</v>
       </c>
@@ -12662,8 +13566,11 @@
       <c r="K296" s="6" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L296" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>331</v>
       </c>
@@ -12697,8 +13604,11 @@
       <c r="K297" s="6" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L297" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>333</v>
       </c>
@@ -12732,8 +13642,11 @@
       <c r="K298" s="6" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L298" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>338</v>
       </c>
@@ -12767,8 +13680,11 @@
       <c r="K299" s="6" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L299" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>340</v>
       </c>
@@ -12802,8 +13718,11 @@
       <c r="K300" s="6" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L300" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>344</v>
       </c>
@@ -12837,8 +13756,11 @@
       <c r="K301" s="6" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L301" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>347</v>
       </c>
@@ -12872,8 +13794,11 @@
       <c r="K302" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L302" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>528</v>
       </c>
@@ -12907,8 +13832,11 @@
       <c r="K303" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L303" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>529</v>
       </c>
@@ -12942,8 +13870,11 @@
       <c r="K304" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L304" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>530</v>
       </c>
@@ -12977,8 +13908,11 @@
       <c r="K305" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L305" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>531</v>
       </c>
@@ -13012,8 +13946,11 @@
       <c r="K306" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L306" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>532</v>
       </c>
@@ -13047,8 +13984,11 @@
       <c r="K307" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L307" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>533</v>
       </c>
@@ -13082,8 +14022,11 @@
       <c r="K308" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L308" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>534</v>
       </c>
@@ -13117,8 +14060,11 @@
       <c r="K309" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L309" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>535</v>
       </c>
@@ -13152,8 +14098,11 @@
       <c r="K310" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L310" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>536</v>
       </c>
@@ -13187,8 +14136,11 @@
       <c r="K311" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L311" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>349</v>
       </c>
@@ -13222,8 +14174,11 @@
       <c r="K312" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L312" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>351</v>
       </c>
@@ -13257,8 +14212,11 @@
       <c r="K313" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L313" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>353</v>
       </c>
@@ -13292,8 +14250,11 @@
       <c r="K314" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L314" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>537</v>
       </c>
@@ -13327,8 +14288,11 @@
       <c r="K315" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L315" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>538</v>
       </c>
@@ -13362,8 +14326,11 @@
       <c r="K316" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L316" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>539</v>
       </c>
@@ -13397,8 +14364,11 @@
       <c r="K317" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L317" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>356</v>
       </c>
@@ -13432,8 +14402,11 @@
       <c r="K318" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L318" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>358</v>
       </c>
@@ -13466,6 +14439,9 @@
       </c>
       <c r="K319" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="L319" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/src/Send-off.xlsx
+++ b/src/Send-off.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUISRICARDOGerbelli\Documents\GitHub\send-off\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D5870C-B59B-456D-B87B-4A67BD4445A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5BE814-E603-47F3-8AFE-85B3C080C4FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73E549BB-D9AE-42B8-B9EF-C186AC431F7B}"/>
   </bookViews>

--- a/src/Send-off.xlsx
+++ b/src/Send-off.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUISRICARDOGerbelli\Documents\GitHub\send-off\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33FE8FB-932A-4AE2-A5BD-069C206038A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BFA54B-15E2-4D5C-8B63-ED81F53C13EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73E549BB-D9AE-42B8-B9EF-C186AC431F7B}"/>
   </bookViews>
@@ -1751,9 +1751,6 @@
     <t>q3</t>
   </si>
   <si>
-    <t>b3</t>
-  </si>
-  <si>
     <t>st</t>
   </si>
   <si>
@@ -1920,6 +1917,9 @@
   </si>
   <si>
     <t>Received</t>
+  </si>
+  <si>
+    <t>cr</t>
   </si>
 </sst>
 </file>
@@ -2387,49 +2387,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>591</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2467,13 +2467,13 @@
         <v>565</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M2" s="9">
         <v>350</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O2" s="9"/>
     </row>
@@ -2509,10 +2509,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M3" s="10">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>105</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M4" s="10">
         <v>25</v>
@@ -2594,7 +2594,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M5" s="10">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>105</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M6" s="10">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>105</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M7" s="10">
         <v>25</v>
@@ -2717,7 +2717,7 @@
         <v>105</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M8" s="10">
         <v>25</v>
@@ -2758,7 +2758,7 @@
         <v>105</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M9" s="10">
         <v>50</v>
@@ -2775,7 +2775,7 @@
         <v>566</v>
       </c>
       <c r="D10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -2799,7 +2799,7 @@
         <v>105</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M10" s="10">
         <v>25</v>
@@ -2816,7 +2816,7 @@
         <v>566</v>
       </c>
       <c r="D11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2840,7 +2840,7 @@
         <v>105</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M11" s="10">
         <v>25</v>
@@ -2881,7 +2881,7 @@
         <v>105</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M12" s="10">
         <v>150</v>
@@ -2922,7 +2922,7 @@
         <v>105</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M13" s="10">
         <v>150</v>
@@ -2963,7 +2963,7 @@
         <v>105</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M14" s="10">
         <v>150</v>
@@ -3004,7 +3004,7 @@
         <v>105</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M15" s="10">
         <v>150</v>
@@ -3045,7 +3045,7 @@
         <v>105</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M16" s="10">
         <v>150</v>
@@ -3086,7 +3086,7 @@
         <v>105</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M17" s="10">
         <v>25</v>
@@ -3127,7 +3127,7 @@
         <v>105</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M18" s="10">
         <v>10</v>
@@ -3168,7 +3168,7 @@
         <v>105</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M19" s="10">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>105</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M20" s="10">
         <v>50</v>
@@ -3250,7 +3250,7 @@
         <v>105</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M21" s="10">
         <v>50</v>
@@ -3288,10 +3288,10 @@
         <v>3</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M22" s="10">
         <v>25</v>
@@ -3332,7 +3332,7 @@
         <v>105</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M23" s="10">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>105</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M24" s="10">
         <v>25</v>
@@ -3414,7 +3414,7 @@
         <v>105</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M25" s="10">
         <v>10</v>
@@ -3455,7 +3455,7 @@
         <v>37</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M26" s="10">
         <v>25</v>
@@ -3496,7 +3496,7 @@
         <v>42</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M27" s="10">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>105</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M28" s="10">
         <v>25</v>
@@ -3578,7 +3578,7 @@
         <v>105</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M29" s="10">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>568</v>
       </c>
       <c r="D30" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -3619,7 +3619,7 @@
         <v>105</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M30" s="10">
         <v>300</v>
@@ -3636,7 +3636,7 @@
         <v>568</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3657,10 +3657,10 @@
         <v>3</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M31" s="10">
         <v>200</v>
@@ -3701,7 +3701,7 @@
         <v>105</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M32" s="10">
         <v>100</v>
@@ -3742,7 +3742,7 @@
         <v>105</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M33" s="10">
         <v>25</v>
@@ -3783,7 +3783,7 @@
         <v>105</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M34" s="10">
         <v>25</v>
@@ -3824,7 +3824,7 @@
         <v>105</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M35" s="10">
         <v>10</v>
@@ -3865,7 +3865,7 @@
         <v>105</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M36" s="10">
         <v>25</v>
@@ -3906,7 +3906,7 @@
         <v>105</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M37" s="10">
         <v>25</v>
@@ -3947,7 +3947,7 @@
         <v>105</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M38" s="10">
         <v>25</v>
@@ -3988,7 +3988,7 @@
         <v>105</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M39" s="10">
         <v>50</v>
@@ -4029,7 +4029,7 @@
         <v>105</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M40" s="10">
         <v>25</v>
@@ -4070,7 +4070,7 @@
         <v>105</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M41" s="10">
         <v>25</v>
@@ -4108,10 +4108,10 @@
         <v>2</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M42" s="10">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>105</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M43" s="10">
         <v>10</v>
@@ -4193,7 +4193,7 @@
         <v>105</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M44" s="10">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>105</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M45" s="10">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>105</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M46" s="10">
         <v>0</v>
@@ -4316,7 +4316,7 @@
         <v>105</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M47" s="10">
         <v>0</v>
@@ -4357,7 +4357,7 @@
         <v>105</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M48" s="10">
         <v>25</v>
@@ -4398,7 +4398,7 @@
         <v>105</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M49" s="10">
         <v>10</v>
@@ -4439,7 +4439,7 @@
         <v>565</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M50" s="10">
         <v>50</v>
@@ -4480,7 +4480,7 @@
         <v>105</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M51" s="10">
         <v>25</v>
@@ -4521,7 +4521,7 @@
         <v>105</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M52" s="10">
         <v>25</v>
@@ -4562,7 +4562,7 @@
         <v>105</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M53" s="10">
         <v>25</v>
@@ -4603,7 +4603,7 @@
         <v>105</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M54" s="10">
         <v>0</v>
@@ -4644,7 +4644,7 @@
         <v>105</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M55" s="10">
         <v>0</v>
@@ -4685,7 +4685,7 @@
         <v>105</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M56" s="10">
         <v>0</v>
@@ -4726,7 +4726,7 @@
         <v>105</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M57" s="10">
         <v>0</v>
@@ -4767,7 +4767,7 @@
         <v>105</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M58" s="10">
         <v>0</v>
@@ -4808,7 +4808,7 @@
         <v>105</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M59" s="10">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>105</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M60" s="10">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>105</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M61" s="10">
         <v>0</v>
@@ -4904,7 +4904,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>571</v>
+        <v>627</v>
       </c>
       <c r="D62" t="s">
         <v>47</v>
@@ -4931,7 +4931,7 @@
         <v>85</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M62" s="10">
         <v>0</v>
@@ -4945,7 +4945,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D63" t="s">
         <v>86</v>
@@ -4972,7 +4972,7 @@
         <v>105</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M63" s="10">
         <v>25</v>
@@ -4986,7 +4986,7 @@
         <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D64" t="s">
         <v>88</v>
@@ -5013,7 +5013,7 @@
         <v>105</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M64" s="10">
         <v>10</v>
@@ -5027,7 +5027,7 @@
         <v>6</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D65" t="s">
         <v>90</v>
@@ -5054,7 +5054,7 @@
         <v>105</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M65" s="10">
         <v>10</v>
@@ -5068,7 +5068,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D66" t="s">
         <v>367</v>
@@ -5095,7 +5095,7 @@
         <v>105</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M66" s="10">
         <v>25</v>
@@ -5109,7 +5109,7 @@
         <v>6</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D67" t="s">
         <v>93</v>
@@ -5136,7 +5136,7 @@
         <v>105</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M67" s="10">
         <v>25</v>
@@ -5150,7 +5150,7 @@
         <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D68" t="s">
         <v>108</v>
@@ -5177,7 +5177,7 @@
         <v>105</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M68" s="10">
         <v>10</v>
@@ -5191,7 +5191,7 @@
         <v>6</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D69" t="s">
         <v>96</v>
@@ -5218,7 +5218,7 @@
         <v>105</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M69" s="10">
         <v>25</v>
@@ -5232,7 +5232,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D70" t="s">
         <v>98</v>
@@ -5259,13 +5259,13 @@
         <v>105</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M70" s="10">
         <v>50</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O70" s="10">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>6</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D71" t="s">
         <v>100</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M71" s="10">
         <v>100</v>
@@ -5320,7 +5320,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D72" t="s">
         <v>102</v>
@@ -5344,10 +5344,10 @@
         <v>2</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M72" s="10">
         <v>25</v>
@@ -5361,7 +5361,7 @@
         <v>6</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D73" t="s">
         <v>368</v>
@@ -5388,7 +5388,7 @@
         <v>105</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M73" s="10">
         <v>0</v>
@@ -5402,7 +5402,7 @@
         <v>19</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D74" t="s">
         <v>106</v>
@@ -5429,7 +5429,7 @@
         <v>105</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M74" s="10">
         <v>50</v>
@@ -5443,7 +5443,7 @@
         <v>19</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D75" t="s">
         <v>108</v>
@@ -5470,7 +5470,7 @@
         <v>105</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M75" s="10">
         <v>25</v>
@@ -5484,7 +5484,7 @@
         <v>19</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D76" t="s">
         <v>110</v>
@@ -5511,7 +5511,7 @@
         <v>105</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M76" s="10">
         <v>25</v>
@@ -5525,7 +5525,7 @@
         <v>19</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D77" t="s">
         <v>112</v>
@@ -5552,7 +5552,7 @@
         <v>105</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M77" s="10">
         <v>25</v>
@@ -5566,7 +5566,7 @@
         <v>19</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D78" t="s">
         <v>114</v>
@@ -5593,7 +5593,7 @@
         <v>116</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M78" s="10">
         <v>10</v>
@@ -5607,7 +5607,7 @@
         <v>12</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D79" t="s">
         <v>117</v>
@@ -5634,7 +5634,7 @@
         <v>105</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M79" s="10">
         <v>25</v>
@@ -5648,7 +5648,7 @@
         <v>12</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D80" t="s">
         <v>108</v>
@@ -5675,7 +5675,7 @@
         <v>105</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M80" s="10">
         <v>50</v>
@@ -5689,7 +5689,7 @@
         <v>12</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D81" t="s">
         <v>369</v>
@@ -5716,7 +5716,7 @@
         <v>105</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M81" s="10">
         <v>10</v>
@@ -5730,7 +5730,7 @@
         <v>12</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D82" t="s">
         <v>369</v>
@@ -5757,7 +5757,7 @@
         <v>105</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M82" s="10">
         <v>10</v>
@@ -5771,7 +5771,7 @@
         <v>12</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D83" t="s">
         <v>369</v>
@@ -5798,7 +5798,7 @@
         <v>105</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M83" s="10">
         <v>10</v>
@@ -5812,7 +5812,7 @@
         <v>12</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D84" t="s">
         <v>120</v>
@@ -5839,7 +5839,7 @@
         <v>105</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M84" s="10">
         <v>10</v>
@@ -5853,7 +5853,7 @@
         <v>12</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D85" t="s">
         <v>122</v>
@@ -5877,10 +5877,10 @@
         <v>2</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M85" s="10">
         <v>25</v>
@@ -5894,7 +5894,7 @@
         <v>12</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D86" t="s">
         <v>124</v>
@@ -5921,7 +5921,7 @@
         <v>126</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M86" s="10">
         <v>25</v>
@@ -5935,7 +5935,7 @@
         <v>12</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D87" t="s">
         <v>127</v>
@@ -5962,7 +5962,7 @@
         <v>105</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M87" s="10">
         <v>100</v>
@@ -5976,7 +5976,7 @@
         <v>129</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D88" t="s">
         <v>130</v>
@@ -6003,7 +6003,7 @@
         <v>105</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M88" s="10">
         <v>50</v>
@@ -6017,7 +6017,7 @@
         <v>129</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D89" t="s">
         <v>132</v>
@@ -6044,7 +6044,7 @@
         <v>105</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M89" s="10">
         <v>25</v>
@@ -6058,7 +6058,7 @@
         <v>129</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D90" t="s">
         <v>134</v>
@@ -6085,7 +6085,7 @@
         <v>105</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M90" s="10">
         <v>50</v>
@@ -6099,7 +6099,7 @@
         <v>129</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D91" t="s">
         <v>136</v>
@@ -6126,7 +6126,7 @@
         <v>105</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M91" s="10">
         <v>25</v>
@@ -6140,7 +6140,7 @@
         <v>129</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D92" t="s">
         <v>138</v>
@@ -6167,7 +6167,7 @@
         <v>105</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M92" s="10">
         <v>50</v>
@@ -6181,7 +6181,7 @@
         <v>129</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D93" t="s">
         <v>140</v>
@@ -6208,13 +6208,13 @@
         <v>105</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M93" s="11">
         <v>230</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O93" s="11"/>
     </row>
@@ -6226,7 +6226,7 @@
         <v>129</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D94" t="s">
         <v>142</v>
@@ -6253,7 +6253,7 @@
         <v>105</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M94" s="10">
         <v>100</v>
@@ -6267,7 +6267,7 @@
         <v>129</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D95" t="s">
         <v>144</v>
@@ -6294,13 +6294,13 @@
         <v>105</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M95" s="11">
         <v>0</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O95" s="11"/>
     </row>
@@ -6312,7 +6312,7 @@
         <v>129</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D96" t="s">
         <v>146</v>
@@ -6339,7 +6339,7 @@
         <v>105</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M96" s="10">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>129</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D97" t="s">
         <v>148</v>
@@ -6380,13 +6380,13 @@
         <v>105</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M97" s="10">
         <v>0</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O97" s="10">
         <v>0</v>
@@ -6400,7 +6400,7 @@
         <v>129</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D98" t="s">
         <v>150</v>
@@ -6427,7 +6427,7 @@
         <v>105</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M98" s="10">
         <v>25</v>
@@ -6441,7 +6441,7 @@
         <v>129</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D99" t="s">
         <v>370</v>
@@ -6468,7 +6468,7 @@
         <v>105</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M99" s="10">
         <v>25</v>
@@ -6482,7 +6482,7 @@
         <v>129</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D100" t="s">
         <v>153</v>
@@ -6509,13 +6509,13 @@
         <v>105</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M100" s="10">
         <v>25</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O100" s="10">
         <v>25</v>
@@ -6529,7 +6529,7 @@
         <v>129</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D101" t="s">
         <v>155</v>
@@ -6556,7 +6556,7 @@
         <v>105</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M101" s="10">
         <v>25</v>
@@ -6570,7 +6570,7 @@
         <v>129</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D102" t="s">
         <v>108</v>
@@ -6597,7 +6597,7 @@
         <v>105</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M102" s="10">
         <v>10</v>
@@ -6611,7 +6611,7 @@
         <v>129</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D103" t="s">
         <v>158</v>
@@ -6638,7 +6638,7 @@
         <v>105</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M103" s="10">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>129</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D104" t="s">
         <v>369</v>
@@ -6679,7 +6679,7 @@
         <v>105</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M104" s="10">
         <v>10</v>
@@ -6693,7 +6693,7 @@
         <v>129</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D105" t="s">
         <v>369</v>
@@ -6720,13 +6720,13 @@
         <v>105</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M105" s="10">
         <v>0</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O105" s="10">
         <v>0</v>
@@ -6740,7 +6740,7 @@
         <v>129</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D106" t="s">
         <v>371</v>
@@ -6767,7 +6767,7 @@
         <v>105</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M106" s="10">
         <v>25</v>
@@ -6781,7 +6781,7 @@
         <v>129</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D107" t="s">
         <v>372</v>
@@ -6808,7 +6808,7 @@
         <v>105</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M107" s="10">
         <v>50</v>
@@ -6822,7 +6822,7 @@
         <v>129</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D108" t="s">
         <v>373</v>
@@ -6849,13 +6849,13 @@
         <v>105</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M108" s="11">
         <v>0</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O108" s="11"/>
     </row>
@@ -6867,7 +6867,7 @@
         <v>129</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D109" t="s">
         <v>122</v>
@@ -6894,7 +6894,7 @@
         <v>105</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M109" s="10">
         <v>10</v>
@@ -6908,7 +6908,7 @@
         <v>129</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D110" t="s">
         <v>120</v>
@@ -6935,7 +6935,7 @@
         <v>105</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M110" s="10">
         <v>25</v>
@@ -6949,7 +6949,7 @@
         <v>129</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D111" t="s">
         <v>374</v>
@@ -6976,7 +6976,7 @@
         <v>105</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M111" s="10">
         <v>25</v>
@@ -6990,7 +6990,7 @@
         <v>129</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D112" t="s">
         <v>209</v>
@@ -7017,7 +7017,7 @@
         <v>105</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M112" s="10">
         <v>10</v>
@@ -7031,7 +7031,7 @@
         <v>129</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D113" t="s">
         <v>375</v>
@@ -7058,7 +7058,7 @@
         <v>105</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M113" s="10">
         <v>25</v>
@@ -7072,7 +7072,7 @@
         <v>129</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D114" t="s">
         <v>376</v>
@@ -7099,7 +7099,7 @@
         <v>105</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M114" s="10">
         <v>75</v>
@@ -7113,7 +7113,7 @@
         <v>129</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D115" t="s">
         <v>376</v>
@@ -7140,7 +7140,7 @@
         <v>105</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M115" s="10">
         <v>50</v>
@@ -7154,7 +7154,7 @@
         <v>129</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D116" t="s">
         <v>376</v>
@@ -7181,7 +7181,7 @@
         <v>105</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M116" s="10">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>129</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D117" t="s">
         <v>376</v>
@@ -7222,7 +7222,7 @@
         <v>105</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M117" s="10">
         <v>25</v>
@@ -7236,7 +7236,7 @@
         <v>129</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D118" t="s">
         <v>377</v>
@@ -7263,7 +7263,7 @@
         <v>105</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M118" s="10">
         <v>100</v>
@@ -7277,7 +7277,7 @@
         <v>129</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D119" t="s">
         <v>377</v>
@@ -7304,7 +7304,7 @@
         <v>105</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M119" s="10">
         <v>100</v>
@@ -7318,7 +7318,7 @@
         <v>129</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D120" t="s">
         <v>377</v>
@@ -7345,7 +7345,7 @@
         <v>105</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M120" s="10">
         <v>50</v>
@@ -7359,7 +7359,7 @@
         <v>129</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D121" t="s">
         <v>377</v>
@@ -7386,7 +7386,7 @@
         <v>105</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M121" s="10">
         <v>0</v>
@@ -7400,7 +7400,7 @@
         <v>129</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D122" t="s">
         <v>168</v>
@@ -7427,7 +7427,7 @@
         <v>105</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M122" s="10">
         <v>10</v>
@@ -7441,7 +7441,7 @@
         <v>129</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D123" t="s">
         <v>378</v>
@@ -7468,7 +7468,7 @@
         <v>105</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M123" s="10">
         <v>10</v>
@@ -7482,7 +7482,7 @@
         <v>129</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D124" t="s">
         <v>378</v>
@@ -7509,7 +7509,7 @@
         <v>105</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M124" s="10">
         <v>10</v>
@@ -7523,7 +7523,7 @@
         <v>129</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D125" t="s">
         <v>170</v>
@@ -7550,7 +7550,7 @@
         <v>105</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M125" s="10">
         <v>0</v>
@@ -7564,7 +7564,7 @@
         <v>129</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D126" t="s">
         <v>379</v>
@@ -7591,7 +7591,7 @@
         <v>105</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M126" s="10">
         <v>100</v>
@@ -7605,7 +7605,7 @@
         <v>129</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D127" t="s">
         <v>379</v>
@@ -7632,7 +7632,7 @@
         <v>105</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M127" s="10">
         <v>50</v>
@@ -7646,7 +7646,7 @@
         <v>129</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D128" t="s">
         <v>379</v>
@@ -7673,7 +7673,7 @@
         <v>105</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M128" s="10">
         <v>50</v>
@@ -7687,7 +7687,7 @@
         <v>129</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D129" t="s">
         <v>380</v>
@@ -7714,7 +7714,7 @@
         <v>105</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M129" s="10">
         <v>50</v>
@@ -7728,7 +7728,7 @@
         <v>173</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D130" t="s">
         <v>174</v>
@@ -7755,7 +7755,7 @@
         <v>105</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M130" s="10">
         <v>25</v>
@@ -7769,7 +7769,7 @@
         <v>173</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D131" t="s">
         <v>176</v>
@@ -7796,7 +7796,7 @@
         <v>105</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M131" s="10">
         <v>25</v>
@@ -7810,7 +7810,7 @@
         <v>178</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D132" t="s">
         <v>179</v>
@@ -7837,7 +7837,7 @@
         <v>105</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M132" s="10">
         <v>25</v>
@@ -7851,7 +7851,7 @@
         <v>178</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D133" t="s">
         <v>181</v>
@@ -7878,7 +7878,7 @@
         <v>105</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M133" s="10">
         <v>25</v>
@@ -7892,7 +7892,7 @@
         <v>178</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D134" t="s">
         <v>183</v>
@@ -7919,13 +7919,13 @@
         <v>105</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M134" s="10">
         <v>250</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O134" s="10">
         <v>250</v>
@@ -7939,7 +7939,7 @@
         <v>178</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D135" t="s">
         <v>381</v>
@@ -7966,7 +7966,7 @@
         <v>187</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M135" s="10">
         <v>0</v>
@@ -7980,7 +7980,7 @@
         <v>178</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D136" t="s">
         <v>381</v>
@@ -8007,7 +8007,7 @@
         <v>187</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M136" s="10">
         <v>25</v>
@@ -8021,7 +8021,7 @@
         <v>178</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D137" t="s">
         <v>185</v>
@@ -8048,7 +8048,7 @@
         <v>105</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M137" s="10">
         <v>0</v>
@@ -8062,7 +8062,7 @@
         <v>178</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D138" t="s">
         <v>188</v>
@@ -8089,7 +8089,7 @@
         <v>105</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M138" s="10">
         <v>0</v>
@@ -8103,7 +8103,7 @@
         <v>178</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D139" t="s">
         <v>112</v>
@@ -8130,7 +8130,7 @@
         <v>105</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M139" s="10">
         <v>50</v>
@@ -8144,7 +8144,7 @@
         <v>178</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D140" t="s">
         <v>191</v>
@@ -8171,7 +8171,7 @@
         <v>105</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M140" s="10">
         <v>0</v>
@@ -8185,7 +8185,7 @@
         <v>178</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D141" t="s">
         <v>193</v>
@@ -8212,7 +8212,7 @@
         <v>105</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M141" s="10">
         <v>200</v>
@@ -8226,7 +8226,7 @@
         <v>178</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D142" t="s">
         <v>195</v>
@@ -8253,7 +8253,7 @@
         <v>105</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M142" s="10">
         <v>10</v>
@@ -8267,7 +8267,7 @@
         <v>178</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D143" t="s">
         <v>382</v>
@@ -8294,7 +8294,7 @@
         <v>105</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M143" s="10">
         <v>10</v>
@@ -8308,7 +8308,7 @@
         <v>178</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D144" t="s">
         <v>198</v>
@@ -8335,7 +8335,7 @@
         <v>105</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M144" s="10">
         <v>50</v>
@@ -8349,7 +8349,7 @@
         <v>178</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D145" t="s">
         <v>376</v>
@@ -8376,7 +8376,7 @@
         <v>105</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M145" s="10">
         <v>100</v>
@@ -8390,7 +8390,7 @@
         <v>178</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D146" t="s">
         <v>201</v>
@@ -8417,13 +8417,13 @@
         <v>105</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M146" s="10">
         <v>25</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O146" s="10">
         <v>25</v>
@@ -8437,7 +8437,7 @@
         <v>23</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D147" t="s">
         <v>203</v>
@@ -8464,7 +8464,7 @@
         <v>105</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M147" s="10">
         <v>25</v>
@@ -8478,7 +8478,7 @@
         <v>23</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D148" t="s">
         <v>383</v>
@@ -8505,7 +8505,7 @@
         <v>105</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M148" s="10">
         <v>25</v>
@@ -8519,7 +8519,7 @@
         <v>23</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D149" t="s">
         <v>383</v>
@@ -8546,7 +8546,7 @@
         <v>105</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M149" s="10">
         <v>25</v>
@@ -8560,7 +8560,7 @@
         <v>23</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D150" t="s">
         <v>384</v>
@@ -8587,7 +8587,7 @@
         <v>105</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M150" s="10">
         <v>25</v>
@@ -8601,7 +8601,7 @@
         <v>23</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D151" t="s">
         <v>384</v>
@@ -8628,7 +8628,7 @@
         <v>105</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M151" s="10">
         <v>25</v>
@@ -8642,7 +8642,7 @@
         <v>23</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D152" t="s">
         <v>205</v>
@@ -8669,7 +8669,7 @@
         <v>105</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M152" s="10">
         <v>50</v>
@@ -8683,7 +8683,7 @@
         <v>23</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D153" t="s">
         <v>370</v>
@@ -8710,7 +8710,7 @@
         <v>105</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M153" s="10">
         <v>50</v>
@@ -8724,7 +8724,7 @@
         <v>23</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D154" t="s">
         <v>370</v>
@@ -8751,7 +8751,7 @@
         <v>105</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M154" s="10">
         <v>50</v>
@@ -8765,7 +8765,7 @@
         <v>23</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D155" t="s">
         <v>379</v>
@@ -8792,7 +8792,7 @@
         <v>105</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M155" s="10">
         <v>25</v>
@@ -8806,7 +8806,7 @@
         <v>23</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D156" t="s">
         <v>379</v>
@@ -8833,7 +8833,7 @@
         <v>105</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M156" s="10">
         <v>50</v>
@@ -8847,7 +8847,7 @@
         <v>23</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D157" t="s">
         <v>379</v>
@@ -8874,7 +8874,7 @@
         <v>105</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M157" s="10">
         <v>25</v>
@@ -8888,7 +8888,7 @@
         <v>23</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D158" t="s">
         <v>379</v>
@@ -8915,7 +8915,7 @@
         <v>105</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M158" s="10">
         <v>25</v>
@@ -8929,7 +8929,7 @@
         <v>23</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D159" t="s">
         <v>379</v>
@@ -8956,7 +8956,7 @@
         <v>105</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M159" s="10">
         <v>25</v>
@@ -8970,7 +8970,7 @@
         <v>23</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D160" t="s">
         <v>379</v>
@@ -8997,7 +8997,7 @@
         <v>105</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M160" s="10">
         <v>25</v>
@@ -9011,7 +9011,7 @@
         <v>23</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D161" t="s">
         <v>379</v>
@@ -9038,7 +9038,7 @@
         <v>105</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M161" s="10">
         <v>10</v>
@@ -9052,7 +9052,7 @@
         <v>23</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D162" t="s">
         <v>377</v>
@@ -9079,7 +9079,7 @@
         <v>105</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M162" s="10">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>23</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D163" t="s">
         <v>377</v>
@@ -9120,7 +9120,7 @@
         <v>105</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M163" s="10">
         <v>50</v>
@@ -9134,7 +9134,7 @@
         <v>23</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D164" t="s">
         <v>385</v>
@@ -9161,7 +9161,7 @@
         <v>105</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M164" s="10">
         <v>10</v>
@@ -9175,7 +9175,7 @@
         <v>23</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D165" t="s">
         <v>385</v>
@@ -9202,7 +9202,7 @@
         <v>105</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M165" s="10">
         <v>10</v>
@@ -9216,7 +9216,7 @@
         <v>23</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D166" t="s">
         <v>385</v>
@@ -9243,7 +9243,7 @@
         <v>105</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M166" s="10">
         <v>10</v>
@@ -9257,7 +9257,7 @@
         <v>23</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D167" t="s">
         <v>386</v>
@@ -9284,7 +9284,7 @@
         <v>105</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M167" s="10">
         <v>25</v>
@@ -9298,7 +9298,7 @@
         <v>23</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D168" t="s">
         <v>386</v>
@@ -9325,7 +9325,7 @@
         <v>105</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M168" s="10">
         <v>25</v>
@@ -9339,7 +9339,7 @@
         <v>23</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D169" t="s">
         <v>387</v>
@@ -9366,7 +9366,7 @@
         <v>105</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M169" s="10">
         <v>25</v>
@@ -9380,7 +9380,7 @@
         <v>23</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D170" t="s">
         <v>387</v>
@@ -9407,7 +9407,7 @@
         <v>105</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M170" s="10">
         <v>25</v>
@@ -9421,7 +9421,7 @@
         <v>23</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D171" t="s">
         <v>387</v>
@@ -9448,7 +9448,7 @@
         <v>105</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M171" s="10">
         <v>10</v>
@@ -9462,7 +9462,7 @@
         <v>23</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D172" t="s">
         <v>387</v>
@@ -9489,7 +9489,7 @@
         <v>105</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M172" s="10">
         <v>10</v>
@@ -9503,7 +9503,7 @@
         <v>23</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D173" t="s">
         <v>388</v>
@@ -9530,7 +9530,7 @@
         <v>105</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M173" s="10">
         <v>25</v>
@@ -9544,7 +9544,7 @@
         <v>23</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D174" t="s">
         <v>388</v>
@@ -9571,7 +9571,7 @@
         <v>105</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M174" s="10">
         <v>10</v>
@@ -9585,7 +9585,7 @@
         <v>23</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D175" t="s">
         <v>389</v>
@@ -9612,7 +9612,7 @@
         <v>105</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M175" s="10">
         <v>25</v>
@@ -9626,7 +9626,7 @@
         <v>23</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D176" t="s">
         <v>389</v>
@@ -9653,7 +9653,7 @@
         <v>105</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M176" s="10">
         <v>25</v>
@@ -9667,7 +9667,7 @@
         <v>23</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D177" t="s">
         <v>389</v>
@@ -9694,7 +9694,7 @@
         <v>105</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M177" s="10">
         <v>10</v>
@@ -9708,7 +9708,7 @@
         <v>23</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D178" t="s">
         <v>207</v>
@@ -9735,7 +9735,7 @@
         <v>105</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M178" s="10">
         <v>25</v>
@@ -9749,7 +9749,7 @@
         <v>23</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D179" t="s">
         <v>376</v>
@@ -9776,7 +9776,7 @@
         <v>105</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M179" s="10">
         <v>25</v>
@@ -9790,7 +9790,7 @@
         <v>23</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D180" t="s">
         <v>376</v>
@@ -9817,7 +9817,7 @@
         <v>105</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M180" s="10">
         <v>25</v>
@@ -9831,7 +9831,7 @@
         <v>23</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D181" t="s">
         <v>376</v>
@@ -9858,7 +9858,7 @@
         <v>105</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M181" s="10">
         <v>25</v>
@@ -9872,7 +9872,7 @@
         <v>23</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D182" t="s">
         <v>376</v>
@@ -9899,7 +9899,7 @@
         <v>105</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M182" s="10">
         <v>0</v>
@@ -9913,7 +9913,7 @@
         <v>23</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D183" t="s">
         <v>376</v>
@@ -9940,7 +9940,7 @@
         <v>105</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M183" s="10">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>23</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D184" t="s">
         <v>209</v>
@@ -9981,7 +9981,7 @@
         <v>105</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M184" s="10">
         <v>10</v>
@@ -9995,7 +9995,7 @@
         <v>23</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D185" t="s">
         <v>211</v>
@@ -10022,7 +10022,7 @@
         <v>105</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M185" s="10">
         <v>25</v>
@@ -10036,7 +10036,7 @@
         <v>23</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D186" t="s">
         <v>390</v>
@@ -10063,7 +10063,7 @@
         <v>105</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M186" s="10">
         <v>0</v>
@@ -10077,7 +10077,7 @@
         <v>23</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D187" t="s">
         <v>390</v>
@@ -10104,7 +10104,7 @@
         <v>105</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M187" s="10">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>23</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D188" t="s">
         <v>213</v>
@@ -10145,7 +10145,7 @@
         <v>105</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M188" s="10">
         <v>0</v>
@@ -10159,7 +10159,7 @@
         <v>23</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D189" t="s">
         <v>391</v>
@@ -10186,7 +10186,7 @@
         <v>105</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M189" s="10">
         <v>25</v>
@@ -10200,7 +10200,7 @@
         <v>23</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D190" t="s">
         <v>216</v>
@@ -10227,7 +10227,7 @@
         <v>105</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M190" s="10">
         <v>10</v>
@@ -10241,7 +10241,7 @@
         <v>23</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D191" t="s">
         <v>392</v>
@@ -10268,7 +10268,7 @@
         <v>105</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M191" s="10">
         <v>10</v>
@@ -10282,7 +10282,7 @@
         <v>23</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D192" t="s">
         <v>219</v>
@@ -10309,7 +10309,7 @@
         <v>105</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M192" s="10">
         <v>0</v>
@@ -10323,7 +10323,7 @@
         <v>23</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D193" t="s">
         <v>393</v>
@@ -10350,7 +10350,7 @@
         <v>105</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M193" s="10">
         <v>10</v>
@@ -10364,7 +10364,7 @@
         <v>23</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D194" t="s">
         <v>222</v>
@@ -10391,7 +10391,7 @@
         <v>105</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M194" s="10">
         <v>10</v>
@@ -10405,7 +10405,7 @@
         <v>23</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D195" t="s">
         <v>224</v>
@@ -10432,7 +10432,7 @@
         <v>105</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M195" s="10">
         <v>25</v>
@@ -10446,7 +10446,7 @@
         <v>23</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D196" t="s">
         <v>226</v>
@@ -10473,7 +10473,7 @@
         <v>105</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M196" s="10">
         <v>10</v>
@@ -10487,7 +10487,7 @@
         <v>23</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D197" t="s">
         <v>228</v>
@@ -10514,7 +10514,7 @@
         <v>105</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M197" s="10">
         <v>25</v>
@@ -10528,7 +10528,7 @@
         <v>23</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D198" t="s">
         <v>230</v>
@@ -10555,7 +10555,7 @@
         <v>105</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M198" s="10">
         <v>10</v>
@@ -10569,7 +10569,7 @@
         <v>23</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D199" t="s">
         <v>394</v>
@@ -10596,7 +10596,7 @@
         <v>105</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M199" s="10">
         <v>25</v>
@@ -10610,7 +10610,7 @@
         <v>23</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D200" t="s">
         <v>394</v>
@@ -10637,7 +10637,7 @@
         <v>105</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M200" s="10">
         <v>25</v>
@@ -10651,7 +10651,7 @@
         <v>23</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D201" t="s">
         <v>394</v>
@@ -10678,7 +10678,7 @@
         <v>105</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M201" s="10">
         <v>25</v>
@@ -10692,7 +10692,7 @@
         <v>23</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D202" t="s">
         <v>395</v>
@@ -10719,7 +10719,7 @@
         <v>105</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M202" s="10">
         <v>10</v>
@@ -10733,7 +10733,7 @@
         <v>23</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D203" t="s">
         <v>233</v>
@@ -10760,7 +10760,7 @@
         <v>105</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M203" s="10">
         <v>25</v>
@@ -10774,7 +10774,7 @@
         <v>23</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D204" t="s">
         <v>380</v>
@@ -10801,7 +10801,7 @@
         <v>105</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M204" s="10">
         <v>25</v>
@@ -10815,7 +10815,7 @@
         <v>23</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D205" t="s">
         <v>380</v>
@@ -10842,7 +10842,7 @@
         <v>105</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M205" s="10">
         <v>25</v>
@@ -10856,7 +10856,7 @@
         <v>23</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D206" t="s">
         <v>380</v>
@@ -10883,7 +10883,7 @@
         <v>105</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M206" s="10">
         <v>25</v>
@@ -10897,7 +10897,7 @@
         <v>23</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D207" t="s">
         <v>380</v>
@@ -10924,7 +10924,7 @@
         <v>105</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M207" s="10">
         <v>10</v>
@@ -10938,7 +10938,7 @@
         <v>23</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D208" t="s">
         <v>380</v>
@@ -10965,7 +10965,7 @@
         <v>105</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M208" s="10">
         <v>0</v>
@@ -10979,7 +10979,7 @@
         <v>23</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D209" t="s">
         <v>396</v>
@@ -11006,7 +11006,7 @@
         <v>105</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M209" s="10">
         <v>0</v>
@@ -11020,7 +11020,7 @@
         <v>23</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D210" t="s">
         <v>396</v>
@@ -11047,7 +11047,7 @@
         <v>105</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M210" s="10">
         <v>0</v>
@@ -11061,7 +11061,7 @@
         <v>23</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D211" t="s">
         <v>396</v>
@@ -11088,7 +11088,7 @@
         <v>564</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M211" s="10">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>23</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D212" t="s">
         <v>235</v>
@@ -11129,7 +11129,7 @@
         <v>105</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M212" s="10">
         <v>50</v>
@@ -11143,7 +11143,7 @@
         <v>23</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D213" t="s">
         <v>397</v>
@@ -11170,7 +11170,7 @@
         <v>241</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M213" s="10">
         <v>50</v>
@@ -11184,7 +11184,7 @@
         <v>23</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D214" t="s">
         <v>238</v>
@@ -11211,7 +11211,7 @@
         <v>105</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M214" s="10">
         <v>25</v>
@@ -11225,7 +11225,7 @@
         <v>23</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D215" t="s">
         <v>398</v>
@@ -11252,7 +11252,7 @@
         <v>105</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M215" s="10">
         <v>25</v>
@@ -11266,7 +11266,7 @@
         <v>23</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D216" t="s">
         <v>242</v>
@@ -11293,7 +11293,7 @@
         <v>105</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M216" s="10">
         <v>25</v>
@@ -11307,7 +11307,7 @@
         <v>23</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D217" t="s">
         <v>244</v>
@@ -11334,7 +11334,7 @@
         <v>105</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M217" s="10">
         <v>10</v>
@@ -11348,7 +11348,7 @@
         <v>23</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D218" t="s">
         <v>399</v>
@@ -11375,7 +11375,7 @@
         <v>105</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M218" s="10">
         <v>25</v>
@@ -11389,7 +11389,7 @@
         <v>23</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D219" t="s">
         <v>399</v>
@@ -11416,7 +11416,7 @@
         <v>105</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M219" s="10">
         <v>25</v>
@@ -11430,7 +11430,7 @@
         <v>23</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D220" t="s">
         <v>399</v>
@@ -11457,7 +11457,7 @@
         <v>105</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M220" s="10">
         <v>10</v>
@@ -11471,7 +11471,7 @@
         <v>23</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D221" t="s">
         <v>399</v>
@@ -11498,7 +11498,7 @@
         <v>105</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M221" s="10">
         <v>10</v>
@@ -11512,7 +11512,7 @@
         <v>23</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D222" t="s">
         <v>246</v>
@@ -11539,13 +11539,13 @@
         <v>105</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M222" s="9">
         <v>40</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O222" s="9"/>
     </row>
@@ -11557,7 +11557,7 @@
         <v>23</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D223" t="s">
         <v>248</v>
@@ -11584,7 +11584,7 @@
         <v>105</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M223" s="10">
         <v>50</v>
@@ -11598,7 +11598,7 @@
         <v>23</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D224" t="s">
         <v>250</v>
@@ -11622,10 +11622,10 @@
         <v>2</v>
       </c>
       <c r="K224" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M224" s="10">
         <v>50</v>
@@ -11639,7 +11639,7 @@
         <v>23</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D225" t="s">
         <v>252</v>
@@ -11666,13 +11666,13 @@
         <v>254</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M225" s="10">
         <v>100</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O225" s="10">
         <v>0</v>
@@ -11686,7 +11686,7 @@
         <v>23</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D226" t="s">
         <v>400</v>
@@ -11713,7 +11713,7 @@
         <v>105</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M226" s="10">
         <v>0</v>
@@ -11727,7 +11727,7 @@
         <v>23</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D227" t="s">
         <v>400</v>
@@ -11754,7 +11754,7 @@
         <v>105</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M227" s="10">
         <v>0</v>
@@ -11768,7 +11768,7 @@
         <v>23</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D228" t="s">
         <v>401</v>
@@ -11795,7 +11795,7 @@
         <v>105</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M228" s="10">
         <v>0</v>
@@ -11809,7 +11809,7 @@
         <v>23</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D229" t="s">
         <v>401</v>
@@ -11836,7 +11836,7 @@
         <v>105</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M229" s="10">
         <v>0</v>
@@ -11850,7 +11850,7 @@
         <v>23</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D230" t="s">
         <v>255</v>
@@ -11877,7 +11877,7 @@
         <v>105</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M230" s="10">
         <v>25</v>
@@ -11891,7 +11891,7 @@
         <v>23</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D231" t="s">
         <v>257</v>
@@ -11918,7 +11918,7 @@
         <v>105</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M231" s="10">
         <v>25</v>
@@ -11932,7 +11932,7 @@
         <v>23</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D232" t="s">
         <v>402</v>
@@ -11959,7 +11959,7 @@
         <v>105</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M232" s="10">
         <v>25</v>
@@ -11973,7 +11973,7 @@
         <v>23</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D233" t="s">
         <v>260</v>
@@ -12000,7 +12000,7 @@
         <v>105</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M233" s="10">
         <v>10</v>
@@ -12014,7 +12014,7 @@
         <v>23</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D234" t="s">
         <v>403</v>
@@ -12041,7 +12041,7 @@
         <v>105</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M234" s="10">
         <v>25</v>
@@ -12055,7 +12055,7 @@
         <v>23</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D235" t="s">
         <v>403</v>
@@ -12082,7 +12082,7 @@
         <v>105</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M235" s="10">
         <v>50</v>
@@ -12096,7 +12096,7 @@
         <v>23</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D236" t="s">
         <v>404</v>
@@ -12123,7 +12123,7 @@
         <v>105</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M236" s="10">
         <v>75</v>
@@ -12137,7 +12137,7 @@
         <v>23</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D237" t="s">
         <v>404</v>
@@ -12164,7 +12164,7 @@
         <v>105</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M237" s="10">
         <v>50</v>
@@ -12178,7 +12178,7 @@
         <v>23</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D238" t="s">
         <v>404</v>
@@ -12205,7 +12205,7 @@
         <v>105</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M238" s="10">
         <v>25</v>
@@ -12219,7 +12219,7 @@
         <v>23</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D239" t="s">
         <v>404</v>
@@ -12246,7 +12246,7 @@
         <v>105</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M239" s="10">
         <v>25</v>
@@ -12260,7 +12260,7 @@
         <v>23</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D240" t="s">
         <v>404</v>
@@ -12287,7 +12287,7 @@
         <v>105</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M240" s="10">
         <v>25</v>
@@ -12301,7 +12301,7 @@
         <v>23</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D241" t="s">
         <v>404</v>
@@ -12328,7 +12328,7 @@
         <v>105</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M241" s="10">
         <v>25</v>
@@ -12342,7 +12342,7 @@
         <v>23</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D242" t="s">
         <v>262</v>
@@ -12369,7 +12369,7 @@
         <v>105</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M242" s="10">
         <v>50</v>
@@ -12383,7 +12383,7 @@
         <v>23</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D243" t="s">
         <v>405</v>
@@ -12410,7 +12410,7 @@
         <v>105</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M243" s="10">
         <v>25</v>
@@ -12424,7 +12424,7 @@
         <v>23</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D244" t="s">
         <v>405</v>
@@ -12451,7 +12451,7 @@
         <v>105</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M244" s="10">
         <v>25</v>
@@ -12465,7 +12465,7 @@
         <v>23</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D245" t="s">
         <v>405</v>
@@ -12492,7 +12492,7 @@
         <v>105</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M245" s="10">
         <v>10</v>
@@ -12506,7 +12506,7 @@
         <v>23</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D246" t="s">
         <v>406</v>
@@ -12533,7 +12533,7 @@
         <v>105</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M246" s="10">
         <v>0</v>
@@ -12547,7 +12547,7 @@
         <v>23</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D247" t="s">
         <v>407</v>
@@ -12574,7 +12574,7 @@
         <v>105</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M247" s="10">
         <v>25</v>
@@ -12588,7 +12588,7 @@
         <v>23</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D248" t="s">
         <v>407</v>
@@ -12615,7 +12615,7 @@
         <v>105</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M248" s="10">
         <v>10</v>
@@ -12629,7 +12629,7 @@
         <v>23</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D249" t="s">
         <v>407</v>
@@ -12656,7 +12656,7 @@
         <v>105</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M249" s="10">
         <v>10</v>
@@ -12670,7 +12670,7 @@
         <v>23</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D250" t="s">
         <v>408</v>
@@ -12697,7 +12697,7 @@
         <v>105</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M250" s="10">
         <v>10</v>
@@ -12711,7 +12711,7 @@
         <v>23</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D251" t="s">
         <v>408</v>
@@ -12738,7 +12738,7 @@
         <v>105</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M251" s="10">
         <v>10</v>
@@ -12752,7 +12752,7 @@
         <v>23</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D252" t="s">
         <v>408</v>
@@ -12779,7 +12779,7 @@
         <v>105</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M252" s="10">
         <v>10</v>
@@ -12793,7 +12793,7 @@
         <v>23</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D253" t="s">
         <v>265</v>
@@ -12820,7 +12820,7 @@
         <v>274</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M253" s="10">
         <v>75</v>
@@ -12834,7 +12834,7 @@
         <v>23</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D254" t="s">
         <v>409</v>
@@ -12861,7 +12861,7 @@
         <v>105</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M254" s="10">
         <v>0</v>
@@ -12875,7 +12875,7 @@
         <v>23</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D255" t="s">
         <v>268</v>
@@ -12902,7 +12902,7 @@
         <v>105</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M255" s="10">
         <v>75</v>
@@ -12916,7 +12916,7 @@
         <v>23</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D256" t="s">
         <v>270</v>
@@ -12943,7 +12943,7 @@
         <v>105</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M256" s="10">
         <v>50</v>
@@ -12957,7 +12957,7 @@
         <v>23</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D257" t="s">
         <v>272</v>
@@ -12984,13 +12984,13 @@
         <v>105</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M257" s="11">
         <v>60</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O257" s="11"/>
     </row>
@@ -13002,7 +13002,7 @@
         <v>23</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D258" t="s">
         <v>275</v>
@@ -13029,7 +13029,7 @@
         <v>37</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M258" s="10">
         <v>25</v>
@@ -13043,7 +13043,7 @@
         <v>23</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D259" t="s">
         <v>410</v>
@@ -13070,7 +13070,7 @@
         <v>105</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M259" s="10">
         <v>25</v>
@@ -13084,7 +13084,7 @@
         <v>23</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D260" t="s">
         <v>410</v>
@@ -13111,7 +13111,7 @@
         <v>105</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M260" s="10">
         <v>50</v>
@@ -13125,7 +13125,7 @@
         <v>23</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D261" t="s">
         <v>277</v>
@@ -13152,13 +13152,13 @@
         <v>105</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M261" s="9">
         <v>50</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O261" s="9"/>
     </row>
@@ -13170,7 +13170,7 @@
         <v>23</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D262" t="s">
         <v>279</v>
@@ -13197,7 +13197,7 @@
         <v>105</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M262" s="10">
         <v>50</v>
@@ -13211,7 +13211,7 @@
         <v>23</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D263" t="s">
         <v>281</v>
@@ -13238,7 +13238,7 @@
         <v>285</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M263" s="10">
         <v>50</v>
@@ -13252,7 +13252,7 @@
         <v>23</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D264" t="s">
         <v>283</v>
@@ -13279,7 +13279,7 @@
         <v>105</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M264" s="10">
         <v>50</v>
@@ -13293,7 +13293,7 @@
         <v>23</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D265" t="s">
         <v>411</v>
@@ -13320,7 +13320,7 @@
         <v>105</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M265" s="10">
         <v>0</v>
@@ -13334,7 +13334,7 @@
         <v>23</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D266" t="s">
         <v>411</v>
@@ -13361,7 +13361,7 @@
         <v>105</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M266" s="10">
         <v>0</v>
@@ -13375,7 +13375,7 @@
         <v>23</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D267" t="s">
         <v>242</v>
@@ -13402,7 +13402,7 @@
         <v>105</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M267" s="10">
         <v>50</v>
@@ -13416,7 +13416,7 @@
         <v>23</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D268" t="s">
         <v>287</v>
@@ -13443,7 +13443,7 @@
         <v>105</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M268" s="10">
         <v>25</v>
@@ -13457,7 +13457,7 @@
         <v>23</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D269" t="s">
         <v>289</v>
@@ -13484,7 +13484,7 @@
         <v>105</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M269" s="10">
         <v>50</v>
@@ -13498,7 +13498,7 @@
         <v>23</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D270" t="s">
         <v>412</v>
@@ -13525,7 +13525,7 @@
         <v>105</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M270" s="10">
         <v>10</v>
@@ -13539,7 +13539,7 @@
         <v>23</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D271" t="s">
         <v>412</v>
@@ -13566,7 +13566,7 @@
         <v>105</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M271" s="10">
         <v>10</v>
@@ -13580,7 +13580,7 @@
         <v>23</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D272" t="s">
         <v>412</v>
@@ -13607,7 +13607,7 @@
         <v>105</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M272" s="10">
         <v>10</v>
@@ -13621,7 +13621,7 @@
         <v>23</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D273" t="s">
         <v>413</v>
@@ -13648,7 +13648,7 @@
         <v>105</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M273" s="10">
         <v>10</v>
@@ -13662,7 +13662,7 @@
         <v>23</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D274" t="s">
         <v>413</v>
@@ -13689,7 +13689,7 @@
         <v>105</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M274" s="10">
         <v>10</v>
@@ -13703,7 +13703,7 @@
         <v>23</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D275" t="s">
         <v>414</v>
@@ -13730,7 +13730,7 @@
         <v>105</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M275" s="10">
         <v>10</v>
@@ -13744,7 +13744,7 @@
         <v>23</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D276" t="s">
         <v>415</v>
@@ -13771,7 +13771,7 @@
         <v>105</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M276" s="10">
         <v>25</v>
@@ -13785,7 +13785,7 @@
         <v>23</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D277" t="s">
         <v>415</v>
@@ -13812,7 +13812,7 @@
         <v>105</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M277" s="10">
         <v>10</v>
@@ -13826,7 +13826,7 @@
         <v>23</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D278" t="s">
         <v>416</v>
@@ -13853,7 +13853,7 @@
         <v>105</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M278" s="10">
         <v>0</v>
@@ -13867,7 +13867,7 @@
         <v>23</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D279" t="s">
         <v>416</v>
@@ -13894,7 +13894,7 @@
         <v>105</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M279" s="10">
         <v>0</v>
@@ -13908,7 +13908,7 @@
         <v>23</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D280" t="s">
         <v>416</v>
@@ -13935,7 +13935,7 @@
         <v>105</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M280" s="10">
         <v>0</v>
@@ -13949,7 +13949,7 @@
         <v>23</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D281" t="s">
         <v>416</v>
@@ -13976,7 +13976,7 @@
         <v>105</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M281" s="10">
         <v>0</v>
@@ -13990,7 +13990,7 @@
         <v>23</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D282" t="s">
         <v>292</v>
@@ -14017,7 +14017,7 @@
         <v>298</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M282" s="10">
         <v>0</v>
@@ -14031,7 +14031,7 @@
         <v>23</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D283" t="s">
         <v>294</v>
@@ -14058,7 +14058,7 @@
         <v>105</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M283" s="10">
         <v>300</v>
@@ -14072,7 +14072,7 @@
         <v>23</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D284" t="s">
         <v>296</v>
@@ -14096,16 +14096,16 @@
         <v>3</v>
       </c>
       <c r="K284" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M284" s="10">
         <v>75</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
@@ -14116,7 +14116,7 @@
         <v>23</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D285" t="s">
         <v>417</v>
@@ -14143,7 +14143,7 @@
         <v>105</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M285" s="10">
         <v>10</v>
@@ -14157,7 +14157,7 @@
         <v>23</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D286" t="s">
         <v>300</v>
@@ -14184,7 +14184,7 @@
         <v>105</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M286" s="10">
         <v>10</v>
@@ -14198,7 +14198,7 @@
         <v>23</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D287" t="s">
         <v>418</v>
@@ -14225,7 +14225,7 @@
         <v>105</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M287" s="10">
         <v>25</v>
@@ -14239,7 +14239,7 @@
         <v>23</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D288" t="s">
         <v>303</v>
@@ -14266,7 +14266,7 @@
         <v>105</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M288" s="10">
         <v>50</v>
@@ -14280,7 +14280,7 @@
         <v>23</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D289" t="s">
         <v>305</v>
@@ -14307,13 +14307,13 @@
         <v>105</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M289" s="10">
         <v>230</v>
       </c>
       <c r="N289" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O289" s="10">
         <v>230</v>
@@ -14327,7 +14327,7 @@
         <v>23</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D290" t="s">
         <v>307</v>
@@ -14354,7 +14354,7 @@
         <v>105</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M290" s="10">
         <v>0</v>
@@ -14368,7 +14368,7 @@
         <v>26</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D291" t="s">
         <v>419</v>
@@ -14395,7 +14395,7 @@
         <v>105</v>
       </c>
       <c r="L291" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M291" s="10">
         <v>0</v>
@@ -14409,7 +14409,7 @@
         <v>26</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D292" t="s">
         <v>310</v>
@@ -14433,16 +14433,16 @@
         <v>2</v>
       </c>
       <c r="K292" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M292" s="11">
         <v>40</v>
       </c>
       <c r="N292" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O292" s="11"/>
     </row>
@@ -14454,7 +14454,7 @@
         <v>26</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D293" t="s">
         <v>420</v>
@@ -14481,13 +14481,13 @@
         <v>313</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M293" s="10">
         <v>215</v>
       </c>
       <c r="N293" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O293" s="10">
         <v>215</v>
@@ -14501,7 +14501,7 @@
         <v>28</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D294" t="s">
         <v>314</v>
@@ -14528,7 +14528,7 @@
         <v>320</v>
       </c>
       <c r="L294" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M294" s="10">
         <v>25</v>
@@ -14542,7 +14542,7 @@
         <v>28</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D295" t="s">
         <v>316</v>
@@ -14569,7 +14569,7 @@
         <v>321</v>
       </c>
       <c r="L295" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M295" s="10">
         <v>0</v>
@@ -14583,7 +14583,7 @@
         <v>28</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D296" t="s">
         <v>318</v>
@@ -14610,7 +14610,7 @@
         <v>322</v>
       </c>
       <c r="L296" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M296" s="10">
         <v>0</v>
@@ -14624,7 +14624,7 @@
         <v>28</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D297" t="s">
         <v>323</v>
@@ -14651,13 +14651,13 @@
         <v>327</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M297" s="10">
         <v>25</v>
       </c>
       <c r="N297" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O297" s="10">
         <v>25</v>
@@ -14671,7 +14671,7 @@
         <v>28</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D298" t="s">
         <v>325</v>
@@ -14698,13 +14698,13 @@
         <v>328</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M298" s="11">
         <v>30</v>
       </c>
       <c r="N298" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O298" s="11"/>
     </row>
@@ -14716,7 +14716,7 @@
         <v>28</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D299" t="s">
         <v>329</v>
@@ -14743,7 +14743,7 @@
         <v>331</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M299" s="10">
         <v>75</v>
@@ -14757,7 +14757,7 @@
         <v>28</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D300" t="s">
         <v>332</v>
@@ -14784,7 +14784,7 @@
         <v>105</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M300" s="10">
         <v>0</v>
@@ -14798,10 +14798,10 @@
         <v>28</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D301" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E301" s="1">
         <v>1</v>
@@ -14825,7 +14825,7 @@
         <v>105</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M301" s="10">
         <v>25</v>
@@ -14839,10 +14839,10 @@
         <v>28</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D302" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E302" s="1">
         <v>1</v>
@@ -14866,7 +14866,7 @@
         <v>105</v>
       </c>
       <c r="L302" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M302" s="10">
         <v>25</v>
@@ -14880,10 +14880,10 @@
         <v>28</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D303" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E303" s="1">
         <v>1</v>
@@ -14907,7 +14907,7 @@
         <v>105</v>
       </c>
       <c r="L303" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M303" s="10">
         <v>10</v>
@@ -14921,10 +14921,10 @@
         <v>28</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D304" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E304" s="1">
         <v>1</v>
@@ -14948,7 +14948,7 @@
         <v>105</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M304" s="10">
         <v>10</v>
@@ -14962,10 +14962,10 @@
         <v>28</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D305" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E305" s="1">
         <v>1</v>
@@ -14989,7 +14989,7 @@
         <v>105</v>
       </c>
       <c r="L305" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M305" s="10">
         <v>10</v>
@@ -15003,10 +15003,10 @@
         <v>28</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D306" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E306" s="1">
         <v>1</v>
@@ -15030,7 +15030,7 @@
         <v>105</v>
       </c>
       <c r="L306" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M306" s="10">
         <v>25</v>
@@ -15044,10 +15044,10 @@
         <v>28</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D307" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E307" s="1">
         <v>1</v>
@@ -15071,7 +15071,7 @@
         <v>105</v>
       </c>
       <c r="L307" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M307" s="10">
         <v>0</v>
@@ -15085,10 +15085,10 @@
         <v>28</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E308" s="1">
         <v>1</v>
@@ -15112,7 +15112,7 @@
         <v>105</v>
       </c>
       <c r="L308" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M308" s="10">
         <v>0</v>
@@ -15126,10 +15126,10 @@
         <v>28</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E309" s="1">
         <v>2</v>
@@ -15153,7 +15153,7 @@
         <v>105</v>
       </c>
       <c r="L309" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M309" s="10">
         <v>0</v>
@@ -15167,7 +15167,7 @@
         <v>28</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D310" t="s">
         <v>334</v>
@@ -15194,7 +15194,7 @@
         <v>105</v>
       </c>
       <c r="L310" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M310" s="10">
         <v>75</v>
@@ -15208,7 +15208,7 @@
         <v>28</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D311" t="s">
         <v>336</v>
@@ -15235,7 +15235,7 @@
         <v>105</v>
       </c>
       <c r="L311" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M311" s="10">
         <v>75</v>
@@ -15249,7 +15249,7 @@
         <v>338</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D312" t="s">
         <v>421</v>
@@ -15276,7 +15276,7 @@
         <v>105</v>
       </c>
       <c r="L312" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M312" s="10">
         <v>0</v>
@@ -15290,7 +15290,7 @@
         <v>340</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D313" t="s">
         <v>422</v>
@@ -15317,7 +15317,7 @@
         <v>105</v>
       </c>
       <c r="L313" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M313" s="10">
         <v>10</v>
@@ -15331,7 +15331,7 @@
         <v>340</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D314" t="s">
         <v>422</v>
@@ -15358,7 +15358,7 @@
         <v>105</v>
       </c>
       <c r="L314" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M314" s="10">
         <v>10</v>
@@ -15372,7 +15372,7 @@
         <v>340</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D315" t="s">
         <v>422</v>
@@ -15399,7 +15399,7 @@
         <v>105</v>
       </c>
       <c r="L315" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M315" s="10">
         <v>10</v>
@@ -15413,7 +15413,7 @@
         <v>340</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D316" t="s">
         <v>341</v>
@@ -15440,7 +15440,7 @@
         <v>105</v>
       </c>
       <c r="L316" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M316" s="10">
         <v>0</v>
@@ -15454,7 +15454,7 @@
         <v>340</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D317" t="s">
         <v>343</v>
@@ -15481,7 +15481,7 @@
         <v>105</v>
       </c>
       <c r="L317" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M317" s="10">
         <v>25</v>

--- a/src/Send-off.xlsx
+++ b/src/Send-off.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUISRICARDOGerbelli\Documents\GitHub\send-off\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BFA54B-15E2-4D5C-8B63-ED81F53C13EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667B16CF-52D2-47AA-9887-615D3EE76D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73E549BB-D9AE-42B8-B9EF-C186AC431F7B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Send-off" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Send-off'!$A$1:$O$317</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Send-off'!$A$1:$P$317</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="632">
   <si>
     <t>Quarto 1</t>
   </si>
@@ -1920,6 +1920,18 @@
   </si>
   <si>
     <t>cr</t>
+  </si>
+  <si>
+    <t>Adesivo descolado</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Imediata</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2376,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA26E52-B7FB-4B01-98F3-C24F63094090}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O317"/>
+  <dimension ref="A1:P317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2381,11 +2393,12 @@
     <col min="11" max="11" width="35.140625" style="6" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="10" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>582</v>
       </c>
@@ -2425,14 +2438,17 @@
       <c r="M1" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2472,12 +2488,15 @@
       <c r="M2" s="9">
         <v>350</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
+        <v>631</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2517,8 +2536,11 @@
       <c r="M3" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2558,8 +2580,11 @@
       <c r="M4" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2599,8 +2624,11 @@
       <c r="M5" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2640,8 +2668,11 @@
       <c r="M6" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2681,8 +2712,11 @@
       <c r="M7" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2722,8 +2756,11 @@
       <c r="M8" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2763,8 +2800,11 @@
       <c r="M9" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>524</v>
       </c>
@@ -2804,8 +2844,11 @@
       <c r="M10" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>525</v>
       </c>
@@ -2845,8 +2888,11 @@
       <c r="M11" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>526</v>
       </c>
@@ -2886,8 +2932,11 @@
       <c r="M12" s="10">
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>527</v>
       </c>
@@ -2927,8 +2976,11 @@
       <c r="M13" s="10">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>528</v>
       </c>
@@ -2968,8 +3020,11 @@
       <c r="M14" s="10">
         <v>150</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>529</v>
       </c>
@@ -3009,8 +3064,11 @@
       <c r="M15" s="10">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>530</v>
       </c>
@@ -3050,8 +3108,11 @@
       <c r="M16" s="10">
         <v>150</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3091,8 +3152,11 @@
       <c r="M17" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3132,8 +3196,11 @@
       <c r="M18" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -3173,8 +3240,11 @@
       <c r="M19" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -3214,8 +3284,11 @@
       <c r="M20" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>531</v>
       </c>
@@ -3255,8 +3328,11 @@
       <c r="M21" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>532</v>
       </c>
@@ -3296,8 +3372,11 @@
       <c r="M22" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3337,8 +3416,11 @@
       <c r="M23" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3378,8 +3460,11 @@
       <c r="M24" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3419,8 +3504,11 @@
       <c r="M25" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3460,8 +3548,11 @@
       <c r="M26" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -3501,8 +3592,11 @@
       <c r="M27" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -3542,8 +3636,11 @@
       <c r="M28" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -3583,8 +3680,11 @@
       <c r="M29" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>533</v>
       </c>
@@ -3624,8 +3724,11 @@
       <c r="M30" s="10">
         <v>300</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>534</v>
       </c>
@@ -3665,8 +3768,11 @@
       <c r="M31" s="10">
         <v>200</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -3706,8 +3812,11 @@
       <c r="M32" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -3747,8 +3856,11 @@
       <c r="M33" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -3788,8 +3900,11 @@
       <c r="M34" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -3829,8 +3944,11 @@
       <c r="M35" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -3870,8 +3988,11 @@
       <c r="M36" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -3911,8 +4032,11 @@
       <c r="M37" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -3952,8 +4076,11 @@
       <c r="M38" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -3993,8 +4120,11 @@
       <c r="M39" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4164,11 @@
       <c r="M40" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -4075,8 +4208,11 @@
       <c r="M41" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -4116,8 +4252,11 @@
       <c r="M42" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -4157,8 +4296,11 @@
       <c r="M43" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -4198,8 +4340,11 @@
       <c r="M44" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -4239,8 +4384,11 @@
       <c r="M45" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -4280,8 +4428,11 @@
       <c r="M46" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -4321,8 +4472,11 @@
       <c r="M47" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -4362,8 +4516,11 @@
       <c r="M48" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -4403,8 +4560,11 @@
       <c r="M49" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -4444,8 +4604,11 @@
       <c r="M50" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>535</v>
       </c>
@@ -4485,8 +4648,11 @@
       <c r="M51" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>536</v>
       </c>
@@ -4526,8 +4692,11 @@
       <c r="M52" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -4567,8 +4736,11 @@
       <c r="M53" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -4608,8 +4780,11 @@
       <c r="M54" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>537</v>
       </c>
@@ -4649,8 +4824,11 @@
       <c r="M55" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>538</v>
       </c>
@@ -4690,8 +4868,11 @@
       <c r="M56" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>539</v>
       </c>
@@ -4731,8 +4912,11 @@
       <c r="M57" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>540</v>
       </c>
@@ -4772,8 +4956,11 @@
       <c r="M58" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>541</v>
       </c>
@@ -4813,8 +5000,11 @@
       <c r="M59" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>542</v>
       </c>
@@ -4854,8 +5044,11 @@
       <c r="M60" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -4895,8 +5088,11 @@
       <c r="M61" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -4936,8 +5132,11 @@
       <c r="M62" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -4977,8 +5176,11 @@
       <c r="M63" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -5010,7 +5212,7 @@
         <v>2</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>105</v>
+        <v>628</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>593</v>
@@ -5018,8 +5220,11 @@
       <c r="M64" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N64" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>91</v>
       </c>
@@ -5059,8 +5264,11 @@
       <c r="M65" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N65" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -5100,8 +5308,11 @@
       <c r="M66" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N66" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>94</v>
       </c>
@@ -5141,8 +5352,11 @@
       <c r="M67" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N67" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>95</v>
       </c>
@@ -5182,8 +5396,11 @@
       <c r="M68" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N68" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -5223,8 +5440,11 @@
       <c r="M69" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N69" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>99</v>
       </c>
@@ -5264,14 +5484,17 @@
       <c r="M70" s="10">
         <v>50</v>
       </c>
-      <c r="N70" s="10" t="s">
+      <c r="N70" t="s">
+        <v>631</v>
+      </c>
+      <c r="O70" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="O70" s="10">
+      <c r="P70" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>101</v>
       </c>
@@ -5311,8 +5534,11 @@
       <c r="M71" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N71" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -5352,8 +5578,11 @@
       <c r="M72" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N72" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>104</v>
       </c>
@@ -5393,8 +5622,11 @@
       <c r="M73" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N73" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -5434,8 +5666,11 @@
       <c r="M74" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N74" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -5475,8 +5710,11 @@
       <c r="M75" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N75" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>111</v>
       </c>
@@ -5516,8 +5754,11 @@
       <c r="M76" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N76" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>113</v>
       </c>
@@ -5557,8 +5798,11 @@
       <c r="M77" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N77" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>115</v>
       </c>
@@ -5598,8 +5842,11 @@
       <c r="M78" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N78" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -5639,8 +5886,11 @@
       <c r="M79" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N79" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>119</v>
       </c>
@@ -5680,8 +5930,11 @@
       <c r="M80" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N80" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>543</v>
       </c>
@@ -5721,8 +5974,11 @@
       <c r="M81" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N81" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>544</v>
       </c>
@@ -5762,8 +6018,11 @@
       <c r="M82" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N82" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>545</v>
       </c>
@@ -5803,8 +6062,11 @@
       <c r="M83" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N83" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>121</v>
       </c>
@@ -5844,8 +6106,11 @@
       <c r="M84" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N84" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>123</v>
       </c>
@@ -5885,8 +6150,11 @@
       <c r="M85" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N85" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>125</v>
       </c>
@@ -5926,8 +6194,11 @@
       <c r="M86" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N86" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>128</v>
       </c>
@@ -5967,8 +6238,11 @@
       <c r="M87" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N87" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>131</v>
       </c>
@@ -6008,8 +6282,11 @@
       <c r="M88" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N88" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>133</v>
       </c>
@@ -6049,8 +6326,11 @@
       <c r="M89" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N89" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>135</v>
       </c>
@@ -6090,8 +6370,11 @@
       <c r="M90" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N90" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>137</v>
       </c>
@@ -6131,8 +6414,11 @@
       <c r="M91" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N91" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>139</v>
       </c>
@@ -6172,8 +6458,11 @@
       <c r="M92" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N92" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>141</v>
       </c>
@@ -6213,12 +6502,15 @@
       <c r="M93" s="11">
         <v>230</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="N93" t="s">
+        <v>630</v>
+      </c>
+      <c r="O93" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="O93" s="11"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P93" s="11"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>143</v>
       </c>
@@ -6258,8 +6550,11 @@
       <c r="M94" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N94" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>145</v>
       </c>
@@ -6299,12 +6594,15 @@
       <c r="M95" s="11">
         <v>0</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="N95" t="s">
+        <v>631</v>
+      </c>
+      <c r="O95" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="O95" s="11"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P95" s="11"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>147</v>
       </c>
@@ -6344,8 +6642,11 @@
       <c r="M96" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N96" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>149</v>
       </c>
@@ -6385,14 +6686,17 @@
       <c r="M97" s="10">
         <v>0</v>
       </c>
-      <c r="N97" s="1" t="s">
+      <c r="N97" t="s">
+        <v>631</v>
+      </c>
+      <c r="O97" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="O97" s="10">
+      <c r="P97" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>151</v>
       </c>
@@ -6432,8 +6736,11 @@
       <c r="M98" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N98" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>152</v>
       </c>
@@ -6473,8 +6780,11 @@
       <c r="M99" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N99" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>154</v>
       </c>
@@ -6514,14 +6824,17 @@
       <c r="M100" s="10">
         <v>25</v>
       </c>
-      <c r="N100" s="1" t="s">
+      <c r="N100" t="s">
+        <v>631</v>
+      </c>
+      <c r="O100" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="O100" s="10">
+      <c r="P100" s="10">
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>156</v>
       </c>
@@ -6561,8 +6874,11 @@
       <c r="M101" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N101" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>157</v>
       </c>
@@ -6602,8 +6918,11 @@
       <c r="M102" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N102" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>159</v>
       </c>
@@ -6643,8 +6962,11 @@
       <c r="M103" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N103" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>546</v>
       </c>
@@ -6684,8 +7006,11 @@
       <c r="M104" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N104" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>547</v>
       </c>
@@ -6725,14 +7050,17 @@
       <c r="M105" s="10">
         <v>0</v>
       </c>
-      <c r="N105" s="1" t="s">
+      <c r="N105" t="s">
+        <v>631</v>
+      </c>
+      <c r="O105" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="O105" s="10">
+      <c r="P105" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>160</v>
       </c>
@@ -6772,8 +7100,11 @@
       <c r="M106" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N106" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>161</v>
       </c>
@@ -6813,8 +7144,11 @@
       <c r="M107" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N107" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>162</v>
       </c>
@@ -6854,12 +7188,15 @@
       <c r="M108" s="11">
         <v>0</v>
       </c>
-      <c r="N108" s="1" t="s">
+      <c r="N108" t="s">
+        <v>631</v>
+      </c>
+      <c r="O108" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="O108" s="11"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P108" s="11"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>163</v>
       </c>
@@ -6899,8 +7236,11 @@
       <c r="M109" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N109" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>164</v>
       </c>
@@ -6940,8 +7280,11 @@
       <c r="M110" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N110" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>165</v>
       </c>
@@ -6981,8 +7324,11 @@
       <c r="M111" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N111" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>166</v>
       </c>
@@ -7022,8 +7368,11 @@
       <c r="M112" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>167</v>
       </c>
@@ -7063,8 +7412,11 @@
       <c r="M113" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>548</v>
       </c>
@@ -7104,8 +7456,11 @@
       <c r="M114" s="10">
         <v>75</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>549</v>
       </c>
@@ -7145,8 +7500,11 @@
       <c r="M115" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N115" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>550</v>
       </c>
@@ -7186,8 +7544,11 @@
       <c r="M116" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>551</v>
       </c>
@@ -7227,8 +7588,11 @@
       <c r="M117" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>552</v>
       </c>
@@ -7268,8 +7632,11 @@
       <c r="M118" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>553</v>
       </c>
@@ -7309,8 +7676,11 @@
       <c r="M119" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N119" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>554</v>
       </c>
@@ -7350,8 +7720,11 @@
       <c r="M120" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>555</v>
       </c>
@@ -7391,8 +7764,11 @@
       <c r="M121" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N121" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>169</v>
       </c>
@@ -7432,8 +7808,11 @@
       <c r="M122" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N122" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>559</v>
       </c>
@@ -7473,8 +7852,11 @@
       <c r="M123" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N123" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>560</v>
       </c>
@@ -7514,8 +7896,11 @@
       <c r="M124" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N124" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>171</v>
       </c>
@@ -7555,8 +7940,11 @@
       <c r="M125" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N125" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>556</v>
       </c>
@@ -7596,8 +7984,11 @@
       <c r="M126" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N126" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>557</v>
       </c>
@@ -7637,8 +8028,11 @@
       <c r="M127" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N127" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>558</v>
       </c>
@@ -7678,8 +8072,11 @@
       <c r="M128" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N128" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>172</v>
       </c>
@@ -7719,8 +8116,11 @@
       <c r="M129" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N129" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>175</v>
       </c>
@@ -7760,8 +8160,11 @@
       <c r="M130" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N130" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>177</v>
       </c>
@@ -7801,8 +8204,11 @@
       <c r="M131" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N131" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>180</v>
       </c>
@@ -7842,8 +8248,11 @@
       <c r="M132" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N132" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>182</v>
       </c>
@@ -7883,8 +8292,11 @@
       <c r="M133" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N133" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>184</v>
       </c>
@@ -7924,14 +8336,17 @@
       <c r="M134" s="10">
         <v>250</v>
       </c>
-      <c r="N134" s="1" t="s">
+      <c r="N134" t="s">
+        <v>631</v>
+      </c>
+      <c r="O134" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="O134" s="10">
+      <c r="P134" s="10">
         <v>250</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>423</v>
       </c>
@@ -7971,8 +8386,11 @@
       <c r="M135" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N135" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>424</v>
       </c>
@@ -8012,8 +8430,11 @@
       <c r="M136" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N136" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>186</v>
       </c>
@@ -8053,8 +8474,11 @@
       <c r="M137" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N137" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>189</v>
       </c>
@@ -8094,8 +8518,11 @@
       <c r="M138" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N138" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>190</v>
       </c>
@@ -8135,8 +8562,11 @@
       <c r="M139" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N139" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>192</v>
       </c>
@@ -8176,8 +8606,11 @@
       <c r="M140" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N140" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>194</v>
       </c>
@@ -8217,8 +8650,11 @@
       <c r="M141" s="10">
         <v>200</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N141" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>196</v>
       </c>
@@ -8258,8 +8694,11 @@
       <c r="M142" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N142" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>197</v>
       </c>
@@ -8299,8 +8738,11 @@
       <c r="M143" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N143" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>199</v>
       </c>
@@ -8340,8 +8782,11 @@
       <c r="M144" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N144" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>200</v>
       </c>
@@ -8381,8 +8826,11 @@
       <c r="M145" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N145" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>202</v>
       </c>
@@ -8422,14 +8870,17 @@
       <c r="M146" s="10">
         <v>25</v>
       </c>
-      <c r="N146" s="1" t="s">
+      <c r="N146" t="s">
+        <v>631</v>
+      </c>
+      <c r="O146" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="O146" s="10">
+      <c r="P146" s="10">
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>204</v>
       </c>
@@ -8469,8 +8920,11 @@
       <c r="M147" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N147" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>425</v>
       </c>
@@ -8510,8 +8964,11 @@
       <c r="M148" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N148" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>426</v>
       </c>
@@ -8551,8 +9008,11 @@
       <c r="M149" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N149" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>427</v>
       </c>
@@ -8592,8 +9052,11 @@
       <c r="M150" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N150" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>428</v>
       </c>
@@ -8633,8 +9096,11 @@
       <c r="M151" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N151" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>206</v>
       </c>
@@ -8674,8 +9140,11 @@
       <c r="M152" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N152" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>429</v>
       </c>
@@ -8715,8 +9184,11 @@
       <c r="M153" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N153" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>430</v>
       </c>
@@ -8756,8 +9228,11 @@
       <c r="M154" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N154" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>431</v>
       </c>
@@ -8797,8 +9272,11 @@
       <c r="M155" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N155" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>432</v>
       </c>
@@ -8838,8 +9316,11 @@
       <c r="M156" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N156" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>433</v>
       </c>
@@ -8879,8 +9360,11 @@
       <c r="M157" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N157" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>434</v>
       </c>
@@ -8920,8 +9404,11 @@
       <c r="M158" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N158" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>435</v>
       </c>
@@ -8961,8 +9448,11 @@
       <c r="M159" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N159" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>436</v>
       </c>
@@ -9002,8 +9492,11 @@
       <c r="M160" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N160" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>437</v>
       </c>
@@ -9043,8 +9536,11 @@
       <c r="M161" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N161" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>438</v>
       </c>
@@ -9084,8 +9580,11 @@
       <c r="M162" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N162" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>439</v>
       </c>
@@ -9125,8 +9624,11 @@
       <c r="M163" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N163" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>440</v>
       </c>
@@ -9166,8 +9668,11 @@
       <c r="M164" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N164" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>441</v>
       </c>
@@ -9207,8 +9712,11 @@
       <c r="M165" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N165" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>442</v>
       </c>
@@ -9248,8 +9756,11 @@
       <c r="M166" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N166" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>443</v>
       </c>
@@ -9289,8 +9800,11 @@
       <c r="M167" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N167" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>444</v>
       </c>
@@ -9330,8 +9844,11 @@
       <c r="M168" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N168" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>445</v>
       </c>
@@ -9371,8 +9888,11 @@
       <c r="M169" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N169" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>446</v>
       </c>
@@ -9412,8 +9932,11 @@
       <c r="M170" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N170" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>447</v>
       </c>
@@ -9453,8 +9976,11 @@
       <c r="M171" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N171" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>448</v>
       </c>
@@ -9494,8 +10020,11 @@
       <c r="M172" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N172" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>449</v>
       </c>
@@ -9535,8 +10064,11 @@
       <c r="M173" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N173" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>450</v>
       </c>
@@ -9576,8 +10108,11 @@
       <c r="M174" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N174" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>451</v>
       </c>
@@ -9617,8 +10152,11 @@
       <c r="M175" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N175" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>452</v>
       </c>
@@ -9658,8 +10196,11 @@
       <c r="M176" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N176" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>453</v>
       </c>
@@ -9699,8 +10240,11 @@
       <c r="M177" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N177" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>208</v>
       </c>
@@ -9740,8 +10284,11 @@
       <c r="M178" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N178" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>454</v>
       </c>
@@ -9781,8 +10328,11 @@
       <c r="M179" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N179" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>455</v>
       </c>
@@ -9822,8 +10372,11 @@
       <c r="M180" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N180" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>456</v>
       </c>
@@ -9863,8 +10416,11 @@
       <c r="M181" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N181" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>457</v>
       </c>
@@ -9904,8 +10460,11 @@
       <c r="M182" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N182" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>458</v>
       </c>
@@ -9945,8 +10504,11 @@
       <c r="M183" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N183" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>210</v>
       </c>
@@ -9986,8 +10548,11 @@
       <c r="M184" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N184" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>212</v>
       </c>
@@ -10027,8 +10592,11 @@
       <c r="M185" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N185" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>462</v>
       </c>
@@ -10068,8 +10636,11 @@
       <c r="M186" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N186" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>463</v>
       </c>
@@ -10109,8 +10680,11 @@
       <c r="M187" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N187" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>214</v>
       </c>
@@ -10150,8 +10724,11 @@
       <c r="M188" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N188" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>215</v>
       </c>
@@ -10191,8 +10768,11 @@
       <c r="M189" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N189" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>217</v>
       </c>
@@ -10232,8 +10812,11 @@
       <c r="M190" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N190" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>218</v>
       </c>
@@ -10273,8 +10856,11 @@
       <c r="M191" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N191" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>220</v>
       </c>
@@ -10314,8 +10900,11 @@
       <c r="M192" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N192" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>221</v>
       </c>
@@ -10355,8 +10944,11 @@
       <c r="M193" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N193" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>223</v>
       </c>
@@ -10396,8 +10988,11 @@
       <c r="M194" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N194" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>225</v>
       </c>
@@ -10437,8 +11032,11 @@
       <c r="M195" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N195" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>227</v>
       </c>
@@ -10478,8 +11076,11 @@
       <c r="M196" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N196" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>229</v>
       </c>
@@ -10519,8 +11120,11 @@
       <c r="M197" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N197" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>231</v>
       </c>
@@ -10560,8 +11164,11 @@
       <c r="M198" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N198" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>459</v>
       </c>
@@ -10601,8 +11208,11 @@
       <c r="M199" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N199" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>460</v>
       </c>
@@ -10642,8 +11252,11 @@
       <c r="M200" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N200" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>461</v>
       </c>
@@ -10683,8 +11296,11 @@
       <c r="M201" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N201" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>232</v>
       </c>
@@ -10724,8 +11340,11 @@
       <c r="M202" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N202" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>234</v>
       </c>
@@ -10765,8 +11384,11 @@
       <c r="M203" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N203" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>464</v>
       </c>
@@ -10806,8 +11428,11 @@
       <c r="M204" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N204" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>465</v>
       </c>
@@ -10847,8 +11472,11 @@
       <c r="M205" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N205" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>466</v>
       </c>
@@ -10888,8 +11516,11 @@
       <c r="M206" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N206" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>467</v>
       </c>
@@ -10929,8 +11560,11 @@
       <c r="M207" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N207" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>468</v>
       </c>
@@ -10970,8 +11604,11 @@
       <c r="M208" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N208" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>469</v>
       </c>
@@ -11011,8 +11648,11 @@
       <c r="M209" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N209" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>470</v>
       </c>
@@ -11052,8 +11692,11 @@
       <c r="M210" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N210" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>471</v>
       </c>
@@ -11093,8 +11736,11 @@
       <c r="M211" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N211" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>236</v>
       </c>
@@ -11134,8 +11780,11 @@
       <c r="M212" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N212" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>237</v>
       </c>
@@ -11175,8 +11824,11 @@
       <c r="M213" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N213" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>239</v>
       </c>
@@ -11216,8 +11868,11 @@
       <c r="M214" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N214" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>240</v>
       </c>
@@ -11257,8 +11912,11 @@
       <c r="M215" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>243</v>
       </c>
@@ -11298,8 +11956,11 @@
       <c r="M216" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N216" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>245</v>
       </c>
@@ -11339,8 +12000,11 @@
       <c r="M217" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N217" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>472</v>
       </c>
@@ -11380,8 +12044,11 @@
       <c r="M218" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N218" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>473</v>
       </c>
@@ -11421,8 +12088,11 @@
       <c r="M219" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N219" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>474</v>
       </c>
@@ -11462,8 +12132,11 @@
       <c r="M220" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N220" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>475</v>
       </c>
@@ -11503,8 +12176,11 @@
       <c r="M221" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N221" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>247</v>
       </c>
@@ -11544,12 +12220,15 @@
       <c r="M222" s="9">
         <v>40</v>
       </c>
-      <c r="N222" s="1" t="s">
+      <c r="N222" t="s">
+        <v>630</v>
+      </c>
+      <c r="O222" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="O222" s="9"/>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P222" s="9"/>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>249</v>
       </c>
@@ -11589,8 +12268,11 @@
       <c r="M223" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N223" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>251</v>
       </c>
@@ -11630,8 +12312,11 @@
       <c r="M224" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N224" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>253</v>
       </c>
@@ -11671,14 +12356,17 @@
       <c r="M225" s="10">
         <v>100</v>
       </c>
-      <c r="N225" s="1" t="s">
+      <c r="N225" t="s">
+        <v>630</v>
+      </c>
+      <c r="O225" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="O225" s="10">
+      <c r="P225" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>476</v>
       </c>
@@ -11718,8 +12406,11 @@
       <c r="M226" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N226" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>477</v>
       </c>
@@ -11759,8 +12450,11 @@
       <c r="M227" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N227" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>478</v>
       </c>
@@ -11800,8 +12494,11 @@
       <c r="M228" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N228" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>479</v>
       </c>
@@ -11841,8 +12538,11 @@
       <c r="M229" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N229" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>256</v>
       </c>
@@ -11882,8 +12582,11 @@
       <c r="M230" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N230" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>258</v>
       </c>
@@ -11923,8 +12626,11 @@
       <c r="M231" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N231" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>259</v>
       </c>
@@ -11964,8 +12670,11 @@
       <c r="M232" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N232" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>261</v>
       </c>
@@ -12005,8 +12714,11 @@
       <c r="M233" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N233" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>480</v>
       </c>
@@ -12046,8 +12758,11 @@
       <c r="M234" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N234" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>481</v>
       </c>
@@ -12087,8 +12802,11 @@
       <c r="M235" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N235" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>482</v>
       </c>
@@ -12128,8 +12846,11 @@
       <c r="M236" s="10">
         <v>75</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N236" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>483</v>
       </c>
@@ -12169,8 +12890,11 @@
       <c r="M237" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N237" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>484</v>
       </c>
@@ -12210,8 +12934,11 @@
       <c r="M238" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N238" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>485</v>
       </c>
@@ -12251,8 +12978,11 @@
       <c r="M239" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N239" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>486</v>
       </c>
@@ -12292,8 +13022,11 @@
       <c r="M240" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N240" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>487</v>
       </c>
@@ -12333,8 +13066,11 @@
       <c r="M241" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N241" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>263</v>
       </c>
@@ -12374,8 +13110,11 @@
       <c r="M242" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N242" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>488</v>
       </c>
@@ -12415,8 +13154,11 @@
       <c r="M243" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N243" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>489</v>
       </c>
@@ -12456,8 +13198,11 @@
       <c r="M244" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N244" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>490</v>
       </c>
@@ -12497,8 +13242,11 @@
       <c r="M245" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N245" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>264</v>
       </c>
@@ -12538,8 +13286,11 @@
       <c r="M246" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N246" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>491</v>
       </c>
@@ -12579,8 +13330,11 @@
       <c r="M247" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N247" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>492</v>
       </c>
@@ -12620,8 +13374,11 @@
       <c r="M248" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N248" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>493</v>
       </c>
@@ -12661,8 +13418,11 @@
       <c r="M249" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N249" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>494</v>
       </c>
@@ -12702,8 +13462,11 @@
       <c r="M250" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N250" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>495</v>
       </c>
@@ -12743,8 +13506,11 @@
       <c r="M251" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N251" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>496</v>
       </c>
@@ -12784,8 +13550,11 @@
       <c r="M252" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N252" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>266</v>
       </c>
@@ -12825,8 +13594,11 @@
       <c r="M253" s="10">
         <v>75</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N253" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>267</v>
       </c>
@@ -12866,8 +13638,11 @@
       <c r="M254" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N254" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>269</v>
       </c>
@@ -12907,8 +13682,11 @@
       <c r="M255" s="10">
         <v>75</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N255" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>271</v>
       </c>
@@ -12948,8 +13726,11 @@
       <c r="M256" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N256" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -12989,12 +13770,15 @@
       <c r="M257" s="11">
         <v>60</v>
       </c>
-      <c r="N257" s="1" t="s">
+      <c r="N257" t="s">
+        <v>631</v>
+      </c>
+      <c r="O257" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="O257" s="11"/>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P257" s="11"/>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>276</v>
       </c>
@@ -13034,8 +13818,11 @@
       <c r="M258" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N258" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>497</v>
       </c>
@@ -13075,8 +13862,11 @@
       <c r="M259" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N259" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>498</v>
       </c>
@@ -13116,8 +13906,11 @@
       <c r="M260" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N260" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>278</v>
       </c>
@@ -13157,12 +13950,15 @@
       <c r="M261" s="9">
         <v>50</v>
       </c>
-      <c r="N261" s="1" t="s">
+      <c r="N261" t="s">
+        <v>631</v>
+      </c>
+      <c r="O261" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="O261" s="9"/>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P261" s="9"/>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>280</v>
       </c>
@@ -13202,8 +13998,11 @@
       <c r="M262" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N262" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>282</v>
       </c>
@@ -13243,8 +14042,11 @@
       <c r="M263" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N263" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>284</v>
       </c>
@@ -13284,8 +14086,11 @@
       <c r="M264" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N264" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>499</v>
       </c>
@@ -13325,8 +14130,11 @@
       <c r="M265" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N265" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>500</v>
       </c>
@@ -13366,8 +14174,11 @@
       <c r="M266" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N266" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>286</v>
       </c>
@@ -13407,8 +14218,11 @@
       <c r="M267" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N267" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>288</v>
       </c>
@@ -13448,8 +14262,11 @@
       <c r="M268" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N268" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>290</v>
       </c>
@@ -13489,8 +14306,11 @@
       <c r="M269" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N269" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>509</v>
       </c>
@@ -13530,8 +14350,11 @@
       <c r="M270" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N270" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>510</v>
       </c>
@@ -13571,8 +14394,11 @@
       <c r="M271" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N271" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>511</v>
       </c>
@@ -13612,8 +14438,11 @@
       <c r="M272" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N272" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>501</v>
       </c>
@@ -13653,8 +14482,11 @@
       <c r="M273" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N273" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>502</v>
       </c>
@@ -13694,8 +14526,11 @@
       <c r="M274" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N274" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>291</v>
       </c>
@@ -13735,8 +14570,11 @@
       <c r="M275" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N275" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>503</v>
       </c>
@@ -13776,8 +14614,11 @@
       <c r="M276" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N276" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>504</v>
       </c>
@@ -13817,8 +14658,11 @@
       <c r="M277" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N277" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>505</v>
       </c>
@@ -13858,8 +14702,11 @@
       <c r="M278" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N278" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>506</v>
       </c>
@@ -13899,8 +14746,11 @@
       <c r="M279" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N279" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>507</v>
       </c>
@@ -13940,8 +14790,11 @@
       <c r="M280" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N280" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>508</v>
       </c>
@@ -13981,8 +14834,11 @@
       <c r="M281" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N281" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>293</v>
       </c>
@@ -14022,8 +14878,11 @@
       <c r="M282" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N282" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>295</v>
       </c>
@@ -14063,8 +14922,11 @@
       <c r="M283" s="10">
         <v>300</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N283" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>297</v>
       </c>
@@ -14104,11 +14966,14 @@
       <c r="M284" s="10">
         <v>75</v>
       </c>
-      <c r="N284" s="1" t="s">
+      <c r="N284" t="s">
+        <v>630</v>
+      </c>
+      <c r="O284" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>299</v>
       </c>
@@ -14148,8 +15013,11 @@
       <c r="M285" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N285" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>301</v>
       </c>
@@ -14189,8 +15057,11 @@
       <c r="M286" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N286" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>302</v>
       </c>
@@ -14230,8 +15101,11 @@
       <c r="M287" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N287" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>304</v>
       </c>
@@ -14271,8 +15145,11 @@
       <c r="M288" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N288" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>306</v>
       </c>
@@ -14312,14 +15189,17 @@
       <c r="M289" s="10">
         <v>230</v>
       </c>
-      <c r="N289" s="1" t="s">
+      <c r="N289" t="s">
+        <v>631</v>
+      </c>
+      <c r="O289" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="O289" s="10">
+      <c r="P289" s="10">
         <v>230</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -14359,8 +15239,11 @@
       <c r="M290" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N290" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -14400,8 +15283,11 @@
       <c r="M291" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N291" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>311</v>
       </c>
@@ -14441,12 +15327,15 @@
       <c r="M292" s="11">
         <v>40</v>
       </c>
-      <c r="N292" s="1" t="s">
+      <c r="N292" t="s">
+        <v>630</v>
+      </c>
+      <c r="O292" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="O292" s="11"/>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P292" s="11"/>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>312</v>
       </c>
@@ -14486,14 +15375,17 @@
       <c r="M293" s="10">
         <v>215</v>
       </c>
-      <c r="N293" s="1" t="s">
+      <c r="N293" t="s">
+        <v>631</v>
+      </c>
+      <c r="O293" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="O293" s="10">
+      <c r="P293" s="10">
         <v>215</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>315</v>
       </c>
@@ -14533,8 +15425,11 @@
       <c r="M294" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N294" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>317</v>
       </c>
@@ -14574,8 +15469,11 @@
       <c r="M295" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N295" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>319</v>
       </c>
@@ -14615,8 +15513,11 @@
       <c r="M296" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N296" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>324</v>
       </c>
@@ -14656,14 +15557,17 @@
       <c r="M297" s="10">
         <v>25</v>
       </c>
-      <c r="N297" s="1" t="s">
+      <c r="N297" t="s">
+        <v>631</v>
+      </c>
+      <c r="O297" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="O297" s="10">
+      <c r="P297" s="10">
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>326</v>
       </c>
@@ -14703,12 +15607,15 @@
       <c r="M298" s="11">
         <v>30</v>
       </c>
-      <c r="N298" s="1" t="s">
+      <c r="N298" t="s">
+        <v>631</v>
+      </c>
+      <c r="O298" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="O298" s="11"/>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P298" s="11"/>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>330</v>
       </c>
@@ -14748,8 +15655,11 @@
       <c r="M299" s="10">
         <v>75</v>
       </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N299" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>333</v>
       </c>
@@ -14789,8 +15699,11 @@
       <c r="M300" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N300" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>512</v>
       </c>
@@ -14830,8 +15743,11 @@
       <c r="M301" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N301" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>513</v>
       </c>
@@ -14871,8 +15787,11 @@
       <c r="M302" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N302" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>514</v>
       </c>
@@ -14912,8 +15831,11 @@
       <c r="M303" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N303" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>515</v>
       </c>
@@ -14953,8 +15875,11 @@
       <c r="M304" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N304" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>516</v>
       </c>
@@ -14994,8 +15919,11 @@
       <c r="M305" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N305" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>517</v>
       </c>
@@ -15035,8 +15963,11 @@
       <c r="M306" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N306" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>518</v>
       </c>
@@ -15076,8 +16007,11 @@
       <c r="M307" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N307" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>519</v>
       </c>
@@ -15117,8 +16051,11 @@
       <c r="M308" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N308" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>520</v>
       </c>
@@ -15158,8 +16095,11 @@
       <c r="M309" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N309" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -15199,8 +16139,11 @@
       <c r="M310" s="10">
         <v>75</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N310" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -15240,8 +16183,11 @@
       <c r="M311" s="10">
         <v>75</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N311" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>339</v>
       </c>
@@ -15281,8 +16227,11 @@
       <c r="M312" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N312" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>521</v>
       </c>
@@ -15322,8 +16271,11 @@
       <c r="M313" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N313" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>522</v>
       </c>
@@ -15363,8 +16315,11 @@
       <c r="M314" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N314" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>523</v>
       </c>
@@ -15404,8 +16359,11 @@
       <c r="M315" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N315" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -15445,8 +16403,11 @@
       <c r="M316" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N316" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>344</v>
       </c>
@@ -15485,6 +16446,9 @@
       </c>
       <c r="M317" s="10">
         <v>25</v>
+      </c>
+      <c r="N317" t="s">
+        <v>631</v>
       </c>
     </row>
   </sheetData>

--- a/src/Send-off.xlsx
+++ b/src/Send-off.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUISRICARDOGerbelli\Documents\GitHub\send-off\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDEB00B-A9C6-47FE-AD55-61BA9596B4C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A62D9D8-3B34-4651-A545-E535369D36FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73E549BB-D9AE-42B8-B9EF-C186AC431F7B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Send-off" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Send-off'!$A$1:$P$316</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Send-off'!$R$1:$AI$316</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="688">
   <si>
     <t>Quarto 1</t>
   </si>
@@ -2097,6 +2097,9 @@
   </si>
   <si>
     <t>Eficiência</t>
+  </si>
+  <si>
+    <t>Varella|Magaly/Zé Luiz</t>
   </si>
 </sst>
 </file>
@@ -2603,7 +2606,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA26E52-B7FB-4B01-98F3-C24F63094090}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AI321"/>
+  <dimension ref="A1:AI323"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13486,6 +13489,9 @@
       <c r="N93" t="s">
         <v>629</v>
       </c>
+      <c r="O93" s="1" t="s">
+        <v>636</v>
+      </c>
       <c r="R93" s="1" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -13552,7 +13558,7 @@
       </c>
       <c r="AH93" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>Reservado</v>
       </c>
       <c r="AI93" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32760,6 +32766,9 @@
       <c r="N257" t="s">
         <v>629</v>
       </c>
+      <c r="O257" s="1" t="s">
+        <v>635</v>
+      </c>
       <c r="R257" s="1" t="str">
         <f t="shared" si="31"/>
         <v>-</v>
@@ -32778,7 +32787,7 @@
       </c>
       <c r="V257" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>-</v>
+        <v>Reservado</v>
       </c>
       <c r="W257" s="1" t="str">
         <f t="shared" si="31"/>
@@ -39704,7 +39713,7 @@
         <v>629</v>
       </c>
       <c r="O316" s="1" t="s">
-        <v>649</v>
+        <v>687</v>
       </c>
       <c r="R316" s="1" t="str">
         <f t="shared" si="39"/>
@@ -39744,7 +39753,7 @@
       </c>
       <c r="AA316" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>Reservado</v>
+        <v>Fila</v>
       </c>
       <c r="AB316" s="1" t="str">
         <f t="shared" si="39"/>
@@ -39776,7 +39785,7 @@
       </c>
       <c r="AI316" s="1" t="str">
         <f t="shared" si="38"/>
-        <v>Fila</v>
+        <v>Reservado</v>
       </c>
     </row>
     <row r="317" spans="1:35" x14ac:dyDescent="0.25">
@@ -39841,7 +39850,7 @@
       </c>
       <c r="V319" s="1">
         <f t="shared" si="40"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W319" s="1">
         <f t="shared" si="40"/>
@@ -39861,7 +39870,7 @@
       </c>
       <c r="AA319" s="1">
         <f t="shared" si="40"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB319" s="1">
         <f t="shared" si="40"/>
@@ -39889,11 +39898,11 @@
       </c>
       <c r="AH319" s="1">
         <f t="shared" si="40"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI319" s="1">
         <f t="shared" si="40"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:35" x14ac:dyDescent="0.25">
@@ -39938,7 +39947,7 @@
       </c>
       <c r="AA320" s="1">
         <f t="shared" si="40"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB320" s="1">
         <f t="shared" si="40"/>
@@ -39970,7 +39979,7 @@
       </c>
       <c r="AI320" s="1">
         <f t="shared" si="40"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="321" spans="17:35" x14ac:dyDescent="0.25">
@@ -39995,7 +40004,7 @@
       </c>
       <c r="V321" s="12">
         <f t="shared" si="41"/>
-        <v>0.94117647058823528</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="W321" s="12">
         <f t="shared" si="41"/>
@@ -40015,7 +40024,7 @@
       </c>
       <c r="AA321" s="12">
         <f t="shared" si="41"/>
-        <v>0.64150943396226412</v>
+        <v>0.62264150943396224</v>
       </c>
       <c r="AB321" s="12">
         <f t="shared" si="41"/>
@@ -40043,11 +40052,165 @@
       </c>
       <c r="AH321" s="12">
         <f t="shared" si="41"/>
-        <v>0.8571428571428571</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AI321" s="12">
         <f t="shared" si="41"/>
-        <v>0.32142857142857145</v>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="322" spans="17:35" x14ac:dyDescent="0.25">
+      <c r="Q322" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="R322" s="10">
+        <f>SUMIF(R$2:R$316,$Q322,$M$2:$M$316)</f>
+        <v>255</v>
+      </c>
+      <c r="S322" s="10">
+        <f t="shared" ref="S322:AH323" si="42">SUMIF(S$2:S$316,$Q322,$M$2:$M$316)</f>
+        <v>375</v>
+      </c>
+      <c r="T322" s="10">
+        <f t="shared" si="42"/>
+        <v>210</v>
+      </c>
+      <c r="U322" s="10">
+        <f t="shared" si="42"/>
+        <v>110</v>
+      </c>
+      <c r="V322" s="10">
+        <f t="shared" si="42"/>
+        <v>470</v>
+      </c>
+      <c r="W322" s="10">
+        <f t="shared" si="42"/>
+        <v>500</v>
+      </c>
+      <c r="X322" s="10">
+        <f t="shared" si="42"/>
+        <v>50</v>
+      </c>
+      <c r="Y322" s="10">
+        <f t="shared" si="42"/>
+        <v>50</v>
+      </c>
+      <c r="Z322" s="10">
+        <f t="shared" si="42"/>
+        <v>50</v>
+      </c>
+      <c r="AA322" s="10">
+        <f t="shared" si="42"/>
+        <v>935</v>
+      </c>
+      <c r="AB322" s="10">
+        <f t="shared" si="42"/>
+        <v>345</v>
+      </c>
+      <c r="AC322" s="10">
+        <f t="shared" si="42"/>
+        <v>25</v>
+      </c>
+      <c r="AD322" s="10">
+        <f t="shared" si="42"/>
+        <v>75</v>
+      </c>
+      <c r="AE322" s="10">
+        <f t="shared" si="42"/>
+        <v>75</v>
+      </c>
+      <c r="AF322" s="10">
+        <f t="shared" si="42"/>
+        <v>70</v>
+      </c>
+      <c r="AG322" s="10">
+        <f t="shared" si="42"/>
+        <v>550</v>
+      </c>
+      <c r="AH322" s="10">
+        <f t="shared" si="42"/>
+        <v>415</v>
+      </c>
+      <c r="AI322" s="10">
+        <f t="shared" ref="AI322:AI323" si="43">SUMIF(AI$2:AI$316,$Q322,$M$2:$M$316)</f>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="323" spans="17:35" x14ac:dyDescent="0.25">
+      <c r="Q323" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="R323" s="10">
+        <f t="shared" ref="R323" si="44">SUMIF(R$2:R$316,$Q323,$M$2:$M$316)</f>
+        <v>205</v>
+      </c>
+      <c r="S323" s="10">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="T323" s="10">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U323" s="10">
+        <f t="shared" si="42"/>
+        <v>95</v>
+      </c>
+      <c r="V323" s="10">
+        <f t="shared" si="42"/>
+        <v>25</v>
+      </c>
+      <c r="W323" s="10">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="X323" s="10">
+        <f t="shared" si="42"/>
+        <v>50</v>
+      </c>
+      <c r="Y323" s="10">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="Z323" s="10">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AA323" s="10">
+        <f t="shared" si="42"/>
+        <v>685</v>
+      </c>
+      <c r="AB323" s="10">
+        <f t="shared" si="42"/>
+        <v>1010</v>
+      </c>
+      <c r="AC323" s="10">
+        <f t="shared" si="42"/>
+        <v>300</v>
+      </c>
+      <c r="AD323" s="10">
+        <f t="shared" si="42"/>
+        <v>25</v>
+      </c>
+      <c r="AE323" s="10">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AF323" s="10">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AG323" s="10">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AH323" s="10">
+        <f t="shared" si="42"/>
+        <v>20</v>
+      </c>
+      <c r="AI323" s="10">
+        <f t="shared" si="43"/>
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/src/Send-off.xlsx
+++ b/src/Send-off.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUISRICARDOGerbelli\Documents\GitHub\send-off\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE87B7A5-76EF-413C-8AF0-383DB4A29B6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69172E5F-7249-4600-BDEF-1AE58DFB8705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73E549BB-D9AE-42B8-B9EF-C186AC431F7B}"/>
   </bookViews>
@@ -1937,18 +1937,9 @@
     <t>Celina</t>
   </si>
   <si>
-    <t>Magaly/Zé Luiz</t>
-  </si>
-  <si>
     <t>Julia Cowboy</t>
   </si>
   <si>
-    <t>Helo/Vitao</t>
-  </si>
-  <si>
-    <t>Tato/Ca</t>
-  </si>
-  <si>
     <t>Jullie</t>
   </si>
   <si>
@@ -1970,114 +1961,27 @@
     <t>Aline|Celina</t>
   </si>
   <si>
-    <t>Catia|Magaly/Zé Luiz</t>
-  </si>
-  <si>
-    <t>Patê|Magaly/Zé Luiz</t>
-  </si>
-  <si>
-    <t>Helo/Vitao|Varella</t>
-  </si>
-  <si>
-    <t>Tato/Ca|Maira</t>
-  </si>
-  <si>
-    <t>Tato/Ca|Maira|Varella</t>
-  </si>
-  <si>
-    <t>Magaly/Zé Luiz|Varella</t>
-  </si>
-  <si>
     <t>Aline|Varella</t>
   </si>
   <si>
-    <t>Patê|Helo/Vitao|Maira|Varella</t>
-  </si>
-  <si>
-    <t>Magaly/Zé Luiz|Varella|Celina</t>
-  </si>
-  <si>
-    <t>Varella|Magaly/Zé Luiz|Aline</t>
-  </si>
-  <si>
     <t>Jullie|Celina</t>
   </si>
   <si>
-    <t>Varella|Magaly/Zé Luiz|Celina</t>
-  </si>
-  <si>
-    <t>Magaly/Zé Luiz|Aline</t>
-  </si>
-  <si>
-    <t>Magaly/Zé Luiz|Maira</t>
-  </si>
-  <si>
-    <t>Helo/Vitao|Magaly/Zé Luiz</t>
-  </si>
-  <si>
-    <t>Cecilia|Tato/Ca|Varella|Aline</t>
-  </si>
-  <si>
-    <t>Tato/Ca|Varella|Aline|Celina</t>
-  </si>
-  <si>
-    <t>Magaly/Zé Luiz|Varella|Aline|Celina</t>
-  </si>
-  <si>
-    <t>Magaly/Zé Luiz|Aline|Maira</t>
-  </si>
-  <si>
-    <t>Helo/Vitao|Julia Cowboy</t>
-  </si>
-  <si>
-    <t>Helo/Vitao|Magaly/Zé Luiz|Maira</t>
-  </si>
-  <si>
     <t>Roberto|Maira</t>
   </si>
   <si>
-    <t>Roberto|Magaly/Zé Luiz</t>
-  </si>
-  <si>
-    <t>Helo/Vitao|Varella|Aline</t>
-  </si>
-  <si>
     <t>Regina|Aline</t>
   </si>
   <si>
-    <t>Jullie|Magaly/Zé Luiz|Aline|Maira</t>
-  </si>
-  <si>
     <t>Cecilia|Varella</t>
   </si>
   <si>
     <t>Julia Cowboy|Maira</t>
   </si>
   <si>
-    <t>Tato/Ca|Magaly/Zé Luiz</t>
-  </si>
-  <si>
-    <t>Regina|Tato/Ca</t>
-  </si>
-  <si>
     <t>Varella|Maira</t>
   </si>
   <si>
-    <t>Tato/Ca|Aline</t>
-  </si>
-  <si>
-    <t>Magaly/Zé Luiz|Mezzena|Maira</t>
-  </si>
-  <si>
-    <t>Helo/Vitao|Maira</t>
-  </si>
-  <si>
-    <t>Helo/Vitao|Magaly/Zé Luiz|Maira|Varella</t>
-  </si>
-  <si>
-    <t>Magaly/Zé Luiz|Aline|Maira|Varella</t>
-  </si>
-  <si>
     <t>Aline|Maira</t>
   </si>
   <si>
@@ -2096,13 +2000,109 @@
     <t>Eficiência</t>
   </si>
   <si>
-    <t>Varella|Magaly/Zé Luiz</t>
-  </si>
-  <si>
-    <t>Netz|Mezzena|Magaly/Zé Luiz</t>
-  </si>
-  <si>
     <t>Bahia</t>
+  </si>
+  <si>
+    <t>Vitor</t>
+  </si>
+  <si>
+    <t>Vitor|Varella</t>
+  </si>
+  <si>
+    <t>Patê|Vitor|Maira|Varella</t>
+  </si>
+  <si>
+    <t>Vitor|Julia Cowboy</t>
+  </si>
+  <si>
+    <t>Vitor|Varella|Aline</t>
+  </si>
+  <si>
+    <t>Vitor|Maira</t>
+  </si>
+  <si>
+    <t>Magaly</t>
+  </si>
+  <si>
+    <t>Catia|Magaly</t>
+  </si>
+  <si>
+    <t>Patê|Magaly</t>
+  </si>
+  <si>
+    <t>Magaly|Varella</t>
+  </si>
+  <si>
+    <t>Magaly|Varella|Celina</t>
+  </si>
+  <si>
+    <t>Varella|Magaly|Aline</t>
+  </si>
+  <si>
+    <t>Varella|Magaly|Celina</t>
+  </si>
+  <si>
+    <t>Magaly|Aline</t>
+  </si>
+  <si>
+    <t>Magaly|Maira</t>
+  </si>
+  <si>
+    <t>Vitor|Magaly</t>
+  </si>
+  <si>
+    <t>Magaly|Varella|Aline|Celina</t>
+  </si>
+  <si>
+    <t>Magaly|Aline|Maira</t>
+  </si>
+  <si>
+    <t>Vitor|Magaly|Maira</t>
+  </si>
+  <si>
+    <t>Roberto|Magaly</t>
+  </si>
+  <si>
+    <t>Jullie|Magaly|Aline|Maira</t>
+  </si>
+  <si>
+    <t>Magaly|Mezzena|Maira</t>
+  </si>
+  <si>
+    <t>Vitor|Magaly|Maira|Varella</t>
+  </si>
+  <si>
+    <t>Magaly|Aline|Maira|Varella</t>
+  </si>
+  <si>
+    <t>Netz|Mezzena|Magaly</t>
+  </si>
+  <si>
+    <t>Varella|Magaly</t>
+  </si>
+  <si>
+    <t>Otávio</t>
+  </si>
+  <si>
+    <t>Otávio|Maira</t>
+  </si>
+  <si>
+    <t>Otávio|Maira|Varella</t>
+  </si>
+  <si>
+    <t>Cecilia|Otávio|Varella|Aline</t>
+  </si>
+  <si>
+    <t>Otávio|Varella|Aline|Celina</t>
+  </si>
+  <si>
+    <t>Otávio|Magaly</t>
+  </si>
+  <si>
+    <t>Regina|Otávio</t>
+  </si>
+  <si>
+    <t>Otávio|Aline</t>
   </si>
 </sst>
 </file>
@@ -2738,10 +2738,10 @@
         <v>624</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>598</v>
@@ -2753,31 +2753,31 @@
         <v>632</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="X1" s="8" t="s">
         <v>595</v>
       </c>
       <c r="Y1" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="Z1" s="8" t="s">
         <v>634</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>637</v>
       </c>
       <c r="AA1" s="8" t="s">
         <v>630</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AF1" s="8" t="s">
         <v>631</v>
@@ -2789,10 +2789,10 @@
         <v>594</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>636</v>
+        <v>681</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -3083,7 +3083,7 @@
         <v>629</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="R4" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3102,7 +3102,7 @@
         <v>-</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>683</v>
+        <v>651</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3205,7 +3205,7 @@
         <v>629</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="R5" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3568,7 +3568,7 @@
         <v>629</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="R8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3691,7 +3691,7 @@
         <v>629</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="R9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4654,7 +4654,7 @@
         <v>629</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="R17" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4777,7 +4777,7 @@
         <v>629</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="R18" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5140,7 +5140,7 @@
         <v>629</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="R21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5263,7 +5263,7 @@
         <v>628</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="R22" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6469,7 +6469,7 @@
         <v>629</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>647</v>
+        <v>682</v>
       </c>
       <c r="R32" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6712,7 +6712,7 @@
         <v>629</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="R34" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6955,7 +6955,7 @@
         <v>629</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>636</v>
+        <v>681</v>
       </c>
       <c r="R36" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7078,7 +7078,7 @@
         <v>629</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>648</v>
+        <v>683</v>
       </c>
       <c r="R37" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7681,7 +7681,7 @@
         <v>629</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="R42" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7804,7 +7804,7 @@
         <v>629</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="R43" s="1" t="str">
         <f t="shared" si="7"/>
@@ -8407,7 +8407,7 @@
         <v>629</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="R48" s="1" t="str">
         <f t="shared" si="7"/>
@@ -8650,14 +8650,14 @@
         <v>629</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="R50" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Reservado</v>
       </c>
       <c r="S50" s="1" t="str">
-        <f t="shared" ref="S50:S65" si="8">IFERROR(IF(FIND(S$1,$O50)=1,"Reservado","Fila"),"-")</f>
+        <f t="shared" ref="S50" si="8">IFERROR(IF(FIND(S$1,$O50)=1,"Reservado","Fila"),"-")</f>
         <v>-</v>
       </c>
       <c r="T50" s="1" t="str">
@@ -8773,7 +8773,7 @@
         <v>629</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="R51" s="1" t="str">
         <f t="shared" ref="R51:AH66" si="9">IFERROR(IF(FIND(R$1,$O51)=1,"Reservado","Fila"),"-")</f>
@@ -8896,7 +8896,7 @@
         <v>629</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="R52" s="1" t="str">
         <f t="shared" si="9"/>
@@ -9019,7 +9019,7 @@
         <v>629</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="R53" s="1" t="str">
         <f t="shared" si="9"/>
@@ -9142,7 +9142,7 @@
         <v>629</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>682</v>
+        <v>650</v>
       </c>
       <c r="R54" s="1" t="str">
         <f t="shared" si="9"/>
@@ -9265,7 +9265,7 @@
         <v>629</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>682</v>
+        <v>650</v>
       </c>
       <c r="R55" s="1" t="str">
         <f t="shared" si="9"/>
@@ -9628,7 +9628,7 @@
         <v>629</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="R58" s="1" t="str">
         <f t="shared" si="9"/>
@@ -10114,7 +10114,7 @@
         <v>629</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="R62" s="1" t="str">
         <f t="shared" si="9"/>
@@ -10237,7 +10237,7 @@
         <v>629</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="R63" s="1" t="str">
         <f t="shared" si="9"/>
@@ -10600,7 +10600,7 @@
         <v>629</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="R66" s="1" t="str">
         <f t="shared" si="9"/>
@@ -10723,7 +10723,7 @@
         <v>629</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="R67" s="1" t="str">
         <f t="shared" ref="R67:AH82" si="12">IFERROR(IF(FIND(R$1,$O67)=1,"Reservado","Fila"),"-")</f>
@@ -10846,7 +10846,7 @@
         <v>629</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="R68" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11095,7 +11095,7 @@
         <v>629</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="R70" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11218,7 +11218,7 @@
         <v>629</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="R71" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11461,7 +11461,7 @@
         <v>629</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="R73" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11584,7 +11584,7 @@
         <v>629</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="R74" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11707,7 +11707,7 @@
         <v>629</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="R75" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11830,7 +11830,7 @@
         <v>629</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="R76" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11953,7 +11953,7 @@
         <v>629</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="R77" s="1" t="str">
         <f t="shared" si="12"/>
@@ -12076,7 +12076,7 @@
         <v>629</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="R78" s="1" t="str">
         <f t="shared" si="12"/>
@@ -12199,7 +12199,7 @@
         <v>629</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="R79" s="1" t="str">
         <f t="shared" si="12"/>
@@ -12322,7 +12322,7 @@
         <v>629</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="R80" s="1" t="str">
         <f t="shared" si="12"/>
@@ -12445,7 +12445,7 @@
         <v>629</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>659</v>
+        <v>684</v>
       </c>
       <c r="R81" s="1" t="str">
         <f t="shared" si="12"/>
@@ -12568,7 +12568,7 @@
         <v>629</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
       <c r="R82" s="1" t="str">
         <f t="shared" si="12"/>
@@ -12691,7 +12691,7 @@
         <v>629</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="R83" s="1" t="str">
         <f t="shared" ref="R83:AG98" si="15">IFERROR(IF(FIND(R$1,$O83)=1,"Reservado","Fila"),"-")</f>
@@ -12814,7 +12814,7 @@
         <v>629</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="R84" s="1" t="str">
         <f t="shared" si="15"/>
@@ -12937,7 +12937,7 @@
         <v>629</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="R85" s="1" t="str">
         <f t="shared" si="15"/>
@@ -13180,7 +13180,7 @@
         <v>628</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="R87" s="1" t="str">
         <f t="shared" si="15"/>
@@ -13303,7 +13303,7 @@
         <v>629</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="R88" s="1" t="str">
         <f t="shared" si="15"/>
@@ -13426,7 +13426,7 @@
         <v>629</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="R89" s="1" t="str">
         <f t="shared" si="15"/>
@@ -13549,7 +13549,7 @@
         <v>629</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="R90" s="1" t="str">
         <f t="shared" si="15"/>
@@ -13672,7 +13672,7 @@
         <v>629</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>648</v>
+        <v>683</v>
       </c>
       <c r="R91" s="1" t="str">
         <f t="shared" si="15"/>
@@ -13919,7 +13919,7 @@
         <v>629</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>636</v>
+        <v>681</v>
       </c>
       <c r="R93" s="1" t="str">
         <f t="shared" si="15"/>
@@ -14412,7 +14412,7 @@
         <v>629</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="R97" s="1" t="str">
         <f t="shared" si="15"/>
@@ -14535,14 +14535,14 @@
         <v>629</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="R98" s="1" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
       <c r="S98" s="1" t="str">
-        <f t="shared" ref="S98:S113" si="16">IFERROR(IF(FIND(S$1,$O98)=1,"Reservado","Fila"),"-")</f>
+        <f t="shared" ref="S98" si="16">IFERROR(IF(FIND(S$1,$O98)=1,"Reservado","Fila"),"-")</f>
         <v>Reservado</v>
       </c>
       <c r="T98" s="1" t="str">
@@ -14904,7 +14904,7 @@
         <v>629</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="R101" s="1" t="str">
         <f t="shared" si="17"/>
@@ -15027,7 +15027,7 @@
         <v>629</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="R102" s="1" t="str">
         <f t="shared" si="17"/>
@@ -15150,7 +15150,7 @@
         <v>629</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="R103" s="1" t="str">
         <f t="shared" si="17"/>
@@ -15399,7 +15399,7 @@
         <v>629</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="R105" s="1" t="str">
         <f t="shared" si="17"/>
@@ -15642,7 +15642,7 @@
         <v>629</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="P107" s="11"/>
       <c r="R107" s="1" t="str">
@@ -16366,7 +16366,7 @@
         <v>629</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="R113" s="1" t="str">
         <f t="shared" si="17"/>
@@ -16855,7 +16855,7 @@
         <v>629</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="R117" s="1" t="str">
         <f t="shared" si="20"/>
@@ -16978,7 +16978,7 @@
         <v>629</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="R118" s="1" t="str">
         <f t="shared" si="20"/>
@@ -17101,7 +17101,7 @@
         <v>629</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="R119" s="1" t="str">
         <f t="shared" si="20"/>
@@ -18184,7 +18184,7 @@
         <v>629</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="R128" s="1" t="str">
         <f t="shared" si="20"/>
@@ -18307,7 +18307,7 @@
         <v>629</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="R129" s="1" t="str">
         <f t="shared" si="20"/>
@@ -18430,7 +18430,7 @@
         <v>629</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="R130" s="1" t="str">
         <f t="shared" si="20"/>
@@ -18673,7 +18673,7 @@
         <v>629</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="R132" s="1" t="str">
         <f t="shared" si="23"/>
@@ -18922,7 +18922,7 @@
         <v>629</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="R134" s="1" t="str">
         <f t="shared" si="23"/>
@@ -19045,7 +19045,7 @@
         <v>629</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="R135" s="1" t="str">
         <f t="shared" si="23"/>
@@ -19408,7 +19408,7 @@
         <v>629</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="R138" s="1" t="str">
         <f t="shared" si="23"/>
@@ -19771,7 +19771,7 @@
         <v>629</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="R141" s="1" t="str">
         <f t="shared" si="23"/>
@@ -20380,14 +20380,14 @@
         <v>629</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="R146" s="1" t="str">
         <f t="shared" si="23"/>
         <v>-</v>
       </c>
       <c r="S146" s="1" t="str">
-        <f t="shared" ref="S146:S161" si="24">IFERROR(IF(FIND(S$1,$O146)=1,"Reservado","Fila"),"-")</f>
+        <f t="shared" ref="S146" si="24">IFERROR(IF(FIND(S$1,$O146)=1,"Reservado","Fila"),"-")</f>
         <v>-</v>
       </c>
       <c r="T146" s="1" t="str">
@@ -20743,7 +20743,7 @@
         <v>629</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="R149" s="1" t="str">
         <f t="shared" si="25"/>
@@ -21229,7 +21229,7 @@
         <v>629</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="R153" s="1" t="str">
         <f t="shared" si="25"/>
@@ -22072,7 +22072,7 @@
         <v>629</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="R160" s="1" t="str">
         <f t="shared" si="25"/>
@@ -22195,7 +22195,7 @@
         <v>628</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="R161" s="1" t="str">
         <f t="shared" si="25"/>
@@ -22438,7 +22438,7 @@
         <v>629</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="R163" s="1" t="str">
         <f t="shared" ref="R163:AH178" si="28">IFERROR(IF(FIND(R$1,$O163)=1,"Reservado","Fila"),"-")</f>
@@ -22561,7 +22561,7 @@
         <v>629</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="R164" s="1" t="str">
         <f t="shared" si="28"/>
@@ -22684,7 +22684,7 @@
         <v>629</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="R165" s="1" t="str">
         <f t="shared" si="28"/>
@@ -22807,7 +22807,7 @@
         <v>629</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="R166" s="1" t="str">
         <f t="shared" si="28"/>
@@ -22930,7 +22930,7 @@
         <v>629</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="R167" s="1" t="str">
         <f t="shared" si="28"/>
@@ -23053,7 +23053,7 @@
         <v>629</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="R168" s="1" t="str">
         <f t="shared" si="28"/>
@@ -23176,7 +23176,7 @@
         <v>628</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="R169" s="1" t="str">
         <f t="shared" si="28"/>
@@ -23419,7 +23419,7 @@
         <v>629</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="R171" s="1" t="str">
         <f t="shared" si="28"/>
@@ -23782,7 +23782,7 @@
         <v>629</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="R174" s="1" t="str">
         <f t="shared" si="28"/>
@@ -23905,7 +23905,7 @@
         <v>629</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="R175" s="1" t="str">
         <f t="shared" si="28"/>
@@ -25231,7 +25231,7 @@
         <v>629</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="R186" s="1" t="str">
         <f t="shared" si="31"/>
@@ -25714,7 +25714,7 @@
         <v>629</v>
       </c>
       <c r="O190" s="1" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="R190" s="1" t="str">
         <f t="shared" si="31"/>
@@ -25837,7 +25837,7 @@
         <v>629</v>
       </c>
       <c r="O191" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="R191" s="1" t="str">
         <f t="shared" si="31"/>
@@ -26204,7 +26204,7 @@
         <v>-</v>
       </c>
       <c r="S194" s="1" t="str">
-        <f t="shared" ref="S194:S209" si="32">IFERROR(IF(FIND(S$1,$O194)=1,"Reservado","Fila"),"-")</f>
+        <f t="shared" ref="S194" si="32">IFERROR(IF(FIND(S$1,$O194)=1,"Reservado","Fila"),"-")</f>
         <v>-</v>
       </c>
       <c r="T194" s="1" t="str">
@@ -26440,7 +26440,7 @@
         <v>629</v>
       </c>
       <c r="O196" s="1" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="R196" s="1" t="str">
         <f t="shared" si="33"/>
@@ -26803,7 +26803,7 @@
         <v>629</v>
       </c>
       <c r="O199" s="1" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="R199" s="1" t="str">
         <f t="shared" si="33"/>
@@ -27169,7 +27169,7 @@
         <v>629</v>
       </c>
       <c r="O202" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="R202" s="1" t="str">
         <f t="shared" si="33"/>
@@ -27415,7 +27415,7 @@
         <v>629</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="R204" s="1" t="str">
         <f t="shared" si="33"/>
@@ -27781,7 +27781,7 @@
         <v>629</v>
       </c>
       <c r="O207" s="1" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="R207" s="1" t="str">
         <f t="shared" si="33"/>
@@ -28024,7 +28024,7 @@
         <v>629</v>
       </c>
       <c r="O209" s="1" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="R209" s="1" t="str">
         <f t="shared" si="33"/>
@@ -28390,7 +28390,7 @@
         <v>629</v>
       </c>
       <c r="O212" s="1" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="R212" s="1" t="str">
         <f t="shared" si="36"/>
@@ -28513,7 +28513,7 @@
         <v>629</v>
       </c>
       <c r="O213" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="R213" s="1" t="str">
         <f t="shared" si="36"/>
@@ -28756,7 +28756,7 @@
         <v>629</v>
       </c>
       <c r="O215" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="R215" s="1" t="str">
         <f t="shared" si="36"/>
@@ -29603,7 +29603,7 @@
         <v>628</v>
       </c>
       <c r="O222" s="1" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="R222" s="1" t="str">
         <f t="shared" si="36"/>
@@ -29726,7 +29726,7 @@
         <v>629</v>
       </c>
       <c r="O223" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="R223" s="1" t="str">
         <f t="shared" si="36"/>
@@ -29972,7 +29972,7 @@
         <v>629</v>
       </c>
       <c r="O225" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="R225" s="1" t="str">
         <f t="shared" si="36"/>
@@ -30095,7 +30095,7 @@
         <v>629</v>
       </c>
       <c r="O226" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="R226" s="1" t="str">
         <f t="shared" si="36"/>
@@ -30218,7 +30218,7 @@
         <v>629</v>
       </c>
       <c r="O227" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="R227" s="1" t="str">
         <f t="shared" ref="R227:AG242" si="39">IFERROR(IF(FIND(R$1,$O227)=1,"Reservado","Fila"),"-")</f>
@@ -30341,7 +30341,7 @@
         <v>629</v>
       </c>
       <c r="O228" s="1" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="R228" s="1" t="str">
         <f t="shared" si="39"/>
@@ -30464,7 +30464,7 @@
         <v>629</v>
       </c>
       <c r="O229" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="R229" s="1" t="str">
         <f t="shared" si="39"/>
@@ -30587,7 +30587,7 @@
         <v>629</v>
       </c>
       <c r="O230" s="1" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="R230" s="1" t="str">
         <f t="shared" si="39"/>
@@ -30710,7 +30710,7 @@
         <v>629</v>
       </c>
       <c r="O231" s="1" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="R231" s="1" t="str">
         <f t="shared" si="39"/>
@@ -31073,7 +31073,7 @@
         <v>629</v>
       </c>
       <c r="O234" s="1" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="R234" s="1" t="str">
         <f t="shared" si="39"/>
@@ -31196,7 +31196,7 @@
         <v>629</v>
       </c>
       <c r="O235" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="R235" s="1" t="str">
         <f t="shared" si="39"/>
@@ -31559,7 +31559,7 @@
         <v>629</v>
       </c>
       <c r="O238" s="1" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="R238" s="1" t="str">
         <f t="shared" si="39"/>
@@ -32045,14 +32045,14 @@
         <v>629</v>
       </c>
       <c r="O242" s="1" t="s">
-        <v>647</v>
+        <v>682</v>
       </c>
       <c r="R242" s="1" t="str">
         <f t="shared" si="39"/>
         <v>-</v>
       </c>
       <c r="S242" s="1" t="str">
-        <f t="shared" ref="S242:S257" si="40">IFERROR(IF(FIND(S$1,$O242)=1,"Reservado","Fila"),"-")</f>
+        <f t="shared" ref="S242" si="40">IFERROR(IF(FIND(S$1,$O242)=1,"Reservado","Fila"),"-")</f>
         <v>-</v>
       </c>
       <c r="T242" s="1" t="str">
@@ -32168,7 +32168,7 @@
         <v>629</v>
       </c>
       <c r="O243" s="1" t="s">
-        <v>636</v>
+        <v>681</v>
       </c>
       <c r="R243" s="1" t="str">
         <f t="shared" ref="R243:AH258" si="41">IFERROR(IF(FIND(R$1,$O243)=1,"Reservado","Fila"),"-")</f>
@@ -32291,7 +32291,7 @@
         <v>629</v>
       </c>
       <c r="O244" s="1" t="s">
-        <v>636</v>
+        <v>681</v>
       </c>
       <c r="R244" s="1" t="str">
         <f t="shared" si="41"/>
@@ -32534,7 +32534,7 @@
         <v>629</v>
       </c>
       <c r="O246" s="1" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="R246" s="1" t="str">
         <f t="shared" si="41"/>
@@ -32657,7 +32657,7 @@
         <v>629</v>
       </c>
       <c r="O247" s="1" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="R247" s="1" t="str">
         <f t="shared" si="41"/>
@@ -32780,7 +32780,7 @@
         <v>629</v>
       </c>
       <c r="O248" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="R248" s="1" t="str">
         <f t="shared" si="41"/>
@@ -32903,7 +32903,7 @@
         <v>629</v>
       </c>
       <c r="O249" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="R249" s="1" t="str">
         <f t="shared" si="41"/>
@@ -33026,7 +33026,7 @@
         <v>629</v>
       </c>
       <c r="O250" s="1" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="R250" s="1" t="str">
         <f t="shared" si="41"/>
@@ -33149,7 +33149,7 @@
         <v>629</v>
       </c>
       <c r="O251" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="R251" s="1" t="str">
         <f t="shared" si="41"/>
@@ -33272,7 +33272,7 @@
         <v>629</v>
       </c>
       <c r="O252" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="R252" s="1" t="str">
         <f t="shared" si="41"/>
@@ -33395,7 +33395,7 @@
         <v>629</v>
       </c>
       <c r="O253" s="1" t="s">
-        <v>636</v>
+        <v>681</v>
       </c>
       <c r="R253" s="1" t="str">
         <f t="shared" si="41"/>
@@ -33885,7 +33885,7 @@
         <v>629</v>
       </c>
       <c r="O257" s="1" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="R257" s="1" t="str">
         <f t="shared" si="41"/>
@@ -34008,7 +34008,7 @@
         <v>629</v>
       </c>
       <c r="O258" s="1" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="R258" s="1" t="str">
         <f t="shared" si="41"/>
@@ -34131,7 +34131,7 @@
         <v>629</v>
       </c>
       <c r="O259" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="R259" s="1" t="str">
         <f t="shared" ref="R259:AH274" si="44">IFERROR(IF(FIND(R$1,$O259)=1,"Reservado","Fila"),"-")</f>
@@ -34498,7 +34498,7 @@
         <v>629</v>
       </c>
       <c r="O262" s="1" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="R262" s="1" t="str">
         <f t="shared" si="44"/>
@@ -34741,7 +34741,7 @@
         <v>629</v>
       </c>
       <c r="O264" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="R264" s="1" t="str">
         <f t="shared" si="44"/>
@@ -35224,7 +35224,7 @@
         <v>629</v>
       </c>
       <c r="O268" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="R268" s="1" t="str">
         <f t="shared" si="44"/>
@@ -35347,7 +35347,7 @@
         <v>629</v>
       </c>
       <c r="O269" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="R269" s="1" t="str">
         <f t="shared" si="44"/>
@@ -35713,7 +35713,7 @@
         <v>629</v>
       </c>
       <c r="O272" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="R272" s="1" t="str">
         <f t="shared" si="44"/>
@@ -35956,7 +35956,7 @@
         <v>629</v>
       </c>
       <c r="O274" s="1" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="R274" s="1" t="str">
         <f t="shared" si="44"/>
@@ -36559,7 +36559,7 @@
         <v>629</v>
       </c>
       <c r="O279" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="R279" s="1" t="str">
         <f t="shared" si="47"/>
@@ -36802,7 +36802,7 @@
         <v>628</v>
       </c>
       <c r="O281" s="1" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="R281" s="1" t="str">
         <f t="shared" si="47"/>
@@ -37411,7 +37411,7 @@
         <v>629</v>
       </c>
       <c r="O286" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="R286" s="1" t="str">
         <f t="shared" si="47"/>
@@ -37534,7 +37534,7 @@
         <v>629</v>
       </c>
       <c r="O287" s="1" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="R287" s="1" t="str">
         <f t="shared" si="47"/>
@@ -37783,7 +37783,7 @@
         <v>629</v>
       </c>
       <c r="O289" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="R289" s="1" t="str">
         <f t="shared" si="47"/>
@@ -37906,14 +37906,14 @@
         <v>629</v>
       </c>
       <c r="O290" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="R290" s="1" t="str">
         <f t="shared" si="47"/>
         <v>Fila</v>
       </c>
       <c r="S290" s="1" t="str">
-        <f t="shared" ref="S290:S305" si="48">IFERROR(IF(FIND(S$1,$O290)=1,"Reservado","Fila"),"-")</f>
+        <f t="shared" ref="S290" si="48">IFERROR(IF(FIND(S$1,$O290)=1,"Reservado","Fila"),"-")</f>
         <v>-</v>
       </c>
       <c r="T290" s="1" t="str">
@@ -38283,7 +38283,7 @@
         <v>-</v>
       </c>
       <c r="S293" s="1" t="str">
-        <f t="shared" ref="S293:S308" si="50">IFERROR(IF(FIND(S$1,$O293)=1,"Reservado","Fila"),"-")</f>
+        <f t="shared" ref="S293:S306" si="50">IFERROR(IF(FIND(S$1,$O293)=1,"Reservado","Fila"),"-")</f>
         <v>-</v>
       </c>
       <c r="T293" s="1" t="str">
@@ -38399,7 +38399,7 @@
         <v>629</v>
       </c>
       <c r="O294" s="1" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="R294" s="1" t="str">
         <f t="shared" si="49"/>
@@ -38522,7 +38522,7 @@
         <v>628</v>
       </c>
       <c r="O295" s="1" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="R295" s="1" t="str">
         <f t="shared" si="49"/>
@@ -39255,7 +39255,7 @@
         <v>629</v>
       </c>
       <c r="O301" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="R301" s="1" t="str">
         <f t="shared" si="49"/>
@@ -39378,7 +39378,7 @@
         <v>629</v>
       </c>
       <c r="O302" s="1" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="R302" s="1" t="str">
         <f t="shared" si="49"/>
@@ -40221,7 +40221,7 @@
         <v>629</v>
       </c>
       <c r="O309" s="1" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="R309" s="1" t="str">
         <f t="shared" si="52"/>
@@ -40344,7 +40344,7 @@
         <v>629</v>
       </c>
       <c r="O310" s="1" t="s">
-        <v>681</v>
+        <v>649</v>
       </c>
       <c r="R310" s="1" t="str">
         <f t="shared" si="52"/>
@@ -41067,7 +41067,7 @@
         <v>629</v>
       </c>
       <c r="O316" s="1" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="R316" s="1" t="str">
         <f t="shared" si="52"/>
@@ -41190,7 +41190,7 @@
     </row>
     <row r="319" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q319" t="s">
-        <v>683</v>
+        <v>651</v>
       </c>
       <c r="R319" s="1">
         <f>COUNTIF(R$2:R$316,$Q319)</f>
@@ -41271,7 +41271,7 @@
     </row>
     <row r="320" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q320" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="R320" s="1">
         <f>COUNTIF(R$2:R$316,$Q320)</f>
@@ -41352,7 +41352,7 @@
     </row>
     <row r="321" spans="17:36" x14ac:dyDescent="0.25">
       <c r="Q321" t="s">
-        <v>685</v>
+        <v>653</v>
       </c>
       <c r="R321" s="12">
         <f>R319/SUM(R319:R320)</f>
@@ -41433,7 +41433,7 @@
     </row>
     <row r="322" spans="17:36" x14ac:dyDescent="0.25">
       <c r="Q322" s="7" t="s">
-        <v>683</v>
+        <v>651</v>
       </c>
       <c r="R322" s="10">
         <f>SUMIF(R$2:R$316,$Q322,$M$2:$M$316)</f>
@@ -41514,7 +41514,7 @@
     </row>
     <row r="323" spans="17:36" x14ac:dyDescent="0.25">
       <c r="Q323" s="7" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="R323" s="10">
         <f t="shared" ref="R323:S323" si="57">SUMIF(R$2:R$316,$Q323,$M$2:$M$316)</f>

--- a/src/Send-off.xlsx
+++ b/src/Send-off.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUISRICARDOGerbelli\Documents\GitHub\send-off\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F97492-1A4F-40D0-A71D-D683900E3A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0673861C-DDFC-4603-8EB2-C3DC777CB827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73E549BB-D9AE-42B8-B9EF-C186AC431F7B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="692">
   <si>
     <t>Quarto 1</t>
   </si>
@@ -2155,7 +2155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2171,6 +2171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2201,7 +2207,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2243,6 +2249,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2693,8 +2702,7 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="10" width="10" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="10" width="10" style="1" customWidth="1"/>
     <col min="11" max="11" width="35.140625" style="6" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="10" customWidth="1"/>
@@ -28895,6 +28903,9 @@
       <c r="N217" s="14" t="s">
         <v>628</v>
       </c>
+      <c r="O217" s="17" t="s">
+        <v>637</v>
+      </c>
       <c r="R217" s="1" t="str">
         <f t="shared" si="36"/>
         <v>-</v>
@@ -28941,7 +28952,7 @@
       </c>
       <c r="AC217" s="1" t="str">
         <f t="shared" si="36"/>
-        <v>-</v>
+        <v>Reservado</v>
       </c>
       <c r="AD217" s="1" t="str">
         <f t="shared" si="36"/>
@@ -29015,6 +29026,9 @@
       <c r="N218" s="14" t="s">
         <v>628</v>
       </c>
+      <c r="O218" s="17" t="s">
+        <v>637</v>
+      </c>
       <c r="R218" s="1" t="str">
         <f t="shared" si="36"/>
         <v>-</v>
@@ -29061,7 +29075,7 @@
       </c>
       <c r="AC218" s="1" t="str">
         <f t="shared" si="36"/>
-        <v>-</v>
+        <v>Reservado</v>
       </c>
       <c r="AD218" s="1" t="str">
         <f t="shared" si="36"/>
@@ -29135,6 +29149,9 @@
       <c r="N219" s="14" t="s">
         <v>628</v>
       </c>
+      <c r="O219" s="17" t="s">
+        <v>637</v>
+      </c>
       <c r="R219" s="1" t="str">
         <f t="shared" si="36"/>
         <v>-</v>
@@ -29181,7 +29198,7 @@
       </c>
       <c r="AC219" s="1" t="str">
         <f t="shared" si="36"/>
-        <v>-</v>
+        <v>Reservado</v>
       </c>
       <c r="AD219" s="1" t="str">
         <f t="shared" si="36"/>
@@ -29255,6 +29272,9 @@
       <c r="N220" s="14" t="s">
         <v>628</v>
       </c>
+      <c r="O220" s="17" t="s">
+        <v>637</v>
+      </c>
       <c r="R220" s="1" t="str">
         <f t="shared" si="36"/>
         <v>-</v>
@@ -29301,7 +29321,7 @@
       </c>
       <c r="AC220" s="1" t="str">
         <f t="shared" si="36"/>
-        <v>-</v>
+        <v>Reservado</v>
       </c>
       <c r="AD220" s="1" t="str">
         <f t="shared" si="36"/>
@@ -41114,7 +41134,7 @@
       </c>
       <c r="AC319" s="1">
         <f t="shared" si="53"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD319" s="1">
         <f t="shared" si="53"/>
@@ -41276,7 +41296,7 @@
       </c>
       <c r="AC321" s="12">
         <f t="shared" si="54"/>
-        <v>0.45945945945945948</v>
+        <v>0.51219512195121952</v>
       </c>
       <c r="AD321" s="12">
         <f t="shared" si="54"/>
@@ -41357,7 +41377,7 @@
       </c>
       <c r="AC322" s="10">
         <f t="shared" si="55"/>
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="AD322" s="10">
         <f t="shared" si="55"/>

--- a/src/Send-off.xlsx
+++ b/src/Send-off.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUISRICARDOGerbelli\Documents\GitHub\send-off\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0673861C-DDFC-4603-8EB2-C3DC777CB827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A560262-7AFC-4020-A4BC-706AB337E87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73E549BB-D9AE-42B8-B9EF-C186AC431F7B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Send-off" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Send-off'!$A$1:$P$316</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Send-off'!$R$1:$AJ$316</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="693">
   <si>
     <t>Quarto 1</t>
   </si>
@@ -1907,9 +1907,6 @@
     <t>Anônimo</t>
   </si>
   <si>
-    <t>Received</t>
-  </si>
-  <si>
     <t>cr</t>
   </si>
   <si>
@@ -2112,6 +2109,12 @@
   </si>
   <si>
     <t>Desconsiderar os dois suportes maiores da foto.</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -2761,19 +2764,19 @@
         <v>615</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>599</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>623</v>
+        <v>691</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="T1" s="15" t="s">
         <v>598</v>
@@ -2782,37 +2785,37 @@
         <v>596</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="W1" s="15" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="X1" s="15" t="s">
         <v>595</v>
       </c>
       <c r="Y1" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="Z1" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="Z1" s="15" t="s">
-        <v>633</v>
-      </c>
       <c r="AA1" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="AF1" s="15" t="s">
         <v>629</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>659</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>637</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>635</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="AF1" s="15" t="s">
-        <v>630</v>
       </c>
       <c r="AG1" s="15" t="s">
         <v>597</v>
@@ -2821,10 +2824,10 @@
         <v>594</v>
       </c>
       <c r="AI1" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AJ1" s="15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -2868,12 +2871,14 @@
         <v>350</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="P2" s="9"/>
+      <c r="P2" s="9" t="s">
+        <v>692</v>
+      </c>
       <c r="R2" s="1" t="str">
         <f>IFERROR(IF(FIND(R$1,$O2)=1,"Reservado","Fila"),"-")</f>
         <v>-</v>
@@ -2992,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R3" s="1" t="str">
         <f t="shared" ref="R3:AH18" si="2">IFERROR(IF(FIND(R$1,$O3)=1,"Reservado","Fila"),"-")</f>
@@ -3112,10 +3117,10 @@
         <v>25</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="R4" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3134,7 +3139,7 @@
         <v>-</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3234,10 +3239,13 @@
         <v>0</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R5" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3472,7 +3480,7 @@
         <v>25</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R7" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3592,10 +3600,10 @@
         <v>25</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="R8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3715,10 +3723,10 @@
         <v>50</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3838,7 +3846,7 @@
         <v>25</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R10" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3958,7 +3966,7 @@
         <v>25</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R11" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4078,7 +4086,7 @@
         <v>150</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R12" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4198,7 +4206,7 @@
         <v>150</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4318,7 +4326,7 @@
         <v>150</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R14" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4438,7 +4446,7 @@
         <v>150</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R15" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4558,7 +4566,7 @@
         <v>150</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R16" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4678,10 +4686,10 @@
         <v>25</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="R17" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4801,10 +4809,10 @@
         <v>10</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="R18" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5039,7 +5047,7 @@
         <v>50</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R20" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5159,10 +5167,10 @@
         <v>50</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5282,10 +5290,10 @@
         <v>25</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="R22" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5635,7 +5643,7 @@
         <v>10</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R25" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5755,7 +5763,7 @@
         <v>25</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R26" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5875,10 +5883,10 @@
         <v>0</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Q27" s="10"/>
       <c r="R27" s="1" t="str">
@@ -5999,7 +6007,7 @@
         <v>25</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R28" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6234,7 +6242,7 @@
         <v>300</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="R30" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6354,7 +6362,7 @@
         <v>200</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="R31" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6474,10 +6482,10 @@
         <v>100</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R32" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6597,7 +6605,7 @@
         <v>25</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R33" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6717,10 +6725,10 @@
         <v>25</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R34" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6840,7 +6848,7 @@
         <v>10</v>
       </c>
       <c r="N35" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R35" s="1" t="str">
         <f t="shared" ref="R35:AG50" si="7">IFERROR(IF(FIND(R$1,$O35)=1,"Reservado","Fila"),"-")</f>
@@ -6960,10 +6968,10 @@
         <v>25</v>
       </c>
       <c r="N36" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="R36" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7083,10 +7091,10 @@
         <v>25</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R37" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7321,7 +7329,7 @@
         <v>50</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="R39" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7441,7 +7449,7 @@
         <v>25</v>
       </c>
       <c r="N40" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R40" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7676,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="N42" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="R42" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7799,10 +7807,10 @@
         <v>10</v>
       </c>
       <c r="N43" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R43" s="1" t="str">
         <f t="shared" si="7"/>
@@ -8152,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R46" s="1" t="str">
         <f t="shared" si="7"/>
@@ -8272,7 +8280,7 @@
         <v>150</v>
       </c>
       <c r="N47" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R47" s="1" t="str">
         <f t="shared" si="7"/>
@@ -8383,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>591</v>
@@ -8392,10 +8400,10 @@
         <v>25</v>
       </c>
       <c r="N48" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R48" s="1" t="str">
         <f t="shared" si="7"/>
@@ -8515,7 +8523,7 @@
         <v>10</v>
       </c>
       <c r="N49" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R49" s="1" t="str">
         <f t="shared" si="7"/>
@@ -8635,10 +8643,10 @@
         <v>50</v>
       </c>
       <c r="N50" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="R50" s="1" t="str">
         <f t="shared" si="7"/>
@@ -8758,10 +8766,10 @@
         <v>25</v>
       </c>
       <c r="N51" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="R51" s="1" t="str">
         <f t="shared" ref="R51:AH66" si="9">IFERROR(IF(FIND(R$1,$O51)=1,"Reservado","Fila"),"-")</f>
@@ -8881,10 +8889,10 @@
         <v>25</v>
       </c>
       <c r="N52" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="R52" s="1" t="str">
         <f t="shared" si="9"/>
@@ -9004,10 +9012,13 @@
         <v>25</v>
       </c>
       <c r="N53" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R53" s="1" t="str">
         <f t="shared" si="9"/>
@@ -9357,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R56" s="1" t="str">
         <f t="shared" si="9"/>
@@ -9477,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R57" s="1" t="str">
         <f t="shared" si="9"/>
@@ -9591,7 +9602,7 @@
         <v>103</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N58" s="14"/>
       <c r="R58" s="1" t="str">
@@ -9712,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R59" s="1" t="str">
         <f t="shared" si="9"/>
@@ -9832,10 +9843,10 @@
         <v>50</v>
       </c>
       <c r="N60" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="O60" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="R60" s="1" t="str">
         <f t="shared" si="9"/>
@@ -9922,7 +9933,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D61" t="s">
         <v>47</v>
@@ -10070,10 +10081,10 @@
         <v>25</v>
       </c>
       <c r="N62" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="R62" s="1" t="str">
         <f t="shared" si="9"/>
@@ -10184,7 +10195,7 @@
         <v>2</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>591</v>
@@ -10193,10 +10204,10 @@
         <v>10</v>
       </c>
       <c r="N63" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="R63" s="1" t="str">
         <f t="shared" si="9"/>
@@ -10316,7 +10327,7 @@
         <v>10</v>
       </c>
       <c r="N64" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R64" s="1" t="str">
         <f t="shared" si="9"/>
@@ -10436,7 +10447,7 @@
         <v>25</v>
       </c>
       <c r="N65" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R65" s="1" t="str">
         <f t="shared" si="9"/>
@@ -10556,10 +10567,10 @@
         <v>25</v>
       </c>
       <c r="N66" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="R66" s="1" t="str">
         <f t="shared" si="9"/>
@@ -10679,10 +10690,10 @@
         <v>10</v>
       </c>
       <c r="N67" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R67" s="1" t="str">
         <f t="shared" ref="R67:AH82" si="12">IFERROR(IF(FIND(R$1,$O67)=1,"Reservado","Fila"),"-")</f>
@@ -10802,10 +10813,10 @@
         <v>25</v>
       </c>
       <c r="N68" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="R68" s="1" t="str">
         <f t="shared" si="12"/>
@@ -10925,13 +10936,13 @@
         <v>50</v>
       </c>
       <c r="N69" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O69" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="P69" s="10">
-        <v>0</v>
+      <c r="P69" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R69" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11051,10 +11062,10 @@
         <v>100</v>
       </c>
       <c r="N70" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R70" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11174,10 +11185,10 @@
         <v>25</v>
       </c>
       <c r="N71" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="R71" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11297,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R72" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11417,10 +11428,10 @@
         <v>50</v>
       </c>
       <c r="N73" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="R73" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11534,7 +11545,7 @@
         <v>103</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N74" s="14"/>
       <c r="R74" s="1" t="str">
@@ -11655,10 +11666,10 @@
         <v>25</v>
       </c>
       <c r="N75" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R75" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11778,10 +11789,10 @@
         <v>25</v>
       </c>
       <c r="N76" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="R76" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11901,10 +11912,10 @@
         <v>10</v>
       </c>
       <c r="N77" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R77" s="1" t="str">
         <f t="shared" si="12"/>
@@ -12018,7 +12029,7 @@
         <v>103</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="M78" s="16"/>
       <c r="N78" s="14"/>
@@ -12140,10 +12151,10 @@
         <v>50</v>
       </c>
       <c r="N79" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="R79" s="1" t="str">
         <f t="shared" si="12"/>
@@ -12263,10 +12274,10 @@
         <v>10</v>
       </c>
       <c r="N80" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="R80" s="1" t="str">
         <f t="shared" si="12"/>
@@ -12386,10 +12397,10 @@
         <v>10</v>
       </c>
       <c r="N81" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R81" s="1" t="str">
         <f t="shared" si="12"/>
@@ -12509,13 +12520,13 @@
         <v>0</v>
       </c>
       <c r="N82" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O82" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="P82" s="10">
-        <v>0</v>
+      <c r="P82" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R82" s="1" t="str">
         <f t="shared" si="12"/>
@@ -12635,10 +12646,10 @@
         <v>10</v>
       </c>
       <c r="N83" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="R83" s="1" t="str">
         <f t="shared" ref="R83:AG98" si="15">IFERROR(IF(FIND(R$1,$O83)=1,"Reservado","Fila"),"-")</f>
@@ -12758,10 +12769,10 @@
         <v>25</v>
       </c>
       <c r="N84" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="R84" s="1" t="str">
         <f t="shared" si="15"/>
@@ -12881,10 +12892,10 @@
         <v>25</v>
       </c>
       <c r="N85" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="R85" s="1" t="str">
         <f t="shared" si="15"/>
@@ -13119,10 +13130,10 @@
         <v>50</v>
       </c>
       <c r="N87" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="R87" s="1" t="str">
         <f t="shared" si="15"/>
@@ -13242,10 +13253,10 @@
         <v>25</v>
       </c>
       <c r="N88" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="R88" s="1" t="str">
         <f t="shared" si="15"/>
@@ -13365,10 +13376,10 @@
         <v>50</v>
       </c>
       <c r="N89" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="R89" s="1" t="str">
         <f t="shared" si="15"/>
@@ -13488,10 +13499,10 @@
         <v>25</v>
       </c>
       <c r="N90" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="R90" s="1" t="str">
         <f t="shared" si="15"/>
@@ -13611,10 +13622,10 @@
         <v>50</v>
       </c>
       <c r="N91" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R91" s="1" t="str">
         <f t="shared" si="15"/>
@@ -13734,7 +13745,7 @@
         <v>230</v>
       </c>
       <c r="N92" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O92" s="1" t="s">
         <v>595</v>
@@ -13858,10 +13869,10 @@
         <v>100</v>
       </c>
       <c r="N93" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="R93" s="1" t="str">
         <f t="shared" si="15"/>
@@ -13981,7 +13992,7 @@
         <v>0</v>
       </c>
       <c r="N94" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O94" s="1" t="s">
         <v>595</v>
@@ -14105,7 +14116,7 @@
         <v>0</v>
       </c>
       <c r="N95" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R95" s="1" t="str">
         <f t="shared" si="15"/>
@@ -14225,13 +14236,13 @@
         <v>0</v>
       </c>
       <c r="N96" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O96" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="P96" s="10">
-        <v>0</v>
+      <c r="P96" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R96" s="1" t="str">
         <f t="shared" si="15"/>
@@ -14351,13 +14362,13 @@
         <v>0</v>
       </c>
       <c r="N97" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O97" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="P97" s="10">
-        <v>0</v>
+      <c r="P97" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R97" s="1" t="str">
         <f t="shared" si="15"/>
@@ -14477,10 +14488,10 @@
         <v>25</v>
       </c>
       <c r="N98" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R98" s="1" t="str">
         <f t="shared" si="15"/>
@@ -14600,13 +14611,13 @@
         <v>25</v>
       </c>
       <c r="N99" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O99" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="P99" s="10">
-        <v>25</v>
+      <c r="P99" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R99" s="1" t="str">
         <f t="shared" ref="R99:AH114" si="17">IFERROR(IF(FIND(R$1,$O99)=1,"Reservado","Fila"),"-")</f>
@@ -14726,7 +14737,7 @@
         <v>25</v>
       </c>
       <c r="N100" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R100" s="1" t="str">
         <f t="shared" si="17"/>
@@ -14846,10 +14857,10 @@
         <v>10</v>
       </c>
       <c r="N101" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R101" s="1" t="str">
         <f t="shared" si="17"/>
@@ -14969,10 +14980,10 @@
         <v>0</v>
       </c>
       <c r="N102" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="R102" s="1" t="str">
         <f t="shared" si="17"/>
@@ -15207,13 +15218,13 @@
         <v>0</v>
       </c>
       <c r="N104" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O104" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="P104" s="10">
-        <v>0</v>
+      <c r="P104" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R104" s="1" t="str">
         <f t="shared" si="17"/>
@@ -15333,10 +15344,10 @@
         <v>25</v>
       </c>
       <c r="N105" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R105" s="1" t="str">
         <f t="shared" si="17"/>
@@ -15456,7 +15467,7 @@
         <v>50</v>
       </c>
       <c r="N106" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R106" s="1" t="str">
         <f t="shared" si="17"/>
@@ -15576,10 +15587,10 @@
         <v>25</v>
       </c>
       <c r="N107" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="P107" s="11"/>
       <c r="R107" s="1" t="str">
@@ -15700,7 +15711,7 @@
         <v>10</v>
       </c>
       <c r="N108" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R108" s="1" t="str">
         <f t="shared" si="17"/>
@@ -15820,7 +15831,7 @@
         <v>25</v>
       </c>
       <c r="N109" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R109" s="1" t="str">
         <f t="shared" si="17"/>
@@ -15940,7 +15951,7 @@
         <v>25</v>
       </c>
       <c r="N110" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R110" s="1" t="str">
         <f t="shared" si="17"/>
@@ -16060,7 +16071,7 @@
         <v>10</v>
       </c>
       <c r="N111" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R111" s="1" t="str">
         <f t="shared" si="17"/>
@@ -16180,7 +16191,7 @@
         <v>25</v>
       </c>
       <c r="N112" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R112" s="1" t="str">
         <f t="shared" si="17"/>
@@ -16415,10 +16426,13 @@
         <v>50</v>
       </c>
       <c r="N114" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O114" s="1" t="s">
         <v>594</v>
+      </c>
+      <c r="P114" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R114" s="1" t="str">
         <f t="shared" si="17"/>
@@ -16653,10 +16667,13 @@
         <v>25</v>
       </c>
       <c r="N116" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O116" s="1" t="s">
         <v>594</v>
+      </c>
+      <c r="P116" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R116" s="1" t="str">
         <f t="shared" si="20"/>
@@ -16776,10 +16793,13 @@
         <v>100</v>
       </c>
       <c r="N117" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
+      </c>
+      <c r="P117" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R117" s="1" t="str">
         <f t="shared" si="20"/>
@@ -16902,7 +16922,10 @@
         <v>627</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
+      </c>
+      <c r="P118" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R118" s="1" t="str">
         <f t="shared" si="20"/>
@@ -17025,7 +17048,10 @@
         <v>627</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
+      </c>
+      <c r="P119" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R119" s="1" t="str">
         <f t="shared" si="20"/>
@@ -17260,7 +17286,7 @@
         <v>10</v>
       </c>
       <c r="N121" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R121" s="1" t="str">
         <f t="shared" si="20"/>
@@ -17380,7 +17406,7 @@
         <v>10</v>
       </c>
       <c r="N122" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R122" s="1" t="str">
         <f t="shared" si="20"/>
@@ -17500,7 +17526,7 @@
         <v>10</v>
       </c>
       <c r="N123" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R123" s="1" t="str">
         <f t="shared" si="20"/>
@@ -17620,7 +17646,7 @@
         <v>0</v>
       </c>
       <c r="N124" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R124" s="1" t="str">
         <f t="shared" si="20"/>
@@ -17740,7 +17766,7 @@
         <v>100</v>
       </c>
       <c r="N125" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R125" s="1" t="str">
         <f t="shared" si="20"/>
@@ -17860,7 +17886,7 @@
         <v>50</v>
       </c>
       <c r="N126" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R126" s="1" t="str">
         <f t="shared" si="20"/>
@@ -17980,10 +18006,10 @@
         <v>50</v>
       </c>
       <c r="N127" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R127" s="1" t="str">
         <f t="shared" si="20"/>
@@ -18103,10 +18129,10 @@
         <v>50</v>
       </c>
       <c r="N128" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="R128" s="1" t="str">
         <f t="shared" si="20"/>
@@ -18226,10 +18252,10 @@
         <v>25</v>
       </c>
       <c r="N129" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R129" s="1" t="str">
         <f t="shared" si="20"/>
@@ -18349,10 +18375,10 @@
         <v>25</v>
       </c>
       <c r="N130" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R130" s="1" t="str">
         <f t="shared" si="20"/>
@@ -18472,7 +18498,7 @@
         <v>25</v>
       </c>
       <c r="N131" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R131" s="1" t="str">
         <f t="shared" ref="R131:AG146" si="23">IFERROR(IF(FIND(R$1,$O131)=1,"Reservado","Fila"),"-")</f>
@@ -18592,10 +18618,10 @@
         <v>25</v>
       </c>
       <c r="N132" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="R132" s="1" t="str">
         <f t="shared" si="23"/>
@@ -18715,13 +18741,13 @@
         <v>250</v>
       </c>
       <c r="N133" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O133" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="P133" s="10">
-        <v>250</v>
+      <c r="P133" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R133" s="1" t="str">
         <f t="shared" si="23"/>
@@ -18957,10 +18983,10 @@
         <v>25</v>
       </c>
       <c r="N135" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R135" s="1" t="str">
         <f t="shared" si="23"/>
@@ -19080,7 +19106,7 @@
         <v>0</v>
       </c>
       <c r="N136" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="R136" s="1" t="str">
         <f t="shared" si="23"/>
@@ -19315,10 +19341,10 @@
         <v>50</v>
       </c>
       <c r="N138" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="R138" s="1" t="str">
         <f t="shared" si="23"/>
@@ -19438,7 +19464,7 @@
         <v>0</v>
       </c>
       <c r="N139" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R139" s="1" t="str">
         <f t="shared" si="23"/>
@@ -19558,7 +19584,7 @@
         <v>200</v>
       </c>
       <c r="N140" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R140" s="1" t="str">
         <f t="shared" si="23"/>
@@ -19678,10 +19704,10 @@
         <v>10</v>
       </c>
       <c r="N141" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R141" s="1" t="str">
         <f t="shared" si="23"/>
@@ -19801,7 +19827,7 @@
         <v>10</v>
       </c>
       <c r="N142" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R142" s="1" t="str">
         <f t="shared" si="23"/>
@@ -19921,7 +19947,7 @@
         <v>50</v>
       </c>
       <c r="N143" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R143" s="1" t="str">
         <f t="shared" si="23"/>
@@ -20041,7 +20067,7 @@
         <v>100</v>
       </c>
       <c r="N144" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R144" s="1" t="str">
         <f t="shared" si="23"/>
@@ -20161,13 +20187,13 @@
         <v>25</v>
       </c>
       <c r="N145" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O145" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="P145" s="10">
-        <v>25</v>
+      <c r="P145" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R145" s="1" t="str">
         <f t="shared" si="23"/>
@@ -20287,10 +20313,10 @@
         <v>25</v>
       </c>
       <c r="N146" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R146" s="1" t="str">
         <f t="shared" si="23"/>
@@ -20410,7 +20436,7 @@
         <v>25</v>
       </c>
       <c r="N147" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R147" s="1" t="str">
         <f t="shared" ref="R147:AH162" si="25">IFERROR(IF(FIND(R$1,$O147)=1,"Reservado","Fila"),"-")</f>
@@ -20530,7 +20556,7 @@
         <v>25</v>
       </c>
       <c r="N148" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R148" s="1" t="str">
         <f t="shared" si="25"/>
@@ -20650,10 +20676,10 @@
         <v>25</v>
       </c>
       <c r="N149" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R149" s="1" t="str">
         <f t="shared" si="25"/>
@@ -20773,7 +20799,7 @@
         <v>25</v>
       </c>
       <c r="N150" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R150" s="1" t="str">
         <f t="shared" si="25"/>
@@ -20893,7 +20919,7 @@
         <v>50</v>
       </c>
       <c r="N151" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R151" s="1" t="str">
         <f t="shared" si="25"/>
@@ -21013,10 +21039,13 @@
         <v>50</v>
       </c>
       <c r="N152" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O152" s="1" t="s">
         <v>594</v>
+      </c>
+      <c r="P152" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R152" s="1" t="str">
         <f t="shared" si="25"/>
@@ -21136,10 +21165,13 @@
         <v>50</v>
       </c>
       <c r="N153" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
+      </c>
+      <c r="P153" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R153" s="1" t="str">
         <f t="shared" si="25"/>
@@ -21259,7 +21291,7 @@
         <v>25</v>
       </c>
       <c r="N154" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R154" s="1" t="str">
         <f t="shared" si="25"/>
@@ -21379,7 +21411,7 @@
         <v>50</v>
       </c>
       <c r="N155" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R155" s="1" t="str">
         <f t="shared" si="25"/>
@@ -21499,7 +21531,7 @@
         <v>25</v>
       </c>
       <c r="N156" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R156" s="1" t="str">
         <f t="shared" si="25"/>
@@ -21619,7 +21651,7 @@
         <v>25</v>
       </c>
       <c r="N157" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R157" s="1" t="str">
         <f t="shared" si="25"/>
@@ -21739,7 +21771,7 @@
         <v>25</v>
       </c>
       <c r="N158" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R158" s="1" t="str">
         <f t="shared" si="25"/>
@@ -21859,7 +21891,7 @@
         <v>25</v>
       </c>
       <c r="N159" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R159" s="1" t="str">
         <f t="shared" si="25"/>
@@ -21979,10 +22011,10 @@
         <v>10</v>
       </c>
       <c r="N160" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R160" s="1" t="str">
         <f t="shared" si="25"/>
@@ -22093,7 +22125,7 @@
         <v>2</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L161" s="1" t="s">
         <v>591</v>
@@ -22102,10 +22134,10 @@
         <v>0</v>
       </c>
       <c r="N161" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="R161" s="1" t="str">
         <f t="shared" si="25"/>
@@ -22225,7 +22257,7 @@
         <v>50</v>
       </c>
       <c r="N162" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R162" s="1" t="str">
         <f t="shared" si="25"/>
@@ -22345,10 +22377,10 @@
         <v>10</v>
       </c>
       <c r="N163" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="R163" s="1" t="str">
         <f t="shared" ref="R163:AH178" si="28">IFERROR(IF(FIND(R$1,$O163)=1,"Reservado","Fila"),"-")</f>
@@ -22468,10 +22500,10 @@
         <v>10</v>
       </c>
       <c r="N164" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R164" s="1" t="str">
         <f t="shared" si="28"/>
@@ -22591,10 +22623,10 @@
         <v>10</v>
       </c>
       <c r="N165" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R165" s="1" t="str">
         <f t="shared" si="28"/>
@@ -22714,10 +22746,10 @@
         <v>25</v>
       </c>
       <c r="N166" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R166" s="1" t="str">
         <f t="shared" si="28"/>
@@ -22837,10 +22869,10 @@
         <v>25</v>
       </c>
       <c r="N167" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R167" s="1" t="str">
         <f t="shared" si="28"/>
@@ -22960,10 +22992,10 @@
         <v>25</v>
       </c>
       <c r="N168" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="R168" s="1" t="str">
         <f t="shared" si="28"/>
@@ -23074,7 +23106,7 @@
         <v>4</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L169" s="1" t="s">
         <v>591</v>
@@ -23083,10 +23115,10 @@
         <v>0</v>
       </c>
       <c r="N169" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R169" s="1" t="str">
         <f t="shared" si="28"/>
@@ -23206,7 +23238,7 @@
         <v>10</v>
       </c>
       <c r="N170" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R170" s="1" t="str">
         <f t="shared" si="28"/>
@@ -23326,10 +23358,10 @@
         <v>10</v>
       </c>
       <c r="N171" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R171" s="1" t="str">
         <f t="shared" si="28"/>
@@ -23449,7 +23481,7 @@
         <v>25</v>
       </c>
       <c r="N172" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R172" s="1" t="str">
         <f t="shared" si="28"/>
@@ -23569,7 +23601,7 @@
         <v>10</v>
       </c>
       <c r="N173" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R173" s="1" t="str">
         <f t="shared" si="28"/>
@@ -23689,10 +23721,10 @@
         <v>25</v>
       </c>
       <c r="N174" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R174" s="1" t="str">
         <f t="shared" si="28"/>
@@ -23812,10 +23844,10 @@
         <v>25</v>
       </c>
       <c r="N175" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R175" s="1" t="str">
         <f t="shared" si="28"/>
@@ -23935,7 +23967,7 @@
         <v>10</v>
       </c>
       <c r="N176" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R176" s="1" t="str">
         <f t="shared" si="28"/>
@@ -24055,7 +24087,7 @@
         <v>25</v>
       </c>
       <c r="N177" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R177" s="1" t="str">
         <f t="shared" si="28"/>
@@ -24290,7 +24322,7 @@
         <v>25</v>
       </c>
       <c r="N179" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R179" s="1" t="str">
         <f t="shared" ref="R179:AG194" si="31">IFERROR(IF(FIND(R$1,$O179)=1,"Reservado","Fila"),"-")</f>
@@ -24410,7 +24442,7 @@
         <v>25</v>
       </c>
       <c r="N180" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R180" s="1" t="str">
         <f t="shared" si="31"/>
@@ -24530,7 +24562,7 @@
         <v>0</v>
       </c>
       <c r="N181" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R181" s="1" t="str">
         <f t="shared" si="31"/>
@@ -24650,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="N182" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R182" s="1" t="str">
         <f t="shared" si="31"/>
@@ -24770,7 +24802,7 @@
         <v>10</v>
       </c>
       <c r="N183" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R183" s="1" t="str">
         <f t="shared" si="31"/>
@@ -24890,7 +24922,7 @@
         <v>25</v>
       </c>
       <c r="N184" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R184" s="1" t="str">
         <f t="shared" si="31"/>
@@ -25010,7 +25042,7 @@
         <v>0</v>
       </c>
       <c r="N185" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>595</v>
@@ -25133,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="N186" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R186" s="1" t="str">
         <f t="shared" si="31"/>
@@ -25256,7 +25288,7 @@
         <v>0</v>
       </c>
       <c r="N187" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R187" s="1" t="str">
         <f t="shared" si="31"/>
@@ -25376,7 +25408,7 @@
         <v>25</v>
       </c>
       <c r="N188" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R188" s="1" t="str">
         <f t="shared" si="31"/>
@@ -25496,7 +25528,7 @@
         <v>10</v>
       </c>
       <c r="N189" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R189" s="1" t="str">
         <f t="shared" si="31"/>
@@ -25616,10 +25648,10 @@
         <v>10</v>
       </c>
       <c r="N190" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O190" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="R190" s="1" t="str">
         <f t="shared" si="31"/>
@@ -25739,10 +25771,10 @@
         <v>0</v>
       </c>
       <c r="N191" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O191" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R191" s="1" t="str">
         <f t="shared" si="31"/>
@@ -25862,7 +25894,7 @@
         <v>10</v>
       </c>
       <c r="N192" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R192" s="1" t="str">
         <f t="shared" si="31"/>
@@ -25982,7 +26014,7 @@
         <v>10</v>
       </c>
       <c r="N193" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R193" s="1" t="str">
         <f t="shared" si="31"/>
@@ -26102,7 +26134,7 @@
         <v>25</v>
       </c>
       <c r="N194" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R194" s="1" t="str">
         <f t="shared" si="31"/>
@@ -26222,7 +26254,7 @@
         <v>10</v>
       </c>
       <c r="N195" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R195" s="1" t="str">
         <f t="shared" ref="R195:AH210" si="33">IFERROR(IF(FIND(R$1,$O195)=1,"Reservado","Fila"),"-")</f>
@@ -26342,10 +26374,10 @@
         <v>25</v>
       </c>
       <c r="N196" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O196" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="R196" s="1" t="str">
         <f t="shared" si="33"/>
@@ -26465,7 +26497,7 @@
         <v>10</v>
       </c>
       <c r="N197" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R197" s="1" t="str">
         <f t="shared" si="33"/>
@@ -26585,7 +26617,7 @@
         <v>25</v>
       </c>
       <c r="N198" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R198" s="1" t="str">
         <f t="shared" si="33"/>
@@ -26705,10 +26737,10 @@
         <v>25</v>
       </c>
       <c r="N199" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O199" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R199" s="1" t="str">
         <f t="shared" si="33"/>
@@ -26828,7 +26860,7 @@
         <v>25</v>
       </c>
       <c r="N200" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>596</v>
@@ -26951,7 +26983,7 @@
         <v>10</v>
       </c>
       <c r="N201" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R201" s="1" t="str">
         <f t="shared" si="33"/>
@@ -27071,10 +27103,10 @@
         <v>25</v>
       </c>
       <c r="N202" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O202" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R202" s="1" t="str">
         <f t="shared" si="33"/>
@@ -27194,7 +27226,7 @@
         <v>0</v>
       </c>
       <c r="N203" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>595</v>
@@ -27317,10 +27349,10 @@
         <v>25</v>
       </c>
       <c r="N204" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R204" s="1" t="str">
         <f t="shared" si="33"/>
@@ -27440,7 +27472,7 @@
         <v>25</v>
       </c>
       <c r="N205" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>596</v>
@@ -27563,7 +27595,7 @@
         <v>10</v>
       </c>
       <c r="N206" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R206" s="1" t="str">
         <f t="shared" si="33"/>
@@ -27683,10 +27715,10 @@
         <v>0</v>
       </c>
       <c r="N207" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O207" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R207" s="1" t="str">
         <f t="shared" si="33"/>
@@ -27806,7 +27838,7 @@
         <v>0</v>
       </c>
       <c r="N208" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R208" s="1" t="str">
         <f t="shared" si="33"/>
@@ -27926,10 +27958,10 @@
         <v>0</v>
       </c>
       <c r="N209" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O209" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R209" s="1" t="str">
         <f t="shared" si="33"/>
@@ -28049,7 +28081,7 @@
         <v>0</v>
       </c>
       <c r="N210" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>595</v>
@@ -28172,7 +28204,7 @@
         <v>50</v>
       </c>
       <c r="N211" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="R211" s="1" t="str">
         <f t="shared" ref="R211:AH226" si="36">IFERROR(IF(FIND(R$1,$O211)=1,"Reservado","Fila"),"-")</f>
@@ -28292,10 +28324,10 @@
         <v>50</v>
       </c>
       <c r="N212" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O212" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R212" s="1" t="str">
         <f t="shared" si="36"/>
@@ -28415,10 +28447,10 @@
         <v>25</v>
       </c>
       <c r="N213" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O213" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R213" s="1" t="str">
         <f t="shared" si="36"/>
@@ -28538,7 +28570,7 @@
         <v>25</v>
       </c>
       <c r="N214" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R214" s="1" t="str">
         <f t="shared" si="36"/>
@@ -28658,10 +28690,10 @@
         <v>25</v>
       </c>
       <c r="N215" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O215" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R215" s="1" t="str">
         <f t="shared" si="36"/>
@@ -28781,7 +28813,7 @@
         <v>10</v>
       </c>
       <c r="N216" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R216" s="1" t="str">
         <f t="shared" si="36"/>
@@ -28901,10 +28933,10 @@
         <v>25</v>
       </c>
       <c r="N217" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O217" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R217" s="1" t="str">
         <f t="shared" si="36"/>
@@ -29024,10 +29056,10 @@
         <v>25</v>
       </c>
       <c r="N218" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O218" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R218" s="1" t="str">
         <f t="shared" si="36"/>
@@ -29147,10 +29179,10 @@
         <v>10</v>
       </c>
       <c r="N219" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O219" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R219" s="1" t="str">
         <f t="shared" si="36"/>
@@ -29270,10 +29302,10 @@
         <v>10</v>
       </c>
       <c r="N220" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O220" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R220" s="1" t="str">
         <f t="shared" si="36"/>
@@ -29393,7 +29425,7 @@
         <v>40</v>
       </c>
       <c r="N221" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>595</v>
@@ -29517,10 +29549,10 @@
         <v>50</v>
       </c>
       <c r="N222" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O222" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="R222" s="1" t="str">
         <f t="shared" si="36"/>
@@ -29640,10 +29672,10 @@
         <v>50</v>
       </c>
       <c r="N223" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O223" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R223" s="1" t="str">
         <f t="shared" si="36"/>
@@ -29763,7 +29795,7 @@
         <v>100</v>
       </c>
       <c r="N224" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>596</v>
@@ -29886,10 +29918,10 @@
         <v>0</v>
       </c>
       <c r="N225" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O225" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="R225" s="1" t="str">
         <f t="shared" si="36"/>
@@ -30009,10 +30041,10 @@
         <v>0</v>
       </c>
       <c r="N226" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O226" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="R226" s="1" t="str">
         <f t="shared" si="36"/>
@@ -30132,10 +30164,10 @@
         <v>0</v>
       </c>
       <c r="N227" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O227" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R227" s="1" t="str">
         <f t="shared" ref="R227:AG242" si="39">IFERROR(IF(FIND(R$1,$O227)=1,"Reservado","Fila"),"-")</f>
@@ -30255,10 +30287,10 @@
         <v>0</v>
       </c>
       <c r="N228" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O228" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R228" s="1" t="str">
         <f t="shared" si="39"/>
@@ -30378,10 +30410,10 @@
         <v>25</v>
       </c>
       <c r="N229" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O229" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R229" s="1" t="str">
         <f t="shared" si="39"/>
@@ -30501,10 +30533,10 @@
         <v>25</v>
       </c>
       <c r="N230" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O230" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R230" s="1" t="str">
         <f t="shared" si="39"/>
@@ -30624,10 +30656,10 @@
         <v>25</v>
       </c>
       <c r="N231" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O231" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="R231" s="1" t="str">
         <f t="shared" si="39"/>
@@ -30747,7 +30779,7 @@
         <v>10</v>
       </c>
       <c r="N232" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R232" s="1" t="str">
         <f t="shared" si="39"/>
@@ -30867,7 +30899,7 @@
         <v>25</v>
       </c>
       <c r="N233" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R233" s="1" t="str">
         <f t="shared" si="39"/>
@@ -30987,10 +31019,10 @@
         <v>50</v>
       </c>
       <c r="N234" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O234" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R234" s="1" t="str">
         <f t="shared" si="39"/>
@@ -31110,10 +31142,10 @@
         <v>75</v>
       </c>
       <c r="N235" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O235" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R235" s="1" t="str">
         <f t="shared" si="39"/>
@@ -31233,7 +31265,7 @@
         <v>50</v>
       </c>
       <c r="N236" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R236" s="1" t="str">
         <f t="shared" si="39"/>
@@ -31353,7 +31385,7 @@
         <v>25</v>
       </c>
       <c r="N237" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R237" s="1" t="str">
         <f t="shared" si="39"/>
@@ -31473,10 +31505,10 @@
         <v>25</v>
       </c>
       <c r="N238" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O238" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R238" s="1" t="str">
         <f t="shared" si="39"/>
@@ -31596,7 +31628,7 @@
         <v>25</v>
       </c>
       <c r="N239" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>595</v>
@@ -31719,7 +31751,7 @@
         <v>25</v>
       </c>
       <c r="N240" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R240" s="1" t="str">
         <f t="shared" si="39"/>
@@ -31839,7 +31871,7 @@
         <v>50</v>
       </c>
       <c r="N241" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R241" s="1" t="str">
         <f t="shared" si="39"/>
@@ -31959,10 +31991,10 @@
         <v>25</v>
       </c>
       <c r="N242" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O242" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R242" s="1" t="str">
         <f t="shared" si="39"/>
@@ -32082,10 +32114,10 @@
         <v>25</v>
       </c>
       <c r="N243" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O243" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="R243" s="1" t="str">
         <f t="shared" ref="R243:AH258" si="41">IFERROR(IF(FIND(R$1,$O243)=1,"Reservado","Fila"),"-")</f>
@@ -32205,10 +32237,10 @@
         <v>10</v>
       </c>
       <c r="N244" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O244" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="R244" s="1" t="str">
         <f t="shared" si="41"/>
@@ -32328,7 +32360,7 @@
         <v>0</v>
       </c>
       <c r="N245" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R245" s="1" t="str">
         <f t="shared" si="41"/>
@@ -32448,10 +32480,10 @@
         <v>0</v>
       </c>
       <c r="N246" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O246" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R246" s="1" t="str">
         <f t="shared" si="41"/>
@@ -32562,7 +32594,7 @@
         <v>4</v>
       </c>
       <c r="K247" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L247" s="1" t="s">
         <v>591</v>
@@ -32571,10 +32603,10 @@
         <v>10</v>
       </c>
       <c r="N247" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O247" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q247" s="14"/>
       <c r="R247" s="1" t="str">
@@ -32695,13 +32727,13 @@
         <v>0</v>
       </c>
       <c r="N248" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="P248" s="10">
-        <v>0</v>
+      <c r="P248" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R248" s="1" t="str">
         <f t="shared" si="41"/>
@@ -32821,10 +32853,10 @@
         <v>10</v>
       </c>
       <c r="N249" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O249" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R249" s="1" t="str">
         <f t="shared" si="41"/>
@@ -32944,10 +32976,10 @@
         <v>10</v>
       </c>
       <c r="N250" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O250" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Q250" s="1"/>
       <c r="R250" s="1" t="str">
@@ -33068,10 +33100,10 @@
         <v>10</v>
       </c>
       <c r="N251" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O251" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R251" s="1" t="str">
         <f t="shared" si="41"/>
@@ -33191,10 +33223,10 @@
         <v>75</v>
       </c>
       <c r="N252" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O252" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R252" s="1" t="str">
         <f t="shared" si="41"/>
@@ -33314,10 +33346,10 @@
         <v>0</v>
       </c>
       <c r="N253" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O253" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="R253" s="1" t="str">
         <f t="shared" si="41"/>
@@ -33437,10 +33469,10 @@
         <v>75</v>
       </c>
       <c r="N254" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O254" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="R254" s="1" t="str">
         <f t="shared" si="41"/>
@@ -33560,7 +33592,7 @@
         <v>50</v>
       </c>
       <c r="N255" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R255" s="1" t="str">
         <f t="shared" si="41"/>
@@ -33680,7 +33712,7 @@
         <v>60</v>
       </c>
       <c r="N256" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>595</v>
@@ -33804,10 +33836,10 @@
         <v>25</v>
       </c>
       <c r="N257" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O257" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R257" s="1" t="str">
         <f t="shared" si="41"/>
@@ -33921,7 +33953,7 @@
         <v>103</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="M258" s="16"/>
       <c r="N258" s="14"/>
@@ -34159,7 +34191,7 @@
         <v>50</v>
       </c>
       <c r="N260" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>597</v>
@@ -34283,7 +34315,7 @@
         <v>50</v>
       </c>
       <c r="N261" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R261" s="1" t="str">
         <f t="shared" si="44"/>
@@ -34403,10 +34435,10 @@
         <v>50</v>
       </c>
       <c r="N262" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O262" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="R262" s="1" t="str">
         <f t="shared" si="44"/>
@@ -34526,7 +34558,7 @@
         <v>50</v>
       </c>
       <c r="N263" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R263" s="1" t="str">
         <f t="shared" si="44"/>
@@ -34646,10 +34678,10 @@
         <v>0</v>
       </c>
       <c r="N264" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O264" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="R264" s="1" t="str">
         <f t="shared" si="44"/>
@@ -34769,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="N265" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R265" s="1" t="str">
         <f t="shared" si="44"/>
@@ -34889,7 +34921,7 @@
         <v>50</v>
       </c>
       <c r="N266" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R266" s="1" t="str">
         <f t="shared" si="44"/>
@@ -35009,7 +35041,7 @@
         <v>25</v>
       </c>
       <c r="N267" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R267" s="1" t="str">
         <f t="shared" si="44"/>
@@ -35129,10 +35161,10 @@
         <v>50</v>
       </c>
       <c r="N268" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O268" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R268" s="1" t="str">
         <f t="shared" si="44"/>
@@ -35252,10 +35284,10 @@
         <v>10</v>
       </c>
       <c r="N269" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O269" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R269" s="1" t="str">
         <f t="shared" si="44"/>
@@ -35375,7 +35407,7 @@
         <v>10</v>
       </c>
       <c r="N270" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R270" s="1" t="str">
         <f t="shared" si="44"/>
@@ -35495,10 +35527,10 @@
         <v>10</v>
       </c>
       <c r="N271" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O271" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="R271" s="1" t="str">
         <f t="shared" si="44"/>
@@ -35618,10 +35650,10 @@
         <v>10</v>
       </c>
       <c r="N272" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O272" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="R272" s="1" t="str">
         <f t="shared" si="44"/>
@@ -35741,7 +35773,7 @@
         <v>10</v>
       </c>
       <c r="N273" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R273" s="1" t="str">
         <f t="shared" si="44"/>
@@ -35861,10 +35893,10 @@
         <v>10</v>
       </c>
       <c r="N274" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O274" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="R274" s="1" t="str">
         <f t="shared" si="44"/>
@@ -35984,7 +36016,7 @@
         <v>25</v>
       </c>
       <c r="N275" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R275" s="1" t="str">
         <f t="shared" ref="R275:AG290" si="47">IFERROR(IF(FIND(R$1,$O275)=1,"Reservado","Fila"),"-")</f>
@@ -36104,7 +36136,7 @@
         <v>10</v>
       </c>
       <c r="N276" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R276" s="1" t="str">
         <f t="shared" si="47"/>
@@ -36224,7 +36256,7 @@
         <v>0</v>
       </c>
       <c r="N277" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R277" s="1" t="str">
         <f t="shared" si="47"/>
@@ -36344,7 +36376,7 @@
         <v>0</v>
       </c>
       <c r="N278" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R278" s="1" t="str">
         <f t="shared" si="47"/>
@@ -36464,10 +36496,10 @@
         <v>0</v>
       </c>
       <c r="N279" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O279" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R279" s="1" t="str">
         <f t="shared" si="47"/>
@@ -36587,7 +36619,7 @@
         <v>0</v>
       </c>
       <c r="N280" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R280" s="1" t="str">
         <f t="shared" si="47"/>
@@ -36707,10 +36739,10 @@
         <v>0</v>
       </c>
       <c r="N281" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O281" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="R281" s="1" t="str">
         <f t="shared" si="47"/>
@@ -36830,10 +36862,10 @@
         <v>300</v>
       </c>
       <c r="N282" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O282" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="R282" s="1" t="str">
         <f t="shared" si="47"/>
@@ -36953,7 +36985,7 @@
         <v>75</v>
       </c>
       <c r="N283" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>595</v>
@@ -37076,7 +37108,7 @@
         <v>10</v>
       </c>
       <c r="N284" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R284" s="1" t="str">
         <f t="shared" si="47"/>
@@ -37196,7 +37228,7 @@
         <v>10</v>
       </c>
       <c r="N285" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R285" s="1" t="str">
         <f t="shared" si="47"/>
@@ -37316,10 +37348,10 @@
         <v>25</v>
       </c>
       <c r="N286" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O286" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R286" s="1" t="str">
         <f t="shared" si="47"/>
@@ -37439,10 +37471,10 @@
         <v>50</v>
       </c>
       <c r="N287" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O287" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="R287" s="1" t="str">
         <f t="shared" si="47"/>
@@ -37562,13 +37594,13 @@
         <v>230</v>
       </c>
       <c r="N288" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O288" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="P288" s="10">
-        <v>230</v>
+      <c r="P288" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R288" s="1" t="str">
         <f t="shared" si="47"/>
@@ -37688,10 +37720,10 @@
         <v>0</v>
       </c>
       <c r="N289" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O289" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="R289" s="1" t="str">
         <f t="shared" si="47"/>
@@ -37811,10 +37843,10 @@
         <v>0</v>
       </c>
       <c r="N290" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O290" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="R290" s="1" t="str">
         <f t="shared" si="47"/>
@@ -37934,7 +37966,7 @@
         <v>40</v>
       </c>
       <c r="N291" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O291" s="1" t="s">
         <v>595</v>
@@ -38058,13 +38090,13 @@
         <v>215</v>
       </c>
       <c r="N292" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O292" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="P292" s="10">
-        <v>215</v>
+      <c r="P292" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R292" s="1" t="str">
         <f t="shared" si="49"/>
@@ -38184,7 +38216,7 @@
         <v>25</v>
       </c>
       <c r="N293" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="R293" s="1" t="str">
         <f t="shared" si="49"/>
@@ -38304,10 +38336,10 @@
         <v>0</v>
       </c>
       <c r="N294" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O294" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R294" s="1" t="str">
         <f t="shared" si="49"/>
@@ -38427,10 +38459,10 @@
         <v>0</v>
       </c>
       <c r="N295" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O295" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="R295" s="1" t="str">
         <f t="shared" si="49"/>
@@ -38550,13 +38582,13 @@
         <v>25</v>
       </c>
       <c r="N296" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O296" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="P296" s="10">
-        <v>25</v>
+      <c r="P296" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R296" s="1" t="str">
         <f t="shared" si="49"/>
@@ -38676,7 +38708,7 @@
         <v>30</v>
       </c>
       <c r="N297" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O297" s="1" t="s">
         <v>595</v>
@@ -38800,7 +38832,7 @@
         <v>75</v>
       </c>
       <c r="N298" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R298" s="1" t="str">
         <f t="shared" si="49"/>
@@ -39035,7 +39067,7 @@
         <v>25</v>
       </c>
       <c r="N300" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R300" s="1" t="str">
         <f t="shared" si="49"/>
@@ -39155,10 +39187,10 @@
         <v>25</v>
       </c>
       <c r="N301" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O301" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="R301" s="1" t="str">
         <f t="shared" si="49"/>
@@ -39278,10 +39310,10 @@
         <v>10</v>
       </c>
       <c r="N302" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O302" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R302" s="1" t="str">
         <f t="shared" si="49"/>
@@ -39401,7 +39433,7 @@
         <v>10</v>
       </c>
       <c r="N303" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R303" s="1" t="str">
         <f t="shared" si="49"/>
@@ -39521,7 +39553,7 @@
         <v>10</v>
       </c>
       <c r="N304" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R304" s="1" t="str">
         <f t="shared" si="49"/>
@@ -39641,7 +39673,7 @@
         <v>25</v>
       </c>
       <c r="N305" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R305" s="1" t="str">
         <f t="shared" si="49"/>
@@ -39876,7 +39908,7 @@
         <v>0</v>
       </c>
       <c r="N307" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R307" s="1" t="str">
         <f t="shared" ref="R307:AH316" si="52">IFERROR(IF(FIND(R$1,$O307)=1,"Reservado","Fila"),"-")</f>
@@ -39996,7 +40028,7 @@
         <v>0</v>
       </c>
       <c r="N308" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R308" s="1" t="str">
         <f t="shared" si="52"/>
@@ -40116,10 +40148,10 @@
         <v>75</v>
       </c>
       <c r="N309" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O309" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="R309" s="1" t="str">
         <f t="shared" si="52"/>
@@ -40239,10 +40271,10 @@
         <v>75</v>
       </c>
       <c r="N310" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O310" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="R310" s="1" t="str">
         <f t="shared" si="52"/>
@@ -40362,7 +40394,7 @@
         <v>0</v>
       </c>
       <c r="N311" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="R311" s="1" t="str">
         <f t="shared" si="52"/>
@@ -40482,10 +40514,10 @@
         <v>10</v>
       </c>
       <c r="N312" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O312" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R312" s="1" t="str">
         <f t="shared" si="52"/>
@@ -40605,7 +40637,7 @@
         <v>10</v>
       </c>
       <c r="N313" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R313" s="1" t="str">
         <f t="shared" si="52"/>
@@ -40725,7 +40757,7 @@
         <v>10</v>
       </c>
       <c r="N314" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R314" s="1" t="str">
         <f t="shared" si="52"/>
@@ -40960,10 +40992,10 @@
         <v>25</v>
       </c>
       <c r="N316" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O316" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="R316" s="1" t="str">
         <f t="shared" si="52"/>
@@ -41086,7 +41118,7 @@
     </row>
     <row r="319" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q319" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="R319" s="1">
         <f>COUNTIF(R$2:R$316,$Q319)</f>
@@ -41167,7 +41199,7 @@
     </row>
     <row r="320" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q320" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="R320" s="1">
         <f>COUNTIF(R$2:R$316,$Q320)</f>
@@ -41248,7 +41280,7 @@
     </row>
     <row r="321" spans="17:36" x14ac:dyDescent="0.25">
       <c r="Q321" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R321" s="12">
         <f>R319/SUM(R319:R320)</f>
@@ -41329,7 +41361,7 @@
     </row>
     <row r="322" spans="17:36" x14ac:dyDescent="0.25">
       <c r="Q322" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="R322" s="10">
         <f>SUMIF(R$2:R$316,$Q322,$M$2:$M$316)</f>
@@ -41410,7 +41442,7 @@
     </row>
     <row r="323" spans="17:36" x14ac:dyDescent="0.25">
       <c r="Q323" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="R323" s="10">
         <f t="shared" ref="R323:S323" si="57">SUMIF(R$2:R$316,$Q323,$M$2:$M$316)</f>

--- a/src/Send-off.xlsx
+++ b/src/Send-off.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUISRICARDOGerbelli\Documents\GitHub\send-off\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A560262-7AFC-4020-A4BC-706AB337E87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980858EC-3BD1-43FF-BA4F-B0FF1974A537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73E549BB-D9AE-42B8-B9EF-C186AC431F7B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="693">
   <si>
     <t>Quarto 1</t>
   </si>
@@ -2158,7 +2158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2174,12 +2174,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2210,7 +2204,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2252,9 +2246,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2692,7 +2683,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA26E52-B7FB-4B01-98F3-C24F63094090}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AJ323"/>
+  <dimension ref="A1:AK323"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2723,7 +2714,7 @@
     <col min="29" max="36" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>580</v>
       </c>
@@ -2784,31 +2775,31 @@
       <c r="U1" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="8" t="s">
         <v>632</v>
       </c>
       <c r="AA1" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="8" t="s">
         <v>658</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="8" t="s">
         <v>634</v>
       </c>
       <c r="AE1" s="15" t="s">
@@ -2817,20 +2808,20 @@
       <c r="AF1" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AG1" s="8" t="s">
         <v>597</v>
       </c>
       <c r="AH1" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AI1" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2955,8 +2946,9 @@
         <f t="shared" ref="AJ2:AJ65" si="1">IFERROR(IF(FIND(AJ$1,$O2)=1,"Reservado","Fila"),"-")</f>
         <v>-</v>
       </c>
+      <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3075,8 +3067,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK3" s="1"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3197,8 +3190,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK4" s="1"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3323,8 +3317,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK5" s="1"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3438,8 +3433,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK6" s="1"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3558,8 +3554,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK7" s="1"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3681,8 +3678,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK8" s="1"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3727,6 +3725,9 @@
       </c>
       <c r="O9" s="1" t="s">
         <v>660</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3804,8 +3805,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK9" s="1"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>522</v>
       </c>
@@ -3924,8 +3926,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK10" s="1"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>523</v>
       </c>
@@ -4044,8 +4047,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>524</v>
       </c>
@@ -4164,8 +4168,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>525</v>
       </c>
@@ -4284,8 +4289,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>526</v>
       </c>
@@ -4404,8 +4410,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>527</v>
       </c>
@@ -4524,8 +4531,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK15" s="1"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>528</v>
       </c>
@@ -4644,8 +4652,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK16" s="1"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -4767,8 +4776,9 @@
         <f t="shared" si="1"/>
         <v>Fila</v>
       </c>
+      <c r="AK17" s="1"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -4890,8 +4900,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK18" s="1"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -5005,8 +5016,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK19" s="1"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -5125,8 +5137,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK20" s="1"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>529</v>
       </c>
@@ -5171,6 +5184,9 @@
       </c>
       <c r="O21" s="1" t="s">
         <v>651</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5248,8 +5264,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK21" s="1"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>530</v>
       </c>
@@ -5371,8 +5388,9 @@
         <f t="shared" si="1"/>
         <v>Reservado</v>
       </c>
+      <c r="AK22" s="1"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -5486,8 +5504,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK23" s="1"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -5601,8 +5620,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK24" s="1"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -5721,8 +5741,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK25" s="1"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5841,8 +5862,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK26" s="1"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -5965,8 +5987,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK27" s="1"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -6085,8 +6108,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK28" s="1"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -6200,8 +6224,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK29" s="1"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>531</v>
       </c>
@@ -6320,8 +6345,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK30" s="1"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>532</v>
       </c>
@@ -6440,8 +6466,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK31" s="1"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -6563,8 +6590,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK32" s="1"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -6683,8 +6711,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK33" s="1"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -6806,8 +6835,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK34" s="1"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -6926,8 +6956,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK35" s="1"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -7049,8 +7080,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK36" s="1"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -7172,8 +7204,9 @@
         <f t="shared" si="1"/>
         <v>Fila</v>
       </c>
+      <c r="AK37" s="1"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -7287,8 +7320,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK38" s="1"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -7407,8 +7441,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK39" s="1"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -7527,8 +7562,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK40" s="1"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -7642,8 +7678,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK41" s="1"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -7765,8 +7802,9 @@
         <f t="shared" si="1"/>
         <v>Fila</v>
       </c>
+      <c r="AK42" s="1"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -7811,6 +7849,9 @@
       </c>
       <c r="O43" s="1" t="s">
         <v>651</v>
+      </c>
+      <c r="P43" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R43" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7888,8 +7929,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK43" s="1"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -8003,8 +8045,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK44" s="1"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -8118,8 +8161,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK45" s="1"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -8238,8 +8282,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK46" s="1"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -8358,8 +8403,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK47" s="1"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -8481,8 +8527,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK48" s="1"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -8601,8 +8648,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK49" s="1"/>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -8724,8 +8772,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK50" s="1"/>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>533</v>
       </c>
@@ -8847,8 +8896,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK51" s="1"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>534</v>
       </c>
@@ -8970,8 +9020,9 @@
         <f t="shared" si="1"/>
         <v>Fila</v>
       </c>
+      <c r="AK52" s="1"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -9096,8 +9147,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK53" s="1"/>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>535</v>
       </c>
@@ -9211,8 +9263,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK54" s="1"/>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>536</v>
       </c>
@@ -9326,8 +9379,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK55" s="1"/>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>537</v>
       </c>
@@ -9446,8 +9500,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK56" s="1"/>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>538</v>
       </c>
@@ -9566,8 +9621,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK57" s="1"/>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>539</v>
       </c>
@@ -9681,8 +9737,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK58" s="1"/>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>540</v>
       </c>
@@ -9801,8 +9858,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK59" s="1"/>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -9924,8 +9982,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK60" s="1"/>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -10039,8 +10098,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK61" s="1"/>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -10085,6 +10145,9 @@
       </c>
       <c r="O62" s="1" t="s">
         <v>654</v>
+      </c>
+      <c r="P62" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R62" s="1" t="str">
         <f t="shared" si="9"/>
@@ -10162,8 +10225,9 @@
         <f t="shared" si="1"/>
         <v>Fila</v>
       </c>
+      <c r="AK62" s="1"/>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -10285,8 +10349,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK63" s="1"/>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -10405,8 +10470,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK64" s="1"/>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -10525,8 +10591,9 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
+      <c r="AK65" s="1"/>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -10648,8 +10715,9 @@
         <f t="shared" si="11"/>
         <v>Fila</v>
       </c>
+      <c r="AK66" s="1"/>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>93</v>
       </c>
@@ -10771,8 +10839,9 @@
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
+      <c r="AK67" s="1"/>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>95</v>
       </c>
@@ -10894,8 +10963,9 @@
         <f t="shared" si="11"/>
         <v>Reservado</v>
       </c>
+      <c r="AK68" s="1"/>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -11020,8 +11090,9 @@
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
+      <c r="AK69" s="1"/>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>99</v>
       </c>
@@ -11066,6 +11137,9 @@
       </c>
       <c r="O70" s="1" t="s">
         <v>651</v>
+      </c>
+      <c r="P70" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R70" s="1" t="str">
         <f t="shared" si="12"/>
@@ -11143,8 +11217,9 @@
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
+      <c r="AK70" s="1"/>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>101</v>
       </c>
@@ -11266,8 +11341,9 @@
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
+      <c r="AK71" s="1"/>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>102</v>
       </c>
@@ -11386,8 +11462,9 @@
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
+      <c r="AK72" s="1"/>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>105</v>
       </c>
@@ -11509,8 +11586,9 @@
         <f t="shared" si="11"/>
         <v>Fila</v>
       </c>
+      <c r="AK73" s="1"/>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -11624,8 +11702,9 @@
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
+      <c r="AK74" s="1"/>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -11747,8 +11826,9 @@
         <f t="shared" si="13"/>
         <v>Reservado</v>
       </c>
+      <c r="AK75" s="1"/>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>111</v>
       </c>
@@ -11870,8 +11950,9 @@
         <f t="shared" si="13"/>
         <v>Reservado</v>
       </c>
+      <c r="AK76" s="1"/>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>113</v>
       </c>
@@ -11993,8 +12074,9 @@
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
+      <c r="AK77" s="1"/>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>116</v>
       </c>
@@ -12109,8 +12191,9 @@
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
+      <c r="AK78" s="1"/>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>117</v>
       </c>
@@ -12232,8 +12315,9 @@
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
+      <c r="AK79" s="1"/>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>541</v>
       </c>
@@ -12355,8 +12439,9 @@
         <f t="shared" si="13"/>
         <v>Fila</v>
       </c>
+      <c r="AK80" s="1"/>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>542</v>
       </c>
@@ -12478,8 +12563,9 @@
         <f t="shared" si="13"/>
         <v>Fila</v>
       </c>
+      <c r="AK81" s="1"/>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>543</v>
       </c>
@@ -12604,8 +12690,9 @@
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
+      <c r="AK82" s="1"/>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>119</v>
       </c>
@@ -12727,8 +12814,9 @@
         <f t="shared" si="13"/>
         <v>Fila</v>
       </c>
+      <c r="AK83" s="1"/>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>121</v>
       </c>
@@ -12850,8 +12938,9 @@
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
+      <c r="AK84" s="1"/>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>123</v>
       </c>
@@ -12973,8 +13062,9 @@
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
+      <c r="AK85" s="1"/>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>126</v>
       </c>
@@ -13088,8 +13178,9 @@
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
+      <c r="AK86" s="1"/>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -13211,8 +13302,9 @@
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
+      <c r="AK87" s="1"/>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>131</v>
       </c>
@@ -13334,8 +13426,9 @@
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
+      <c r="AK88" s="1"/>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>133</v>
       </c>
@@ -13457,8 +13550,9 @@
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
+      <c r="AK89" s="1"/>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>135</v>
       </c>
@@ -13580,8 +13674,9 @@
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
+      <c r="AK90" s="1"/>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>137</v>
       </c>
@@ -13703,8 +13798,9 @@
         <f t="shared" si="13"/>
         <v>Fila</v>
       </c>
+      <c r="AK91" s="1"/>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>139</v>
       </c>
@@ -13827,8 +13923,9 @@
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
+      <c r="AK92" s="1"/>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>141</v>
       </c>
@@ -13950,8 +14047,9 @@
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
+      <c r="AK93" s="1"/>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>143</v>
       </c>
@@ -14074,8 +14172,9 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
+      <c r="AK94" s="1"/>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>145</v>
       </c>
@@ -14194,8 +14293,9 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
+      <c r="AK95" s="1"/>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>147</v>
       </c>
@@ -14320,8 +14420,9 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
+      <c r="AK96" s="1"/>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>149</v>
       </c>
@@ -14446,8 +14547,9 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
+      <c r="AK97" s="1"/>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>150</v>
       </c>
@@ -14492,6 +14594,9 @@
       </c>
       <c r="O98" s="1" t="s">
         <v>651</v>
+      </c>
+      <c r="P98" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R98" s="1" t="str">
         <f t="shared" si="15"/>
@@ -14569,8 +14674,9 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
+      <c r="AK98" s="1"/>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>152</v>
       </c>
@@ -14695,8 +14801,9 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
+      <c r="AK99" s="1"/>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>154</v>
       </c>
@@ -14815,8 +14922,9 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
+      <c r="AK100" s="1"/>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>155</v>
       </c>
@@ -14938,8 +15046,9 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
+      <c r="AK101" s="1"/>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>157</v>
       </c>
@@ -15061,8 +15170,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK102" s="1"/>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>544</v>
       </c>
@@ -15176,8 +15286,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK103" s="1"/>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>545</v>
       </c>
@@ -15302,8 +15413,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK104" s="1"/>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>158</v>
       </c>
@@ -15425,8 +15537,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK105" s="1"/>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>159</v>
       </c>
@@ -15545,8 +15658,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK106" s="1"/>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>160</v>
       </c>
@@ -15592,7 +15706,9 @@
       <c r="O107" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="P107" s="11"/>
+      <c r="P107" s="11" t="s">
+        <v>692</v>
+      </c>
       <c r="R107" s="1" t="str">
         <f t="shared" si="17"/>
         <v>-</v>
@@ -15669,8 +15785,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK107" s="1"/>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>161</v>
       </c>
@@ -15789,8 +15906,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK108" s="1"/>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>162</v>
       </c>
@@ -15909,8 +16027,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK109" s="1"/>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>163</v>
       </c>
@@ -16029,8 +16148,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK110" s="1"/>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>164</v>
       </c>
@@ -16149,8 +16269,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK111" s="1"/>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>165</v>
       </c>
@@ -16269,8 +16390,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK112" s="1"/>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>546</v>
       </c>
@@ -16384,8 +16506,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK113" s="1"/>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>547</v>
       </c>
@@ -16510,8 +16633,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK114" s="1"/>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>548</v>
       </c>
@@ -16625,8 +16749,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK115" s="1"/>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>549</v>
       </c>
@@ -16751,8 +16876,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK116" s="1"/>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>550</v>
       </c>
@@ -16877,8 +17003,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK117" s="1"/>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>551</v>
       </c>
@@ -17003,8 +17130,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK118" s="1"/>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>552</v>
       </c>
@@ -17129,8 +17257,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK119" s="1"/>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>553</v>
       </c>
@@ -17244,8 +17373,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK120" s="1"/>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>167</v>
       </c>
@@ -17364,8 +17494,9 @@
         <f t="shared" si="19"/>
         <v>-</v>
       </c>
+      <c r="AK121" s="1"/>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>557</v>
       </c>
@@ -17484,8 +17615,9 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
+      <c r="AK122" s="1"/>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>558</v>
       </c>
@@ -17604,8 +17736,9 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
+      <c r="AK123" s="1"/>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>169</v>
       </c>
@@ -17724,8 +17857,9 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
+      <c r="AK124" s="1"/>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>554</v>
       </c>
@@ -17844,8 +17978,9 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
+      <c r="AK125" s="1"/>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>555</v>
       </c>
@@ -17964,8 +18099,9 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
+      <c r="AK126" s="1"/>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>556</v>
       </c>
@@ -18087,8 +18223,9 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
+      <c r="AK127" s="1"/>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>170</v>
       </c>
@@ -18210,8 +18347,9 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
+      <c r="AK128" s="1"/>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>173</v>
       </c>
@@ -18333,8 +18471,9 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
+      <c r="AK129" s="1"/>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>175</v>
       </c>
@@ -18456,8 +18595,9 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
+      <c r="AK130" s="1"/>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>178</v>
       </c>
@@ -18576,8 +18716,9 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
+      <c r="AK131" s="1"/>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>180</v>
       </c>
@@ -18699,8 +18840,9 @@
         <f t="shared" si="21"/>
         <v>Fila</v>
       </c>
+      <c r="AK132" s="1"/>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>182</v>
       </c>
@@ -18825,8 +18967,9 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
+      <c r="AK133" s="1"/>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>421</v>
       </c>
@@ -18941,8 +19084,9 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
+      <c r="AK134" s="1"/>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>422</v>
       </c>
@@ -19064,8 +19208,9 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
+      <c r="AK135" s="1"/>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>184</v>
       </c>
@@ -19184,8 +19329,9 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
+      <c r="AK136" s="1"/>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>187</v>
       </c>
@@ -19299,8 +19445,9 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
+      <c r="AK137" s="1"/>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>188</v>
       </c>
@@ -19422,8 +19569,9 @@
         <f t="shared" si="21"/>
         <v>Reservado</v>
       </c>
+      <c r="AK138" s="1"/>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>190</v>
       </c>
@@ -19542,8 +19690,9 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
+      <c r="AK139" s="1"/>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>192</v>
       </c>
@@ -19662,8 +19811,9 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
+      <c r="AK140" s="1"/>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>194</v>
       </c>
@@ -19785,8 +19935,9 @@
         <f t="shared" si="21"/>
         <v>-</v>
       </c>
+      <c r="AK141" s="1"/>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>195</v>
       </c>
@@ -19905,8 +20056,9 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
+      <c r="AK142" s="1"/>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>197</v>
       </c>
@@ -20025,8 +20177,9 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
+      <c r="AK143" s="1"/>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>198</v>
       </c>
@@ -20145,8 +20298,9 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
+      <c r="AK144" s="1"/>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>200</v>
       </c>
@@ -20271,8 +20425,9 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
+      <c r="AK145" s="1"/>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>202</v>
       </c>
@@ -20394,8 +20549,9 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
+      <c r="AK146" s="1"/>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>423</v>
       </c>
@@ -20514,8 +20670,9 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
+      <c r="AK147" s="1"/>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>424</v>
       </c>
@@ -20634,8 +20791,9 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
+      <c r="AK148" s="1"/>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>425</v>
       </c>
@@ -20757,8 +20915,9 @@
         <f t="shared" si="22"/>
         <v>-</v>
       </c>
+      <c r="AK149" s="1"/>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>426</v>
       </c>
@@ -20877,8 +21036,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK150" s="1"/>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>204</v>
       </c>
@@ -20997,8 +21157,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK151" s="1"/>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>427</v>
       </c>
@@ -21123,8 +21284,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK152" s="1"/>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>428</v>
       </c>
@@ -21249,8 +21411,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK153" s="1"/>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>429</v>
       </c>
@@ -21369,8 +21532,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK154" s="1"/>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>430</v>
       </c>
@@ -21489,8 +21653,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK155" s="1"/>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>431</v>
       </c>
@@ -21609,8 +21774,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK156" s="1"/>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>432</v>
       </c>
@@ -21729,8 +21895,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK157" s="1"/>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>433</v>
       </c>
@@ -21849,8 +22016,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK158" s="1"/>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>434</v>
       </c>
@@ -21969,8 +22137,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK159" s="1"/>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>435</v>
       </c>
@@ -22092,8 +22261,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK160" s="1"/>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>436</v>
       </c>
@@ -22215,8 +22385,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK161" s="1"/>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>437</v>
       </c>
@@ -22335,8 +22506,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK162" s="1"/>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>438</v>
       </c>
@@ -22458,8 +22630,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK163" s="1"/>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>439</v>
       </c>
@@ -22581,8 +22754,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK164" s="1"/>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>440</v>
       </c>
@@ -22704,8 +22878,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK165" s="1"/>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>441</v>
       </c>
@@ -22827,8 +23002,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK166" s="1"/>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>442</v>
       </c>
@@ -22950,8 +23126,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK167" s="1"/>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>443</v>
       </c>
@@ -23073,8 +23250,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK168" s="1"/>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>444</v>
       </c>
@@ -23196,8 +23374,9 @@
         <f t="shared" si="27"/>
         <v>-</v>
       </c>
+      <c r="AK169" s="1"/>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>445</v>
       </c>
@@ -23316,8 +23495,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK170" s="1"/>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>446</v>
       </c>
@@ -23362,6 +23542,9 @@
       </c>
       <c r="O171" s="1" t="s">
         <v>651</v>
+      </c>
+      <c r="P171" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R171" s="1" t="str">
         <f t="shared" si="28"/>
@@ -23439,8 +23622,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK171" s="1"/>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>447</v>
       </c>
@@ -23559,8 +23743,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK172" s="1"/>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>448</v>
       </c>
@@ -23679,8 +23864,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK173" s="1"/>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>449</v>
       </c>
@@ -23802,8 +23988,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK174" s="1"/>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>450</v>
       </c>
@@ -23925,8 +24112,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK175" s="1"/>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>451</v>
       </c>
@@ -24045,8 +24233,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK176" s="1"/>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>206</v>
       </c>
@@ -24165,8 +24354,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK177" s="1"/>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>452</v>
       </c>
@@ -24280,8 +24470,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK178" s="1"/>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>453</v>
       </c>
@@ -24400,8 +24591,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK179" s="1"/>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>454</v>
       </c>
@@ -24520,8 +24712,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK180" s="1"/>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>455</v>
       </c>
@@ -24640,8 +24833,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK181" s="1"/>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>456</v>
       </c>
@@ -24760,8 +24954,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK182" s="1"/>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>208</v>
       </c>
@@ -24880,8 +25075,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK183" s="1"/>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>210</v>
       </c>
@@ -25000,8 +25196,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK184" s="1"/>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>460</v>
       </c>
@@ -25123,8 +25320,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK185" s="1"/>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>461</v>
       </c>
@@ -25246,8 +25444,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK186" s="1"/>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>212</v>
       </c>
@@ -25366,8 +25565,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK187" s="1"/>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>213</v>
       </c>
@@ -25486,8 +25686,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK188" s="1"/>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>215</v>
       </c>
@@ -25606,8 +25807,9 @@
         <f t="shared" si="29"/>
         <v>-</v>
       </c>
+      <c r="AK189" s="1"/>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>216</v>
       </c>
@@ -25729,8 +25931,9 @@
         <f t="shared" si="30"/>
         <v>-</v>
       </c>
+      <c r="AK190" s="1"/>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>218</v>
       </c>
@@ -25852,8 +26055,9 @@
         <f t="shared" si="30"/>
         <v>-</v>
       </c>
+      <c r="AK191" s="1"/>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>219</v>
       </c>
@@ -25972,8 +26176,9 @@
         <f t="shared" si="30"/>
         <v>-</v>
       </c>
+      <c r="AK192" s="1"/>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>221</v>
       </c>
@@ -26092,8 +26297,9 @@
         <f t="shared" si="30"/>
         <v>-</v>
       </c>
+      <c r="AK193" s="1"/>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>223</v>
       </c>
@@ -26212,8 +26418,9 @@
         <f t="shared" si="30"/>
         <v>-</v>
       </c>
+      <c r="AK194" s="1"/>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>225</v>
       </c>
@@ -26332,8 +26539,9 @@
         <f t="shared" si="30"/>
         <v>-</v>
       </c>
+      <c r="AK195" s="1"/>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>227</v>
       </c>
@@ -26455,8 +26663,9 @@
         <f t="shared" si="30"/>
         <v>-</v>
       </c>
+      <c r="AK196" s="1"/>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>229</v>
       </c>
@@ -26575,8 +26784,9 @@
         <f t="shared" si="30"/>
         <v>-</v>
       </c>
+      <c r="AK197" s="1"/>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>457</v>
       </c>
@@ -26695,8 +26905,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK198" s="1"/>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>458</v>
       </c>
@@ -26741,6 +26952,9 @@
       </c>
       <c r="O199" s="1" t="s">
         <v>651</v>
+      </c>
+      <c r="P199" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R199" s="1" t="str">
         <f t="shared" si="33"/>
@@ -26818,8 +27032,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK199" s="1"/>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>459</v>
       </c>
@@ -26941,8 +27156,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK200" s="1"/>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>230</v>
       </c>
@@ -27061,8 +27277,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK201" s="1"/>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>232</v>
       </c>
@@ -27184,8 +27401,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK202" s="1"/>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>462</v>
       </c>
@@ -27307,8 +27525,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK203" s="1"/>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>463</v>
       </c>
@@ -27353,6 +27572,9 @@
       </c>
       <c r="O204" s="1" t="s">
         <v>651</v>
+      </c>
+      <c r="P204" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R204" s="1" t="str">
         <f t="shared" si="33"/>
@@ -27430,8 +27652,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK204" s="1"/>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>464</v>
       </c>
@@ -27553,8 +27776,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK205" s="1"/>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>465</v>
       </c>
@@ -27673,8 +27897,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK206" s="1"/>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>466</v>
       </c>
@@ -27719,6 +27944,9 @@
       </c>
       <c r="O207" s="1" t="s">
         <v>651</v>
+      </c>
+      <c r="P207" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R207" s="1" t="str">
         <f t="shared" si="33"/>
@@ -27796,8 +28024,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK207" s="1"/>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>467</v>
       </c>
@@ -27916,8 +28145,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK208" s="1"/>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>468</v>
       </c>
@@ -27962,6 +28192,9 @@
       </c>
       <c r="O209" s="1" t="s">
         <v>651</v>
+      </c>
+      <c r="P209" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R209" s="1" t="str">
         <f t="shared" si="33"/>
@@ -28039,8 +28272,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK209" s="1"/>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>469</v>
       </c>
@@ -28162,8 +28396,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK210" s="1"/>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>234</v>
       </c>
@@ -28282,8 +28517,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK211" s="1"/>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -28328,6 +28564,9 @@
       </c>
       <c r="O212" s="1" t="s">
         <v>651</v>
+      </c>
+      <c r="P212" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R212" s="1" t="str">
         <f t="shared" si="36"/>
@@ -28405,8 +28644,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK212" s="1"/>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>237</v>
       </c>
@@ -28528,8 +28768,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK213" s="1"/>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>238</v>
       </c>
@@ -28648,8 +28889,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK214" s="1"/>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>241</v>
       </c>
@@ -28771,8 +29013,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK215" s="1"/>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>243</v>
       </c>
@@ -28891,8 +29134,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK216" s="1"/>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>470</v>
       </c>
@@ -28935,7 +29179,7 @@
       <c r="N217" s="14" t="s">
         <v>627</v>
       </c>
-      <c r="O217" s="17" t="s">
+      <c r="O217" s="1" t="s">
         <v>636</v>
       </c>
       <c r="R217" s="1" t="str">
@@ -29014,8 +29258,9 @@
         <f t="shared" si="35"/>
         <v>-</v>
       </c>
+      <c r="AK217" s="1"/>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>471</v>
       </c>
@@ -29058,7 +29303,7 @@
       <c r="N218" s="14" t="s">
         <v>627</v>
       </c>
-      <c r="O218" s="17" t="s">
+      <c r="O218" s="1" t="s">
         <v>636</v>
       </c>
       <c r="R218" s="1" t="str">
@@ -29137,8 +29382,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK218" s="1"/>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>472</v>
       </c>
@@ -29181,7 +29427,7 @@
       <c r="N219" s="14" t="s">
         <v>627</v>
       </c>
-      <c r="O219" s="17" t="s">
+      <c r="O219" s="1" t="s">
         <v>636</v>
       </c>
       <c r="R219" s="1" t="str">
@@ -29260,8 +29506,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK219" s="1"/>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>473</v>
       </c>
@@ -29304,7 +29551,7 @@
       <c r="N220" s="14" t="s">
         <v>627</v>
       </c>
-      <c r="O220" s="17" t="s">
+      <c r="O220" s="1" t="s">
         <v>636</v>
       </c>
       <c r="R220" s="1" t="str">
@@ -29383,8 +29630,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK220" s="1"/>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>245</v>
       </c>
@@ -29507,8 +29755,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK221" s="1"/>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>247</v>
       </c>
@@ -29630,8 +29879,9 @@
         <f t="shared" si="37"/>
         <v>Fila</v>
       </c>
+      <c r="AK222" s="1"/>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>249</v>
       </c>
@@ -29753,8 +30003,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK223" s="1"/>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>251</v>
       </c>
@@ -29876,8 +30127,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK224" s="1"/>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>474</v>
       </c>
@@ -29999,8 +30251,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK225" s="1"/>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>475</v>
       </c>
@@ -30122,8 +30375,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK226" s="1"/>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>476</v>
       </c>
@@ -30245,8 +30499,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK227" s="1"/>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>477</v>
       </c>
@@ -30291,6 +30546,9 @@
       </c>
       <c r="O228" s="1" t="s">
         <v>651</v>
+      </c>
+      <c r="P228" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R228" s="1" t="str">
         <f t="shared" si="39"/>
@@ -30368,8 +30626,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK228" s="1"/>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>254</v>
       </c>
@@ -30491,8 +30750,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK229" s="1"/>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>256</v>
       </c>
@@ -30614,8 +30874,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK230" s="1"/>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>257</v>
       </c>
@@ -30737,8 +30998,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK231" s="1"/>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>259</v>
       </c>
@@ -30857,8 +31119,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK232" s="1"/>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>478</v>
       </c>
@@ -30977,8 +31240,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK233" s="1"/>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>479</v>
       </c>
@@ -31023,6 +31287,9 @@
       </c>
       <c r="O234" s="1" t="s">
         <v>651</v>
+      </c>
+      <c r="P234" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R234" s="1" t="str">
         <f t="shared" si="39"/>
@@ -31100,8 +31367,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK234" s="1"/>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>480</v>
       </c>
@@ -31223,8 +31491,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK235" s="1"/>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>481</v>
       </c>
@@ -31343,8 +31612,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK236" s="1"/>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>482</v>
       </c>
@@ -31463,8 +31733,9 @@
         <f t="shared" si="37"/>
         <v>-</v>
       </c>
+      <c r="AK237" s="1"/>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>483</v>
       </c>
@@ -31509,6 +31780,9 @@
       </c>
       <c r="O238" s="1" t="s">
         <v>651</v>
+      </c>
+      <c r="P238" s="10" t="s">
+        <v>692</v>
       </c>
       <c r="R238" s="1" t="str">
         <f t="shared" si="39"/>
@@ -31586,8 +31860,9 @@
         <f t="shared" si="38"/>
         <v>-</v>
       </c>
+      <c r="AK238" s="1"/>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>484</v>
       </c>
@@ -31709,8 +31984,9 @@
         <f t="shared" si="38"/>
         <v>-</v>
       </c>
+      <c r="AK239" s="1"/>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>485</v>
       </c>
@@ -31829,8 +32105,9 @@
         <f t="shared" si="38"/>
         <v>-</v>
       </c>
+      <c r="AK240" s="1"/>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>261</v>
       </c>
@@ -31949,8 +32226,9 @@
         <f t="shared" si="38"/>
         <v>-</v>
       </c>
+      <c r="AK241" s="1"/>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>486</v>
       </c>
@@ -32072,8 +32350,9 @@
         <f t="shared" si="38"/>
         <v>-</v>
       </c>
+      <c r="AK242" s="1"/>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>487</v>
       </c>
@@ -32195,8 +32474,9 @@
         <f t="shared" si="38"/>
         <v>-</v>
       </c>
+      <c r="AK243" s="1"/>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>488</v>
       </c>
@@ -32318,8 +32598,9 @@
         <f t="shared" si="38"/>
         <v>-</v>
       </c>
+      <c r="AK244" s="1"/>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>262</v>
       </c>
@@ -32438,8 +32719,9 @@
         <f t="shared" si="38"/>
         <v>-</v>
       </c>
+      <c r="AK245" s="1"/>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>489</v>
       </c>
@@ -32561,8 +32843,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK246" s="1"/>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>490</v>
       </c>
@@ -32685,8 +32968,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK247" s="1"/>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>491</v>
       </c>
@@ -32811,8 +33095,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK248" s="1"/>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>492</v>
       </c>
@@ -32934,8 +33219,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK249" s="1"/>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>493</v>
       </c>
@@ -33058,8 +33344,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK250" s="1"/>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>494</v>
       </c>
@@ -33181,8 +33468,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK251" s="1"/>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>264</v>
       </c>
@@ -33304,8 +33592,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK252" s="1"/>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>265</v>
       </c>
@@ -33427,8 +33716,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK253" s="1"/>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>267</v>
       </c>
@@ -33550,8 +33840,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK254" s="1"/>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>269</v>
       </c>
@@ -33670,8 +33961,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK255" s="1"/>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>271</v>
       </c>
@@ -33794,8 +34086,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK256" s="1"/>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>274</v>
       </c>
@@ -33917,8 +34210,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK257" s="1"/>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>495</v>
       </c>
@@ -34033,8 +34327,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK258" s="1"/>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>496</v>
       </c>
@@ -34149,8 +34444,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK259" s="1"/>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -34273,8 +34569,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK260" s="1"/>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>278</v>
       </c>
@@ -34393,8 +34690,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK261" s="1"/>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>280</v>
       </c>
@@ -34516,8 +34814,9 @@
         <f t="shared" si="43"/>
         <v>Reservado</v>
       </c>
+      <c r="AK262" s="1"/>
     </row>
-    <row r="263" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>282</v>
       </c>
@@ -34636,8 +34935,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK263" s="1"/>
     </row>
-    <row r="264" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>497</v>
       </c>
@@ -34759,8 +35059,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK264" s="1"/>
     </row>
-    <row r="265" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>498</v>
       </c>
@@ -34879,8 +35180,9 @@
         <f t="shared" si="43"/>
         <v>-</v>
       </c>
+      <c r="AK265" s="1"/>
     </row>
-    <row r="266" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>284</v>
       </c>
@@ -34999,8 +35301,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK266" s="1"/>
     </row>
-    <row r="267" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>286</v>
       </c>
@@ -35119,8 +35422,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK267" s="1"/>
     </row>
-    <row r="268" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>288</v>
       </c>
@@ -35242,8 +35546,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK268" s="1"/>
     </row>
-    <row r="269" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>507</v>
       </c>
@@ -35365,8 +35670,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK269" s="1"/>
     </row>
-    <row r="270" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>508</v>
       </c>
@@ -35485,8 +35791,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK270" s="1"/>
     </row>
-    <row r="271" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>509</v>
       </c>
@@ -35608,8 +35915,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK271" s="1"/>
     </row>
-    <row r="272" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>499</v>
       </c>
@@ -35731,8 +36039,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK272" s="1"/>
     </row>
-    <row r="273" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>500</v>
       </c>
@@ -35851,8 +36160,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK273" s="1"/>
     </row>
-    <row r="274" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>289</v>
       </c>
@@ -35974,8 +36284,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK274" s="1"/>
     </row>
-    <row r="275" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>501</v>
       </c>
@@ -36094,8 +36405,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK275" s="1"/>
     </row>
-    <row r="276" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>502</v>
       </c>
@@ -36214,8 +36526,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK276" s="1"/>
     </row>
-    <row r="277" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>503</v>
       </c>
@@ -36334,8 +36647,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK277" s="1"/>
     </row>
-    <row r="278" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>504</v>
       </c>
@@ -36454,8 +36768,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK278" s="1"/>
     </row>
-    <row r="279" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>505</v>
       </c>
@@ -36577,8 +36892,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK279" s="1"/>
     </row>
-    <row r="280" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>506</v>
       </c>
@@ -36697,8 +37013,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK280" s="1"/>
     </row>
-    <row r="281" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>291</v>
       </c>
@@ -36820,8 +37137,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK281" s="1"/>
     </row>
-    <row r="282" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>293</v>
       </c>
@@ -36943,8 +37261,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK282" s="1"/>
     </row>
-    <row r="283" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>295</v>
       </c>
@@ -37066,8 +37385,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK283" s="1"/>
     </row>
-    <row r="284" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>297</v>
       </c>
@@ -37186,8 +37506,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK284" s="1"/>
     </row>
-    <row r="285" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>299</v>
       </c>
@@ -37306,8 +37627,9 @@
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
+      <c r="AK285" s="1"/>
     </row>
-    <row r="286" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>300</v>
       </c>
@@ -37429,8 +37751,9 @@
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
+      <c r="AK286" s="1"/>
     </row>
-    <row r="287" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>302</v>
       </c>
@@ -37552,8 +37875,9 @@
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
+      <c r="AK287" s="1"/>
     </row>
-    <row r="288" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>304</v>
       </c>
@@ -37678,8 +38002,9 @@
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
+      <c r="AK288" s="1"/>
     </row>
-    <row r="289" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>306</v>
       </c>
@@ -37801,8 +38126,9 @@
         <f t="shared" si="46"/>
         <v>Fila</v>
       </c>
+      <c r="AK289" s="1"/>
     </row>
-    <row r="290" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>307</v>
       </c>
@@ -37924,8 +38250,9 @@
         <f t="shared" si="46"/>
         <v>Fila</v>
       </c>
+      <c r="AK290" s="1"/>
     </row>
-    <row r="291" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -38048,8 +38375,9 @@
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
+      <c r="AK291" s="1"/>
     </row>
-    <row r="292" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -38174,8 +38502,9 @@
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
+      <c r="AK292" s="1"/>
     </row>
-    <row r="293" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>313</v>
       </c>
@@ -38294,8 +38623,9 @@
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
+      <c r="AK293" s="1"/>
     </row>
-    <row r="294" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>315</v>
       </c>
@@ -38417,8 +38747,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK294" s="1"/>
     </row>
-    <row r="295" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>317</v>
       </c>
@@ -38540,8 +38871,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK295" s="1"/>
     </row>
-    <row r="296" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>322</v>
       </c>
@@ -38666,8 +38998,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK296" s="1"/>
     </row>
-    <row r="297" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>324</v>
       </c>
@@ -38790,8 +39123,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK297" s="1"/>
     </row>
-    <row r="298" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>328</v>
       </c>
@@ -38910,8 +39244,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK298" s="1"/>
     </row>
-    <row r="299" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>331</v>
       </c>
@@ -39025,8 +39360,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK299" s="1"/>
     </row>
-    <row r="300" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>510</v>
       </c>
@@ -39145,8 +39481,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK300" s="1"/>
     </row>
-    <row r="301" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>511</v>
       </c>
@@ -39268,8 +39605,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK301" s="1"/>
     </row>
-    <row r="302" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>512</v>
       </c>
@@ -39391,8 +39729,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK302" s="1"/>
     </row>
-    <row r="303" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>513</v>
       </c>
@@ -39511,8 +39850,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK303" s="1"/>
     </row>
-    <row r="304" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>514</v>
       </c>
@@ -39631,8 +39971,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK304" s="1"/>
     </row>
-    <row r="305" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>515</v>
       </c>
@@ -39751,8 +40092,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK305" s="1"/>
     </row>
-    <row r="306" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>516</v>
       </c>
@@ -39866,8 +40208,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK306" s="1"/>
     </row>
-    <row r="307" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>517</v>
       </c>
@@ -39986,8 +40329,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK307" s="1"/>
     </row>
-    <row r="308" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>518</v>
       </c>
@@ -40106,8 +40450,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK308" s="1"/>
     </row>
-    <row r="309" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>333</v>
       </c>
@@ -40229,8 +40574,9 @@
         <f t="shared" si="51"/>
         <v>Fila</v>
       </c>
+      <c r="AK309" s="1"/>
     </row>
-    <row r="310" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -40352,8 +40698,9 @@
         <f t="shared" si="51"/>
         <v>Fila</v>
       </c>
+      <c r="AK310" s="1"/>
     </row>
-    <row r="311" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -40472,8 +40819,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK311" s="1"/>
     </row>
-    <row r="312" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>519</v>
       </c>
@@ -40595,8 +40943,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK312" s="1"/>
     </row>
-    <row r="313" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>520</v>
       </c>
@@ -40715,8 +41064,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK313" s="1"/>
     </row>
-    <row r="314" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>521</v>
       </c>
@@ -40835,8 +41185,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK314" s="1"/>
     </row>
-    <row r="315" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>340</v>
       </c>
@@ -40950,8 +41301,9 @@
         <f t="shared" si="51"/>
         <v>-</v>
       </c>
+      <c r="AK315" s="1"/>
     </row>
-    <row r="316" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -41073,8 +41425,9 @@
         <f t="shared" si="51"/>
         <v>Reservado</v>
       </c>
+      <c r="AK316" s="1"/>
     </row>
-    <row r="317" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:37" x14ac:dyDescent="0.25">
       <c r="R317" s="1"/>
       <c r="S317" s="1"/>
       <c r="T317" s="1"/>
@@ -41095,7 +41448,7 @@
       <c r="AI317" s="1"/>
       <c r="AJ317" s="1"/>
     </row>
-    <row r="318" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:37" x14ac:dyDescent="0.25">
       <c r="R318" s="1"/>
       <c r="S318" s="1"/>
       <c r="T318" s="1"/>
@@ -41116,7 +41469,7 @@
       <c r="AI318" s="1"/>
       <c r="AJ318" s="1"/>
     </row>
-    <row r="319" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Q319" t="s">
         <v>648</v>
       </c>
@@ -41197,7 +41550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:37" x14ac:dyDescent="0.25">
       <c r="Q320" t="s">
         <v>649</v>
       </c>
@@ -41532,7 +41885,7 @@
       <formula>AND(D31&lt;&gt;"",#REF!=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R316 T2:AJ316">
+  <conditionalFormatting sqref="R2:R316 T2:AK316">
     <cfRule type="expression" dxfId="3" priority="5">
       <formula>R2="Reservado"</formula>
     </cfRule>
